--- a/s60_signal/position-00914-600585.xlsx
+++ b/s60_signal/position-00914-600585.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="238">
   <si>
     <t>trade_time</t>
   </si>
@@ -223,6 +223,9 @@
     <t>2021-07-08</t>
   </si>
   <si>
+    <t>2021-06-25</t>
+  </si>
+  <si>
     <t>2021-06-08</t>
   </si>
   <si>
@@ -401,6 +404,9 @@
   </si>
   <si>
     <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2021-06-17</t>
@@ -1079,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P248"/>
+  <dimension ref="A1:P240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1179,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1229,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1243,7 +1249,7 @@
         <v>3.865859388393531</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>4.097842290047694</v>
@@ -1279,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1293,7 +1299,7 @@
         <v>3.867842290047694</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>4.097842290047694</v>
@@ -1329,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1343,7 +1349,7 @@
         <v>3.461721442525899</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>3.39419673099987</v>
@@ -1379,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1393,7 +1399,7 @@
         <v>3.459734423297274</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>3.39419673099987</v>
@@ -1429,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1479,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1529,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1543,7 +1549,7 @@
         <v>3.16694425131325</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>3.359129610475641</v>
@@ -1579,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1593,7 +1599,7 @@
         <v>3.394897239794993</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>3.359129610475641</v>
@@ -1629,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1643,7 +1649,7 @@
         <v>3.117640232442373</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>2.635536081278246</v>
@@ -1679,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1693,7 +1699,7 @@
         <v>3.321848534770627</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>2.635536081278246</v>
@@ -1729,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1743,7 +1749,7 @@
         <v>3.344834697556873</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>2.635536081278246</v>
@@ -1779,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1793,7 +1799,7 @@
         <v>2.993112189363568</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <v>2.673112189363568</v>
@@ -1829,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1843,7 +1849,7 @@
         <v>3.20019421576287</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>2.673112189363568</v>
@@ -1879,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1893,7 +1899,7 @@
         <v>3.218390838430704</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <v>2.673112189363568</v>
@@ -1929,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1943,7 +1949,7 @@
         <v>3.103012988322206</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <v>2.62988710634049</v>
@@ -1979,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1993,7 +1999,7 @@
         <v>3.117383578413634</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>2.62988710634049</v>
@@ -2029,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2043,7 +2049,7 @@
         <v>2.953610693719877</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>2.537157276716563</v>
@@ -2079,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2093,7 +2099,7 @@
         <v>2.962099303708847</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <v>2.537157276716563</v>
@@ -2129,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2143,7 +2149,7 @@
         <v>2.872635186535728</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22">
         <v>2.682635186535727</v>
@@ -2179,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2193,7 +2199,7 @@
         <v>2.877935784430836</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <v>2.682635186535727</v>
@@ -2229,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2243,7 +2249,7 @@
         <v>2.852267607428114</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>2.629917990017542</v>
@@ -2279,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2293,7 +2299,7 @@
         <v>2.856766332130007</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>2.629917990017542</v>
@@ -2329,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2343,7 +2349,7 @@
         <v>2.811761351230931</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>2.640825752700035</v>
@@ -2379,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2393,7 +2399,7 @@
         <v>2.814665341436871</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <v>2.640825752700035</v>
@@ -2429,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2479,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2529,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2543,7 +2549,7 @@
         <v>2.63826823762383</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30">
         <v>2.63791236922124</v>
@@ -2579,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2593,7 +2599,7 @@
         <v>2.634341790286186</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>2.63791236922124</v>
@@ -2629,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2643,7 +2649,7 @@
         <v>2.644964559990708</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <v>2.63791236922124</v>
@@ -2679,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2693,7 +2699,7 @@
         <v>2.731915275790641</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33">
         <v>2.352208534673963</v>
@@ -2729,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2743,7 +2749,7 @@
         <v>2.610439248718354</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <v>2.352208534673963</v>
@@ -2779,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2793,7 +2799,7 @@
         <v>2.746753374580404</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>2.350225795209379</v>
@@ -2829,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2879,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2893,7 +2899,7 @@
         <v>2.787117571133386</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <v>2.823906542063554</v>
@@ -2929,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2943,7 +2949,7 @@
         <v>2.883884958958227</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>2.823906542063554</v>
@@ -2979,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2993,7 +2999,7 @@
         <v>2.85679612614372</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39">
         <v>2.509699758109345</v>
@@ -3029,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3043,7 +3049,7 @@
         <v>2.784156488881695</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40">
         <v>2.482559097029725</v>
@@ -3079,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3093,7 +3099,7 @@
         <v>2.712068545906188</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41">
         <v>2.389269688337961</v>
@@ -3129,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3143,7 +3149,7 @@
         <v>2.702691411029491</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42">
         <v>2.366731283785484</v>
@@ -3179,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3229,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3243,7 +3249,7 @@
         <v>2.972898466540091</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>2.959777273665928</v>
@@ -3279,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3293,7 +3299,7 @@
         <v>2.921933117969051</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45">
         <v>2.740731067560024</v>
@@ -3329,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3343,7 +3349,7 @@
         <v>2.98396235602636</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46">
         <v>2.472809772939694</v>
@@ -3379,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3393,7 +3399,7 @@
         <v>0.9436087597884253</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47">
         <v>-1.99755555963268</v>
@@ -3429,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3443,7 +3449,7 @@
         <v>0.9931330872741064</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48">
         <v>-1.945846335346161</v>
@@ -3479,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3493,7 +3499,7 @@
         <v>1.061208452840496</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49">
         <v>-1.561324587868725</v>
@@ -3529,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3543,7 +3549,7 @@
         <v>1.119649719030264</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50">
         <v>-1.498535232517298</v>
@@ -3579,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3593,7 +3599,7 @@
         <v>1.154541005165207</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51">
         <v>-1.461047999494632</v>
@@ -3629,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3643,7 +3649,7 @@
         <v>1.131852687543812</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52">
         <v>0.5478188871899121</v>
@@ -3693,7 +3699,7 @@
         <v>1.188936742513683</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53">
         <v>1.063100941658099</v>
@@ -3729,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3743,7 +3749,7 @@
         <v>1.249982102732112</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54">
         <v>0.07301952552553104</v>
@@ -3779,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3793,7 +3799,7 @@
         <v>1.342037179610671</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55">
         <v>-0.05480301084717354</v>
@@ -3829,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3843,7 +3849,7 @@
         <v>1.451972473813719</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E56">
         <v>0.9119894589734443</v>
@@ -3879,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3893,7 +3899,7 @@
         <v>1.510041973607841</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E57">
         <v>1.302812532847142</v>
@@ -3929,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3943,7 +3949,7 @@
         <v>1.540830568775363</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58">
         <v>0.9301997197644951</v>
@@ -3979,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3993,7 +3999,7 @@
         <v>1.597939172685521</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59">
         <v>0.792592453180788</v>
@@ -4029,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4043,7 +4049,7 @@
         <v>1.703402241378249</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60">
         <v>1.579882369457003</v>
@@ -4079,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4093,7 +4099,7 @@
         <v>7.082322116014304</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E61">
         <v>9.39892979714033</v>
@@ -4129,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4143,7 +4149,7 @@
         <v>6.03547807457366</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E62">
         <v>8.392943592760137</v>
@@ -4179,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4193,7 +4199,7 @@
         <v>-3.725741650745938</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63">
         <v>-1.061483620645447</v>
@@ -4229,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4243,7 +4249,7 @@
         <v>-3.390064231685251</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64">
         <v>-1.061483620645447</v>
@@ -4279,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4293,7 +4299,7 @@
         <v>-4.367653322749888</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65">
         <v>-1.625808861219163</v>
@@ -4329,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4343,7 +4349,7 @@
         <v>-4.031312771796635</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E66">
         <v>-1.625808861219163</v>
@@ -4379,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4393,7 +4399,7 @@
         <v>-4.607517906916144</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67">
         <v>-1.836681548332265</v>
@@ -4429,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4443,7 +4449,7 @@
         <v>-4.270929561970988</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E68">
         <v>-1.836681548332265</v>
@@ -4479,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4493,7 +4499,7 @@
         <v>-4.387223400334264</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69">
         <v>-2.098063558594617</v>
@@ -4543,7 +4549,7 @@
         <v>-4.567940612410105</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-2.098063558594617</v>
@@ -4593,7 +4599,7 @@
         <v>-4.572133036248417</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E71">
         <v>-2.256530930359915</v>
@@ -4629,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4643,7 +4649,7 @@
         <v>-4.748008707001226</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72">
         <v>-2.256530930359915</v>
@@ -4679,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4693,7 +4699,7 @@
         <v>-4.6969899027008</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73">
         <v>-2.363533139172588</v>
@@ -4729,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4743,7 +4749,7 @@
         <v>-4.869596410787189</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E74">
         <v>-2.363533139172588</v>
@@ -4779,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4793,7 +4799,7 @@
         <v>-4.851917740072338</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75">
         <v>-2.496306139780017</v>
@@ -4829,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4843,7 +4849,7 @@
         <v>-4.5541965709862</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E76">
         <v>-2.496306139780017</v>
@@ -4879,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4893,7 +4899,7 @@
         <v>-4.568923494933983</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>-2.496306139780017</v>
@@ -4929,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4943,7 +4949,7 @@
         <v>-4.843752817660352</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E78">
         <v>-2.753521553057368</v>
@@ -4993,7 +4999,7 @@
         <v>-4.803407083453244</v>
       </c>
       <c r="D79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E79">
         <v>-2.753521553057368</v>
@@ -5043,7 +5049,7 @@
         <v>-5.12322060515109</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E80">
         <v>-3.001775297477636</v>
@@ -5079,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5093,7 +5099,7 @@
         <v>-5.086667231317023</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E81">
         <v>-3.001775297477636</v>
@@ -5129,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5143,7 +5149,7 @@
         <v>-5.498672524566146</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E82">
         <v>-3.335292607939238</v>
@@ -5179,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5193,7 +5199,7 @@
         <v>-5.467214009763808</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E83">
         <v>-3.335292607939238</v>
@@ -5229,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5243,7 +5249,7 @@
         <v>-5.942693680916477</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E84">
         <v>-3.729720587118912</v>
@@ -5279,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5293,7 +5299,7 @@
         <v>-5.917260505396555</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E85">
         <v>-3.729720587118912</v>
@@ -5329,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5343,7 +5349,7 @@
         <v>-6.304243385177699</v>
       </c>
       <c r="D86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E86">
         <v>-4.050888435058688</v>
@@ -5379,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5393,7 +5399,7 @@
         <v>-6.283716416500575</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E87">
         <v>-4.050888435058688</v>
@@ -5429,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5443,7 +5449,7 @@
         <v>-6.70774440980211</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E88">
         <v>-4.422513380784331</v>
@@ -5493,7 +5499,7 @@
         <v>-7.026497484109498</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E89">
         <v>-4.701873696165997</v>
@@ -5529,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5543,7 +5549,7 @@
         <v>-7.466555872236626</v>
       </c>
       <c r="D90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E90">
         <v>-5.087547937459696</v>
@@ -5579,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5593,7 +5599,7 @@
         <v>-5.360456423998336</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E91">
         <v>-6.993426227125362</v>
@@ -5629,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5643,7 +5649,7 @@
         <v>-8.255385642797997</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E92">
         <v>-6.633019871061308</v>
@@ -5679,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5693,7 +5699,7 @@
         <v>-5.597771601185165</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93">
         <v>-7.088994860354454</v>
@@ -5729,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5743,7 +5749,7 @@
         <v>-5.553423604070751</v>
       </c>
       <c r="D94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E94">
         <v>-7.191259698838785</v>
@@ -5779,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5793,7 +5799,7 @@
         <v>-8.299892373677679</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E95">
         <v>-6.674413562841202</v>
@@ -5829,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5843,7 +5849,7 @@
         <v>-5.645829142288029</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E96">
         <v>-7.139484463254028</v>
@@ -5879,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5893,7 +5899,7 @@
         <v>-5.603572718318787</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97">
         <v>-7.242673485221104</v>
@@ -5929,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5943,7 +5949,7 @@
         <v>-8.177862645389048</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E98">
         <v>-6.702607565134123</v>
@@ -5979,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5993,7 +5999,7 @@
         <v>-8.330206723969127</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E99">
         <v>-6.702607565134123</v>
@@ -6029,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6043,7 +6049,7 @@
         <v>-5.758656618823501</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E100">
         <v>-7.247843724527407</v>
@@ -6079,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6093,7 +6099,7 @@
         <v>-5.6785620145153</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E101">
         <v>-7.17387385735514</v>
@@ -6129,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6143,7 +6149,7 @@
         <v>-5.637730199357563</v>
       </c>
       <c r="D102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E102">
         <v>-7.277692357634287</v>
@@ -6179,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6193,7 +6199,7 @@
         <v>-8.225632222005096</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E103">
         <v>-6.745854277581202</v>
@@ -6229,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6243,7 +6249,7 @@
         <v>-8.376705833121981</v>
       </c>
       <c r="D104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E104">
         <v>-6.745854277581202</v>
@@ -6279,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6293,7 +6299,7 @@
         <v>-5.862563499790042</v>
       </c>
       <c r="D105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E105">
         <v>-7.296273944224318</v>
@@ -6329,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6343,7 +6349,7 @@
         <v>-8.138199110881978</v>
       </c>
       <c r="D106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E106">
         <v>-6.427417499781725</v>
@@ -6379,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6393,7 +6399,7 @@
         <v>-5.728770888660677</v>
       </c>
       <c r="D107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E107">
         <v>-7.22662366642691</v>
@@ -6429,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6443,7 +6449,7 @@
         <v>-5.690124277539631</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E108">
         <v>-7.331407721978074</v>
@@ -6479,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6493,7 +6499,7 @@
         <v>-8.44310768470099</v>
       </c>
       <c r="D109" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E109">
         <v>-6.807611628066162</v>
@@ -6543,7 +6549,7 @@
         <v>-5.928529929391487</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E110">
         <v>-7.365433468327915</v>
@@ -6593,7 +6599,7 @@
         <v>-8.210188877839769</v>
       </c>
       <c r="D111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E111">
         <v>-6.495996461248566</v>
@@ -6643,7 +6649,7 @@
         <v>-5.80047037430009</v>
       </c>
       <c r="D112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E112">
         <v>-7.301951668546046</v>
@@ -6693,7 +6699,7 @@
         <v>-5.764944287351611</v>
       </c>
       <c r="D113" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E113">
         <v>-7.408114560359508</v>
@@ -6743,7 +6749,7 @@
         <v>-8.501365905896868</v>
       </c>
       <c r="D114" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E114">
         <v>-6.861794957287685</v>
@@ -6779,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6793,7 +6799,7 @@
         <v>-5.986406129464761</v>
       </c>
       <c r="D115" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E115">
         <v>-7.426111156633567</v>
@@ -6829,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6843,7 +6849,7 @@
         <v>-8.273349703442292</v>
       </c>
       <c r="D116" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E116">
         <v>-6.556164788057423</v>
@@ -6879,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6893,7 +6899,7 @@
         <v>-5.863376519154215</v>
       </c>
       <c r="D117" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E117">
         <v>-7.36804132275514</v>
@@ -6929,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6943,7 +6949,7 @@
         <v>-5.830588250251004</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E118">
         <v>-7.475413948123489</v>
@@ -6979,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6993,7 +6999,7 @@
         <v>-6.036191740627181</v>
       </c>
       <c r="D119" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E119">
         <v>-7.478306632362695</v>
@@ -7043,7 +7049,7 @@
         <v>-8.327681195491927</v>
       </c>
       <c r="D120" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E120">
         <v>-6.607922106592611</v>
@@ -7093,7 +7099,7 @@
         <v>-5.917488932606872</v>
       </c>
       <c r="D121" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E121">
         <v>-7.424892218669974</v>
@@ -7143,7 +7149,7 @@
         <v>-5.887055758621138</v>
       </c>
       <c r="D122" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E122">
         <v>-7.533305467373957</v>
@@ -7193,7 +7199,7 @@
         <v>-6.124286449526096</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E123">
         <v>-7.570665551593358</v>
@@ -7229,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7243,7 +7249,7 @@
         <v>-8.423819755698446</v>
       </c>
       <c r="D124" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E124">
         <v>-6.699505714853863</v>
@@ -7279,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7293,7 +7299,7 @@
         <v>-6.01323983732869</v>
       </c>
       <c r="D125" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E125">
         <v>-7.525488816950592</v>
@@ -7329,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7343,7 +7349,7 @@
         <v>-5.986973959803521</v>
       </c>
       <c r="D126" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E126">
         <v>-7.635743429206912</v>
@@ -7379,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7393,7 +7399,7 @@
         <v>-6.206127283819491</v>
       </c>
       <c r="D127" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E127">
         <v>-7.709858398136483</v>
@@ -7429,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7443,7 +7449,7 @@
         <v>-8.568708846748585</v>
       </c>
       <c r="D128" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E128">
         <v>-6.83753010098529</v>
@@ -7479,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7493,7 +7499,7 @@
         <v>-6.157544698172977</v>
       </c>
       <c r="D129" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E129">
         <v>-7.677096555367967</v>
@@ -7529,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7543,7 +7549,7 @@
         <v>-6.137559295360667</v>
       </c>
       <c r="D130" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E130">
         <v>-7.790126261102067</v>
@@ -7579,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7593,7 +7599,7 @@
         <v>-8.724455302555334</v>
       </c>
       <c r="D131" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E131">
         <v>-6.985897440438293</v>
@@ -7629,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7643,7 +7649,7 @@
         <v>-6.312663144077284</v>
       </c>
       <c r="D132" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E132">
         <v>-7.84006512505286</v>
@@ -7679,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7693,7 +7699,7 @@
         <v>-6.299428847716271</v>
       </c>
       <c r="D133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E133">
         <v>-7.956077877823574</v>
@@ -7729,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7743,7 +7749,7 @@
         <v>-8.881996475438136</v>
       </c>
       <c r="D134" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E134">
         <v>-7.135974465009106</v>
@@ -7779,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7793,7 +7799,7 @@
         <v>-6.469569070295236</v>
       </c>
       <c r="D135" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E135">
         <v>-8.004911634581433</v>
@@ -7829,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7843,7 +7849,7 @@
         <v>-6.463163675581363</v>
       </c>
       <c r="D136" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E136">
         <v>-8.123941809010191</v>
@@ -7879,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7893,7 +7899,7 @@
         <v>-6.555849051211844</v>
       </c>
       <c r="D137" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E137">
         <v>-8.070947070211147</v>
@@ -7929,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7943,7 +7949,7 @@
         <v>-8.944574494910249</v>
       </c>
       <c r="D138" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E138">
         <v>-7.195587598478006</v>
@@ -7979,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7993,7 +7999,7 @@
         <v>-6.531894759043666</v>
       </c>
       <c r="D139" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E139">
         <v>-8.070391457375841</v>
@@ -8029,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8043,7 +8049,7 @@
         <v>-6.52820191960933</v>
       </c>
       <c r="D140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E140">
         <v>-8.190620202742068</v>
@@ -8079,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8093,7 +8099,7 @@
         <v>-9.097128692828768</v>
       </c>
       <c r="D141" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E141">
         <v>-7.340913926132238</v>
@@ -8129,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8143,7 +8149,7 @@
         <v>-6.683833819067353</v>
       </c>
       <c r="D142" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E142">
         <v>-8.230019741084938</v>
@@ -8179,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8193,7 +8199,7 @@
         <v>-6.686753712002471</v>
       </c>
       <c r="D143" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E143">
         <v>-8.35317039145162</v>
@@ -8229,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8243,7 +8249,7 @@
         <v>-9.226549811636133</v>
       </c>
       <c r="D144" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E144">
         <v>-7.464203197576758</v>
@@ -8279,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8293,7 +8299,7 @@
         <v>-6.812733078524694</v>
       </c>
       <c r="D145" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E145">
         <v>-8.365442242417643</v>
@@ -8329,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8343,7 +8349,7 @@
         <v>-9.195297631482575</v>
       </c>
       <c r="D146" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E146">
         <v>-7.43443171547483</v>
@@ -8379,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8393,7 +8399,7 @@
         <v>-6.78160691522659</v>
       </c>
       <c r="D147" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E147">
         <v>-8.33274086842632</v>
@@ -8429,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8443,7 +8449,7 @@
         <v>-9.178575533094566</v>
       </c>
       <c r="D148" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E148">
         <v>-7.418501893925765</v>
@@ -8479,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8493,7 +8499,7 @@
         <v>-9.01172937356634</v>
       </c>
       <c r="D149" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E149">
         <v>-7.259560743971967</v>
@@ -8529,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8543,7 +8549,7 @@
         <v>-6.598778851898729</v>
       </c>
       <c r="D150" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E150">
         <v>-8.14066037274381</v>
@@ -8579,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8593,7 +8599,7 @@
         <v>-6.597996959825494</v>
       </c>
       <c r="D151" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E151">
         <v>-8.26217535066494</v>
@@ -8629,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8643,7 +8649,7 @@
         <v>-6.580061112481111</v>
       </c>
       <c r="D152" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E152">
         <v>-8.095946089051466</v>
@@ -8679,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8693,7 +8699,7 @@
         <v>-8.970596558592923</v>
       </c>
       <c r="D153" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E153">
         <v>-7.220376761966044</v>
@@ -8729,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8743,7 +8749,7 @@
         <v>-6.557811895050207</v>
       </c>
       <c r="D154" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E154">
         <v>-8.09762018933413</v>
@@ -8779,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8793,7 +8799,7 @@
         <v>-6.555247028134374</v>
       </c>
       <c r="D155" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E155">
         <v>-8.218347341162016</v>
@@ -8829,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8843,7 +8849,7 @@
         <v>-6.577113402823095</v>
       </c>
       <c r="D156" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E156">
         <v>-8.092902570845517</v>
@@ -8879,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8893,7 +8899,7 @@
         <v>-8.967428489274667</v>
       </c>
       <c r="D157" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E157">
         <v>-7.217358792706207</v>
@@ -8929,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8943,7 +8949,7 @@
         <v>-6.554656600205007</v>
       </c>
       <c r="D158" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E158">
         <v>-8.094305213575709</v>
@@ -8979,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -8993,7 +8999,7 @@
         <v>-6.551954407703803</v>
       </c>
       <c r="D159" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E159">
         <v>-8.214971686656575</v>
@@ -9029,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9043,7 +9049,7 @@
         <v>-8.96588564418861</v>
       </c>
       <c r="D160" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E160">
         <v>-7.215889046127252</v>
@@ -9079,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9093,7 +9099,7 @@
         <v>-6.553119976268491</v>
       </c>
       <c r="D161" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E161">
         <v>-8.092690825269933</v>
@@ -9129,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9143,7 +9149,7 @@
         <v>-6.550350906409733</v>
       </c>
       <c r="D162" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E162">
         <v>-8.213327747890489</v>
@@ -9179,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9193,7 +9199,7 @@
         <v>-8.957282379415823</v>
       </c>
       <c r="D163" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E163">
         <v>-7.207693395713662</v>
@@ -9229,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9243,7 +9249,7 @@
         <v>-6.544551402079463</v>
       </c>
       <c r="D164" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E164">
         <v>-8.083688618783896</v>
@@ -9279,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9293,7 +9299,7 @@
         <v>-6.541409408445269</v>
       </c>
       <c r="D165" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E165">
         <v>-8.204160761131575</v>
@@ -9329,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9343,7 +9349,7 @@
         <v>-9.189704217204067</v>
       </c>
       <c r="D166" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E166">
         <v>-8.287425006865455</v>
@@ -9379,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9393,7 +9399,7 @@
         <v>-8.966990157030267</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E167">
         <v>-7.216941228219355</v>
@@ -9429,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9443,7 +9449,7 @@
         <v>-6.554220035429331</v>
       </c>
       <c r="D168" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E168">
         <v>-8.09384655544094</v>
@@ -9479,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9493,7 +9499,7 @@
         <v>-6.551498842639312</v>
       </c>
       <c r="D169" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E169">
         <v>-8.214504633045351</v>
@@ -9529,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9543,7 +9549,7 @@
         <v>-9.200987551467627</v>
       </c>
       <c r="D170" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E170">
         <v>-8.062628257853937</v>
@@ -9579,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9593,7 +9599,7 @@
         <v>-5.744424659624897</v>
       </c>
       <c r="D171" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E171">
         <v>-9.168004982467224</v>
@@ -9629,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9643,7 +9649,7 @@
         <v>-9.320459183580553</v>
       </c>
       <c r="D172" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E172">
         <v>-8.519444616447643</v>
@@ -9679,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9693,7 +9699,7 @@
         <v>-9.758278581073185</v>
       </c>
       <c r="D173" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E173">
         <v>-8.519444616447643</v>
@@ -9729,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9743,7 +9749,7 @@
         <v>1.93748613778034</v>
       </c>
       <c r="D174" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E174">
         <v>-3.785088938010851</v>
@@ -9779,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -9793,7 +9799,7 @@
         <v>-9.449792997965268</v>
       </c>
       <c r="D175" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E175">
         <v>-3.02668852932127</v>
@@ -9829,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -9879,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9893,7 +9899,7 @@
         <v>-7.49349826462975</v>
       </c>
       <c r="D177" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E177">
         <v>-2.563031396720049</v>
@@ -9929,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -9943,7 +9949,7 @@
         <v>-7.400654460855741</v>
       </c>
       <c r="D178" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E178">
         <v>-2.563031396720049</v>
@@ -9979,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -9993,7 +9999,7 @@
         <v>-7.310878524281797</v>
       </c>
       <c r="D179" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E179">
         <v>-2.470392808492726</v>
@@ -10029,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10043,7 +10049,7 @@
         <v>-1.137705700364087</v>
       </c>
       <c r="D180" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E180">
         <v>-5.327198547332877</v>
@@ -10079,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10093,7 +10099,7 @@
         <v>-7.43565059492704</v>
       </c>
       <c r="D181" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E181">
         <v>-4.511272425220589</v>
@@ -10129,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10143,7 +10149,7 @@
         <v>-7.728087200798136</v>
       </c>
       <c r="D182" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E182">
         <v>-4.511272425220589</v>
@@ -10179,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10193,7 +10199,7 @@
         <v>-7.776944970817269</v>
       </c>
       <c r="D183" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E183">
         <v>-4.636449928781524</v>
@@ -10229,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10243,7 +10249,7 @@
         <v>-2.366005602048894</v>
       </c>
       <c r="D184" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E184">
         <v>-5.159190826471352</v>
@@ -10279,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10293,7 +10299,7 @@
         <v>-3.086643025309506</v>
       </c>
       <c r="D185" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E185">
         <v>-5.921712484906784</v>
@@ -10329,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10343,7 +10349,7 @@
         <v>-8.081861396637805</v>
       </c>
       <c r="D186" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E186">
         <v>-5.158033193571107</v>
@@ -10379,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10393,7 +10399,7 @@
         <v>-8.385297335303981</v>
       </c>
       <c r="D187" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E187">
         <v>-5.158033193571107</v>
@@ -10429,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10443,7 +10449,7 @@
         <v>-8.415456239571483</v>
       </c>
       <c r="D188" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E188">
         <v>-5.252412565305825</v>
@@ -10479,7 +10485,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10493,7 +10499,7 @@
         <v>-2.950620140107226</v>
       </c>
       <c r="D189" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E189">
         <v>-5.733355998374364</v>
@@ -10529,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10543,7 +10549,7 @@
         <v>6.422751594100816</v>
       </c>
       <c r="D190" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E190">
         <v>2.901892440584781</v>
@@ -10579,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10593,7 +10599,7 @@
         <v>5.893713788467551</v>
       </c>
       <c r="D191" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E191">
         <v>2.901892440584781</v>
@@ -10629,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10643,7 +10649,7 @@
         <v>0.5179406222671616</v>
       </c>
       <c r="D192" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E192">
         <v>0.1467723461990573</v>
@@ -10679,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10693,7 +10699,7 @@
         <v>0.3677345405657775</v>
       </c>
       <c r="D193" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E193">
         <v>0.1467723461990573</v>
@@ -10729,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10743,7 +10749,7 @@
         <v>7.212705926337946</v>
       </c>
       <c r="D194" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E194">
         <v>3.676716599119786</v>
@@ -10779,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -10793,7 +10799,7 @@
         <v>6.682075470841298</v>
       </c>
       <c r="D195" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E195">
         <v>3.676716599119786</v>
@@ -10829,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -10843,7 +10849,7 @@
         <v>0.8352277483245487</v>
       </c>
       <c r="D196" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E196">
         <v>0.3846845807742838</v>
@@ -10879,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10893,7 +10899,7 @@
         <v>1.19909776925082</v>
       </c>
       <c r="D197" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E197">
         <v>0.3846845807742838</v>
@@ -10929,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -10943,7 +10949,7 @@
         <v>15.85732541489383</v>
       </c>
       <c r="D198" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E198">
         <v>12.15576373860051</v>
@@ -10979,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -10993,7 +10999,7 @@
         <v>9.154626138941545</v>
       </c>
       <c r="D199" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E199">
         <v>10.1457637386005</v>
@@ -11029,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11043,7 +11049,7 @@
         <v>20.52882535635497</v>
       </c>
       <c r="D200" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E200">
         <v>17.16608306198427</v>
@@ -11079,7 +11085,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11093,7 +11099,7 @@
         <v>20.01532326601529</v>
       </c>
       <c r="D201" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E201">
         <v>17.16182266903495</v>
@@ -11129,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11143,7 +11149,7 @@
         <v>20.52405408116763</v>
       </c>
       <c r="D202" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E202">
         <v>17.16182266903495</v>
@@ -11179,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11193,7 +11199,7 @@
         <v>19.97713105134113</v>
       </c>
       <c r="D203" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E203">
         <v>17.12745703463643</v>
@@ -11229,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11243,7 +11249,7 @@
         <v>19.78769619247149</v>
       </c>
       <c r="D204" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E204">
         <v>16.95700216162655</v>
@@ -11279,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11293,7 +11299,7 @@
         <v>19.72946947948954</v>
       </c>
       <c r="D205" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E205">
         <v>16.90460933896265</v>
@@ -11329,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11343,7 +11349,7 @@
         <v>19.66471905771537</v>
       </c>
       <c r="D206" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E206">
         <v>16.84634643536238</v>
@@ -11379,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11393,7 +11399,7 @@
         <v>19.5088598974271</v>
       </c>
       <c r="D207" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E207">
         <v>16.70610322176966</v>
@@ -11429,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11443,7 +11449,7 @@
         <v>19.28831605863447</v>
       </c>
       <c r="D208" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E208">
         <v>16.50765626085222</v>
@@ -11479,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11493,7 +11499,7 @@
         <v>19.19520175231204</v>
       </c>
       <c r="D209" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E209">
         <v>16.42387132626151</v>
@@ -11529,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11543,7 +11549,7 @@
         <v>19.05540054991548</v>
       </c>
       <c r="D210" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E210">
         <v>16.12799605103372</v>
@@ -11579,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11593,7 +11599,7 @@
         <v>19.02007289952515</v>
       </c>
       <c r="D211" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E211">
         <v>16.09699076249269</v>
@@ -11629,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11643,7 +11649,7 @@
         <v>18.63226776448187</v>
       </c>
       <c r="D212" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E212">
         <v>15.75663384724757</v>
@@ -11679,7 +11685,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11693,7 +11699,7 @@
         <v>18.71498673226228</v>
       </c>
       <c r="D213" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E213">
         <v>15.39488806222844</v>
@@ -11729,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11743,7 +11749,7 @@
         <v>18.26133487568657</v>
       </c>
       <c r="D214" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E214">
         <v>15.4310848475438</v>
@@ -11779,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -11793,7 +11799,7 @@
         <v>18.75654747588454</v>
       </c>
       <c r="D215" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E215">
         <v>15.4310848475438</v>
@@ -11829,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -11843,7 +11849,7 @@
         <v>18.16683845632306</v>
       </c>
       <c r="D216" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E216">
         <v>14.535139415301</v>
@@ -11893,7 +11899,7 @@
         <v>19.29117147225969</v>
       </c>
       <c r="D217" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E217">
         <v>15.75788232322333</v>
@@ -11929,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -11943,7 +11949,7 @@
         <v>12.17311182345877</v>
       </c>
       <c r="D218" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E218">
         <v>11.29778290855512</v>
@@ -11979,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -11993,7 +11999,7 @@
         <v>12.17255864879727</v>
       </c>
       <c r="D219" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E219">
         <v>11.43255864879727</v>
@@ -12029,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12043,7 +12049,7 @@
         <v>11.88655543238428</v>
       </c>
       <c r="D220" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E220">
         <v>11.43255864879727</v>
@@ -12079,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12093,7 +12099,7 @@
         <v>12.10927609080188</v>
       </c>
       <c r="D221" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E221">
         <v>12.08247455606389</v>
@@ -12129,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12143,7 +12149,7 @@
         <v>11.82138853023023</v>
       </c>
       <c r="D222" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E222">
         <v>12.08247455606389</v>
@@ -12179,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12229,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12243,7 +12249,7 @@
         <v>11.74270804654375</v>
       </c>
       <c r="D224" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E224">
         <v>11.73063502614344</v>
@@ -12279,7 +12285,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12293,7 +12299,7 @@
         <v>11.41854815733105</v>
       </c>
       <c r="D225" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E225">
         <v>11.73063502614344</v>
@@ -12329,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12343,7 +12349,7 @@
         <v>11.75391413984507</v>
       </c>
       <c r="D226" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E226">
         <v>11.73063502614344</v>
@@ -12379,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12387,49 +12393,49 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C227">
-        <v>11.62111009490275</v>
+        <v>11.56335103671992</v>
       </c>
       <c r="D227" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E227">
-        <v>11.61826679854266</v>
+        <v>10.91452112601634</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
       <c r="G227">
-        <v>0.07135888990509726</v>
+        <v>0.07259664896328008</v>
       </c>
       <c r="H227">
-        <v>0.06682173320145733</v>
+        <v>0.06748547887398366</v>
       </c>
       <c r="I227">
-        <v>-0.002843296360090619</v>
+        <v>-0.6488299107035722</v>
       </c>
       <c r="J227">
         <v>0.7197322868698133</v>
       </c>
       <c r="K227">
-        <v>41.5</v>
+        <v>42.4</v>
       </c>
       <c r="L227">
-        <v>41.49</v>
+        <v>42.08</v>
       </c>
       <c r="M227">
-        <v>38.35</v>
+        <v>39.3</v>
       </c>
       <c r="N227">
-        <v>39.22</v>
+        <v>39.2</v>
       </c>
       <c r="O227">
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12443,10 +12449,10 @@
         <v>11.29709670924624</v>
       </c>
       <c r="D228" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E228">
-        <v>11.61826679854266</v>
+        <v>10.91452112601634</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -12455,10 +12461,10 @@
         <v>0.07096290329075376</v>
       </c>
       <c r="H228">
-        <v>0.06682173320145733</v>
+        <v>0.06748547887398366</v>
       </c>
       <c r="I228">
-        <v>0.3211700892964195</v>
+        <v>-0.3825755832298974</v>
       </c>
       <c r="J228">
         <v>0.7197322868698133</v>
@@ -12470,66 +12476,66 @@
         <v>41.13</v>
       </c>
       <c r="M228">
-        <v>38.35</v>
+        <v>39.3</v>
       </c>
       <c r="N228">
-        <v>39.22</v>
+        <v>39.2</v>
       </c>
       <c r="O228">
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:16">
       <c r="A229" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C229">
-        <v>11.64037388379474</v>
+        <v>11.17350343307117</v>
       </c>
       <c r="D229" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E229">
-        <v>11.61826679854266</v>
+        <v>10.79733859878642</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229">
-        <v>0.06741962611620526</v>
+        <v>0.07108649656692885</v>
       </c>
       <c r="H229">
-        <v>0.06682173320145733</v>
+        <v>0.0676026614012136</v>
       </c>
       <c r="I229">
-        <v>-0.0221070852520775</v>
+        <v>-0.3761648342847508</v>
       </c>
       <c r="J229">
-        <v>0.7197322868698133</v>
+        <v>0.7227140305652312</v>
       </c>
       <c r="K229">
-        <v>38.75</v>
+        <v>41.45</v>
       </c>
       <c r="L229">
-        <v>39.53</v>
+        <v>41.13</v>
       </c>
       <c r="M229">
-        <v>38.35</v>
+        <v>39.3</v>
       </c>
       <c r="N229">
-        <v>39.22</v>
+        <v>39.2</v>
       </c>
       <c r="O229">
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12537,149 +12543,149 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C230">
-        <v>11.49736773154291</v>
+        <v>11.03366317468897</v>
       </c>
       <c r="D230" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E230">
-        <v>11.50391692782338</v>
+        <v>10.66475181580885</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230">
-        <v>0.07148263226845709</v>
+        <v>0.07122633682531104</v>
       </c>
       <c r="H230">
-        <v>0.06693608307217662</v>
+        <v>0.06773524818419116</v>
       </c>
       <c r="I230">
-        <v>0.006549196280474234</v>
+        <v>-0.3689113588801227</v>
       </c>
       <c r="J230">
-        <v>0.7227140305652312</v>
+        <v>0.7260877400557547</v>
       </c>
       <c r="K230">
-        <v>41.5</v>
+        <v>41.45</v>
       </c>
       <c r="L230">
-        <v>41.49</v>
+        <v>41.13</v>
       </c>
       <c r="M230">
-        <v>38.35</v>
+        <v>39.3</v>
       </c>
       <c r="N230">
-        <v>39.22</v>
+        <v>39.2</v>
       </c>
       <c r="O230">
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
     </row>
     <row r="231" spans="1:16">
       <c r="A231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C231">
-        <v>11.17350343307117</v>
+        <v>16.43638076605912</v>
       </c>
       <c r="D231" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E231">
-        <v>11.50391692782338</v>
+        <v>12.4261081361488</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G231">
-        <v>0.07108649656692885</v>
+        <v>0.08142361923394088</v>
       </c>
       <c r="H231">
-        <v>0.06693608307217662</v>
+        <v>0.07535389186385121</v>
       </c>
       <c r="I231">
-        <v>0.3304134947522144</v>
+        <v>4.010272629910322</v>
       </c>
       <c r="J231">
-        <v>0.7227140305652312</v>
+        <v>0.7627610148812412</v>
       </c>
       <c r="K231">
-        <v>41.45</v>
+        <v>42.6</v>
       </c>
       <c r="L231">
-        <v>41.13</v>
+        <v>48.93</v>
       </c>
       <c r="M231">
-        <v>38.35</v>
+        <v>41.25</v>
       </c>
       <c r="N231">
-        <v>39.22</v>
+        <v>43.89</v>
       </c>
       <c r="O231">
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
     </row>
     <row r="232" spans="1:16">
       <c r="A232" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B232" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C232">
-        <v>11.52483131559729</v>
+        <v>9.28562669433348</v>
       </c>
       <c r="D232" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E232">
-        <v>11.50391692782338</v>
+        <v>9.223492115167229</v>
       </c>
       <c r="F232">
         <v>1</v>
       </c>
       <c r="G232">
-        <v>0.06753516868440271</v>
+        <v>0.07137437330566652</v>
       </c>
       <c r="H232">
-        <v>0.06693608307217662</v>
+        <v>0.06917650788483277</v>
       </c>
       <c r="I232">
-        <v>-0.02091438777391019</v>
+        <v>-0.06213457916625131</v>
       </c>
       <c r="J232">
-        <v>0.7227140305652312</v>
+        <v>0.7627610148812412</v>
       </c>
       <c r="K232">
-        <v>38.75</v>
+        <v>40.7</v>
       </c>
       <c r="L232">
-        <v>39.53</v>
+        <v>40.33</v>
       </c>
       <c r="M232">
-        <v>38.35</v>
+        <v>39.3</v>
       </c>
       <c r="N232">
-        <v>39.22</v>
+        <v>39.2</v>
       </c>
       <c r="O232">
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12687,49 +12693,49 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C233">
-        <v>11.35735878768618</v>
+        <v>16.43574822320629</v>
       </c>
       <c r="D233" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E233">
-        <v>11.3745351688618</v>
+        <v>12.42549563866806</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G233">
-        <v>0.07162264121231382</v>
+        <v>0.08142425177679372</v>
       </c>
       <c r="H233">
-        <v>0.06706546483113821</v>
+        <v>0.07535450436133194</v>
       </c>
       <c r="I233">
-        <v>0.01717638117562359</v>
+        <v>4.010252584538225</v>
       </c>
       <c r="J233">
-        <v>0.7260877400557547</v>
+        <v>0.7627758633050167</v>
       </c>
       <c r="K233">
-        <v>41.5</v>
+        <v>42.6</v>
       </c>
       <c r="L233">
-        <v>41.49</v>
+        <v>48.93</v>
       </c>
       <c r="M233">
-        <v>38.35</v>
+        <v>41.25</v>
       </c>
       <c r="N233">
-        <v>39.22</v>
+        <v>43.89</v>
       </c>
       <c r="O233">
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12737,49 +12743,49 @@
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C234">
-        <v>11.03366317468897</v>
+        <v>9.285022363485819</v>
       </c>
       <c r="D234" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E234">
-        <v>11.3745351688618</v>
+        <v>9.22290857211285</v>
       </c>
       <c r="F234">
         <v>1</v>
       </c>
       <c r="G234">
-        <v>0.07122633682531104</v>
+        <v>0.07137497763651418</v>
       </c>
       <c r="H234">
-        <v>0.06706546483113821</v>
+        <v>0.06917709142788715</v>
       </c>
       <c r="I234">
-        <v>0.3408719941728364</v>
+        <v>-0.06211379137296902</v>
       </c>
       <c r="J234">
-        <v>0.7260877400557547</v>
+        <v>0.7627758633050167</v>
       </c>
       <c r="K234">
-        <v>41.45</v>
+        <v>40.7</v>
       </c>
       <c r="L234">
-        <v>41.13</v>
+        <v>40.33</v>
       </c>
       <c r="M234">
-        <v>38.35</v>
+        <v>39.3</v>
       </c>
       <c r="N234">
-        <v>39.22</v>
+        <v>39.2</v>
       </c>
       <c r="O234">
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -12787,31 +12793,31 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C235">
-        <v>16.43638076605912</v>
+        <v>16.50634301293896</v>
       </c>
       <c r="D235" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E235">
-        <v>12.4261081361488</v>
+        <v>12.49385326957118</v>
       </c>
       <c r="F235">
         <v>-1</v>
       </c>
       <c r="G235">
-        <v>0.08142361923394088</v>
+        <v>0.08135365698706104</v>
       </c>
       <c r="H235">
-        <v>0.07535389186385121</v>
+        <v>0.07528614673042883</v>
       </c>
       <c r="I235">
-        <v>4.010272629910322</v>
+        <v>4.01248974336778</v>
       </c>
       <c r="J235">
-        <v>0.7627610148812412</v>
+        <v>0.7611187086164564</v>
       </c>
       <c r="K235">
         <v>42.6</v>
@@ -12829,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -12837,231 +12843,231 @@
         <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C236">
-        <v>9.513555933172555</v>
+        <v>9.352468559310221</v>
       </c>
       <c r="D236" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E236">
-        <v>9.9681150793044</v>
+        <v>9.288034751373271</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236">
-        <v>0.07274644406682745</v>
+        <v>0.07130753144068977</v>
       </c>
       <c r="H236">
-        <v>0.0684718849206956</v>
+        <v>0.06911196524862673</v>
       </c>
       <c r="I236">
-        <v>0.4545591461318459</v>
+        <v>-0.06443380793695042</v>
       </c>
       <c r="J236">
-        <v>0.7627610148812412</v>
+        <v>0.7611187086164564</v>
       </c>
       <c r="K236">
-        <v>41.45</v>
+        <v>40.7</v>
       </c>
       <c r="L236">
-        <v>41.13</v>
+        <v>40.33</v>
       </c>
       <c r="M236">
-        <v>38.35</v>
+        <v>39.3</v>
       </c>
       <c r="N236">
-        <v>39.22</v>
+        <v>39.2</v>
       </c>
       <c r="O236">
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="237" spans="1:16">
       <c r="A237" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B237" t="s">
         <v>70</v>
       </c>
       <c r="C237">
-        <v>9.28562669433348</v>
+        <v>16.53470387839059</v>
       </c>
       <c r="D237" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E237">
-        <v>9.9681150793044</v>
+        <v>12.52131537520216</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G237">
-        <v>0.07137437330566652</v>
+        <v>0.08132529612160939</v>
       </c>
       <c r="H237">
-        <v>0.0684718849206956</v>
+        <v>0.07525868462479784</v>
       </c>
       <c r="I237">
-        <v>0.6824883849709202</v>
+        <v>4.013388503188434</v>
       </c>
       <c r="J237">
-        <v>0.7627610148812412</v>
+        <v>0.7604529606011597</v>
       </c>
       <c r="K237">
-        <v>40.7</v>
+        <v>42.6</v>
       </c>
       <c r="L237">
-        <v>40.33</v>
+        <v>48.93</v>
       </c>
       <c r="M237">
-        <v>38.35</v>
+        <v>41.25</v>
       </c>
       <c r="N237">
-        <v>39.22</v>
+        <v>43.89</v>
       </c>
       <c r="O237">
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="238" spans="1:16">
       <c r="A238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C238">
-        <v>16.43574822320629</v>
+        <v>9.379564503532794</v>
       </c>
       <c r="D238" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E238">
-        <v>12.42549563866806</v>
+        <v>9.314198648374425</v>
       </c>
       <c r="F238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G238">
-        <v>0.08142425177679372</v>
+        <v>0.0712804354964672</v>
       </c>
       <c r="H238">
-        <v>0.07535450436133194</v>
+        <v>0.06908580135162558</v>
       </c>
       <c r="I238">
-        <v>4.010252584538225</v>
+        <v>-0.0653658551583689</v>
       </c>
       <c r="J238">
-        <v>0.7627758633050167</v>
+        <v>0.7604529606011597</v>
       </c>
       <c r="K238">
-        <v>42.6</v>
+        <v>40.7</v>
       </c>
       <c r="L238">
-        <v>48.93</v>
+        <v>40.33</v>
       </c>
       <c r="M238">
-        <v>41.25</v>
+        <v>39.3</v>
       </c>
       <c r="N238">
-        <v>43.89</v>
+        <v>39.2</v>
       </c>
       <c r="O238">
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:16">
       <c r="A239" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C239">
-        <v>9.512940466007059</v>
+        <v>16.5169693618984</v>
       </c>
       <c r="D239" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E239">
-        <v>9.96754564225261</v>
+        <v>12.50414286803543</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G239">
-        <v>0.07274705953399294</v>
+        <v>0.0813430306381016</v>
       </c>
       <c r="H239">
-        <v>0.06847245435774739</v>
+        <v>0.07527585713196457</v>
       </c>
       <c r="I239">
-        <v>0.4546051762455505</v>
+        <v>4.012826493862978</v>
       </c>
       <c r="J239">
-        <v>0.7627758633050167</v>
+        <v>0.7608692638052018</v>
       </c>
       <c r="K239">
-        <v>41.45</v>
+        <v>42.6</v>
       </c>
       <c r="L239">
-        <v>41.13</v>
+        <v>48.93</v>
       </c>
       <c r="M239">
-        <v>38.35</v>
+        <v>41.25</v>
       </c>
       <c r="N239">
-        <v>39.22</v>
+        <v>43.89</v>
       </c>
       <c r="O239">
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
     </row>
     <row r="240" spans="1:16">
       <c r="A240" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C240">
-        <v>9.285022363485819</v>
+        <v>9.362620963128283</v>
       </c>
       <c r="D240" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E240">
-        <v>9.96754564225261</v>
+        <v>9.297837932455575</v>
       </c>
       <c r="F240">
         <v>1</v>
       </c>
       <c r="G240">
-        <v>0.07137497763651418</v>
+        <v>0.07129737903687172</v>
       </c>
       <c r="H240">
-        <v>0.06847245435774739</v>
+        <v>0.06910216206754442</v>
       </c>
       <c r="I240">
-        <v>0.6825232787667908</v>
+        <v>-0.0647830306727073</v>
       </c>
       <c r="J240">
-        <v>0.7627758633050167</v>
+        <v>0.7608692638052018</v>
       </c>
       <c r="K240">
         <v>40.7</v>
@@ -13070,415 +13076,15 @@
         <v>40.33</v>
       </c>
       <c r="M240">
-        <v>38.35</v>
+        <v>39.3</v>
       </c>
       <c r="N240">
-        <v>39.22</v>
+        <v>39.2</v>
       </c>
       <c r="O240">
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16">
-      <c r="A241" s="1">
-        <v>0</v>
-      </c>
-      <c r="B241" t="s">
-        <v>69</v>
-      </c>
-      <c r="C241">
-        <v>16.50634301293896</v>
-      </c>
-      <c r="D241" t="s">
-        <v>129</v>
-      </c>
-      <c r="E241">
-        <v>12.49385326957118</v>
-      </c>
-      <c r="F241">
-        <v>-1</v>
-      </c>
-      <c r="G241">
-        <v>0.08135365698706104</v>
-      </c>
-      <c r="H241">
-        <v>0.07528614673042883</v>
-      </c>
-      <c r="I241">
-        <v>4.01248974336778</v>
-      </c>
-      <c r="J241">
-        <v>0.7611187086164564</v>
-      </c>
-      <c r="K241">
-        <v>42.6</v>
-      </c>
-      <c r="L241">
-        <v>48.93</v>
-      </c>
-      <c r="M241">
-        <v>41.25</v>
-      </c>
-      <c r="N241">
-        <v>43.89</v>
-      </c>
-      <c r="O241">
-        <v>1</v>
-      </c>
-      <c r="P241" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16">
-      <c r="A242" s="1">
-        <v>1</v>
-      </c>
-      <c r="B242" t="s">
-        <v>67</v>
-      </c>
-      <c r="C242">
-        <v>9.581629527847884</v>
-      </c>
-      <c r="D242" t="s">
-        <v>128</v>
-      </c>
-      <c r="E242">
-        <v>10.03109752455889</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>0.07267837047215213</v>
-      </c>
-      <c r="H242">
-        <v>0.0684089024754411</v>
-      </c>
-      <c r="I242">
-        <v>0.4494679967110109</v>
-      </c>
-      <c r="J242">
-        <v>0.7611187086164564</v>
-      </c>
-      <c r="K242">
-        <v>41.45</v>
-      </c>
-      <c r="L242">
-        <v>41.13</v>
-      </c>
-      <c r="M242">
-        <v>38.35</v>
-      </c>
-      <c r="N242">
-        <v>39.22</v>
-      </c>
-      <c r="O242">
-        <v>1</v>
-      </c>
-      <c r="P242" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16">
-      <c r="A243" s="1">
-        <v>2</v>
-      </c>
-      <c r="B243" t="s">
-        <v>70</v>
-      </c>
-      <c r="C243">
-        <v>9.352468559310221</v>
-      </c>
-      <c r="D243" t="s">
-        <v>128</v>
-      </c>
-      <c r="E243">
-        <v>10.03109752455889</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>0.07130753144068977</v>
-      </c>
-      <c r="H243">
-        <v>0.0684089024754411</v>
-      </c>
-      <c r="I243">
-        <v>0.6786289652486737</v>
-      </c>
-      <c r="J243">
-        <v>0.7611187086164564</v>
-      </c>
-      <c r="K243">
-        <v>40.7</v>
-      </c>
-      <c r="L243">
-        <v>40.33</v>
-      </c>
-      <c r="M243">
-        <v>38.35</v>
-      </c>
-      <c r="N243">
-        <v>39.22</v>
-      </c>
-      <c r="O243">
-        <v>1</v>
-      </c>
-      <c r="P243" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16">
-      <c r="A244" s="1">
-        <v>0</v>
-      </c>
-      <c r="B244" t="s">
-        <v>69</v>
-      </c>
-      <c r="C244">
-        <v>16.53470387839059</v>
-      </c>
-      <c r="D244" t="s">
-        <v>129</v>
-      </c>
-      <c r="E244">
-        <v>12.52131537520216</v>
-      </c>
-      <c r="F244">
-        <v>-1</v>
-      </c>
-      <c r="G244">
-        <v>0.08132529612160939</v>
-      </c>
-      <c r="H244">
-        <v>0.07525868462479784</v>
-      </c>
-      <c r="I244">
-        <v>4.013388503188434</v>
-      </c>
-      <c r="J244">
-        <v>0.7604529606011597</v>
-      </c>
-      <c r="K244">
-        <v>42.6</v>
-      </c>
-      <c r="L244">
-        <v>48.93</v>
-      </c>
-      <c r="M244">
-        <v>41.25</v>
-      </c>
-      <c r="N244">
-        <v>43.89</v>
-      </c>
-      <c r="O244">
-        <v>1</v>
-      </c>
-      <c r="P244" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16">
-      <c r="A245" s="1">
-        <v>1</v>
-      </c>
-      <c r="B245" t="s">
-        <v>67</v>
-      </c>
-      <c r="C245">
-        <v>9.609224783081928</v>
-      </c>
-      <c r="D245" t="s">
-        <v>128</v>
-      </c>
-      <c r="E245">
-        <v>10.05662896094552</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>0.07265077521691808</v>
-      </c>
-      <c r="H245">
-        <v>0.06838337103905448</v>
-      </c>
-      <c r="I245">
-        <v>0.4474041778635929</v>
-      </c>
-      <c r="J245">
-        <v>0.7604529606011597</v>
-      </c>
-      <c r="K245">
-        <v>41.45</v>
-      </c>
-      <c r="L245">
-        <v>41.13</v>
-      </c>
-      <c r="M245">
-        <v>38.35</v>
-      </c>
-      <c r="N245">
-        <v>39.22</v>
-      </c>
-      <c r="O245">
-        <v>1</v>
-      </c>
-      <c r="P245" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16">
-      <c r="A246" s="1">
-        <v>2</v>
-      </c>
-      <c r="B246" t="s">
-        <v>70</v>
-      </c>
-      <c r="C246">
-        <v>9.379564503532794</v>
-      </c>
-      <c r="D246" t="s">
-        <v>128</v>
-      </c>
-      <c r="E246">
-        <v>10.05662896094552</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246">
-        <v>0.0712804354964672</v>
-      </c>
-      <c r="H246">
-        <v>0.06838337103905448</v>
-      </c>
-      <c r="I246">
-        <v>0.677064457412726</v>
-      </c>
-      <c r="J246">
-        <v>0.7604529606011597</v>
-      </c>
-      <c r="K246">
-        <v>40.7</v>
-      </c>
-      <c r="L246">
-        <v>40.33</v>
-      </c>
-      <c r="M246">
-        <v>38.35</v>
-      </c>
-      <c r="N246">
-        <v>39.22</v>
-      </c>
-      <c r="O246">
-        <v>1</v>
-      </c>
-      <c r="P246" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16">
-      <c r="A247" s="1">
-        <v>0</v>
-      </c>
-      <c r="B247" t="s">
-        <v>69</v>
-      </c>
-      <c r="C247">
-        <v>16.5169693618984</v>
-      </c>
-      <c r="D247" t="s">
-        <v>129</v>
-      </c>
-      <c r="E247">
-        <v>12.50414286803543</v>
-      </c>
-      <c r="F247">
-        <v>-1</v>
-      </c>
-      <c r="G247">
-        <v>0.0813430306381016</v>
-      </c>
-      <c r="H247">
-        <v>0.07527585713196457</v>
-      </c>
-      <c r="I247">
-        <v>4.012826493862978</v>
-      </c>
-      <c r="J247">
-        <v>0.7608692638052018</v>
-      </c>
-      <c r="K247">
-        <v>42.6</v>
-      </c>
-      <c r="L247">
-        <v>48.93</v>
-      </c>
-      <c r="M247">
-        <v>41.25</v>
-      </c>
-      <c r="N247">
-        <v>43.89</v>
-      </c>
-      <c r="O247">
-        <v>1</v>
-      </c>
-      <c r="P247" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16">
-      <c r="A248" s="1">
-        <v>1</v>
-      </c>
-      <c r="B248" t="s">
-        <v>70</v>
-      </c>
-      <c r="C248">
-        <v>9.362620963128283</v>
-      </c>
-      <c r="D248" t="s">
-        <v>128</v>
-      </c>
-      <c r="E248">
-        <v>10.04066373307051</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>0.07129737903687172</v>
-      </c>
-      <c r="H248">
-        <v>0.06839933626692948</v>
-      </c>
-      <c r="I248">
-        <v>0.6780427699422269</v>
-      </c>
-      <c r="J248">
-        <v>0.7608692638052018</v>
-      </c>
-      <c r="K248">
-        <v>40.7</v>
-      </c>
-      <c r="L248">
-        <v>40.33</v>
-      </c>
-      <c r="M248">
-        <v>38.35</v>
-      </c>
-      <c r="N248">
-        <v>39.22</v>
-      </c>
-      <c r="O248">
-        <v>1</v>
-      </c>
-      <c r="P248" t="s">
         <v>59</v>
       </c>
     </row>

--- a/s60_signal/position-00914-600585.xlsx
+++ b/s60_signal/position-00914-600585.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="239">
   <si>
     <t>trade_time</t>
   </si>
@@ -226,12 +226,15 @@
     <t>2021-06-25</t>
   </si>
   <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
     <t>2021-06-08</t>
   </si>
   <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
     <t>2017-06-06</t>
   </si>
   <si>
@@ -406,7 +409,7 @@
     <t>2021-07-09</t>
   </si>
   <si>
-    <t>2021-07-12</t>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2021-06-17</t>
@@ -1085,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P240"/>
+  <dimension ref="A1:P247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1185,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1235,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1249,7 +1252,7 @@
         <v>3.865859388393531</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>4.097842290047694</v>
@@ -1285,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1299,7 +1302,7 @@
         <v>3.867842290047694</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>4.097842290047694</v>
@@ -1335,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1349,7 +1352,7 @@
         <v>3.461721442525899</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>3.39419673099987</v>
@@ -1385,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1399,7 +1402,7 @@
         <v>3.459734423297274</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>3.39419673099987</v>
@@ -1435,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1535,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1549,7 +1552,7 @@
         <v>3.16694425131325</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>3.359129610475641</v>
@@ -1585,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1599,7 +1602,7 @@
         <v>3.394897239794993</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>3.359129610475641</v>
@@ -1635,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1649,7 +1652,7 @@
         <v>3.117640232442373</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>2.635536081278246</v>
@@ -1685,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1699,7 +1702,7 @@
         <v>3.321848534770627</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>2.635536081278246</v>
@@ -1735,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1749,7 +1752,7 @@
         <v>3.344834697556873</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>2.635536081278246</v>
@@ -1785,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1799,7 +1802,7 @@
         <v>2.993112189363568</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>2.673112189363568</v>
@@ -1835,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1849,7 +1852,7 @@
         <v>3.20019421576287</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>2.673112189363568</v>
@@ -1885,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1899,7 +1902,7 @@
         <v>3.218390838430704</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17">
         <v>2.673112189363568</v>
@@ -1935,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1949,7 +1952,7 @@
         <v>3.103012988322206</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>2.62988710634049</v>
@@ -1985,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1999,7 +2002,7 @@
         <v>3.117383578413634</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>2.62988710634049</v>
@@ -2035,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2049,7 +2052,7 @@
         <v>2.953610693719877</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>2.537157276716563</v>
@@ -2085,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2099,7 +2102,7 @@
         <v>2.962099303708847</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21">
         <v>2.537157276716563</v>
@@ -2135,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2149,7 +2152,7 @@
         <v>2.872635186535728</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>2.682635186535727</v>
@@ -2185,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2199,7 +2202,7 @@
         <v>2.877935784430836</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>2.682635186535727</v>
@@ -2235,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2249,7 +2252,7 @@
         <v>2.852267607428114</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24">
         <v>2.629917990017542</v>
@@ -2285,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2299,7 +2302,7 @@
         <v>2.856766332130007</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>2.629917990017542</v>
@@ -2335,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2349,7 +2352,7 @@
         <v>2.811761351230931</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26">
         <v>2.640825752700035</v>
@@ -2385,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2399,7 +2402,7 @@
         <v>2.814665341436871</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>2.640825752700035</v>
@@ -2435,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2485,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2535,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2549,7 +2552,7 @@
         <v>2.63826823762383</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>2.63791236922124</v>
@@ -2585,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2599,7 +2602,7 @@
         <v>2.634341790286186</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31">
         <v>2.63791236922124</v>
@@ -2635,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2649,7 +2652,7 @@
         <v>2.644964559990708</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E32">
         <v>2.63791236922124</v>
@@ -2685,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2699,7 +2702,7 @@
         <v>2.731915275790641</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <v>2.352208534673963</v>
@@ -2735,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2749,7 +2752,7 @@
         <v>2.610439248718354</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34">
         <v>2.352208534673963</v>
@@ -2785,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2799,7 +2802,7 @@
         <v>2.746753374580404</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35">
         <v>2.350225795209379</v>
@@ -2835,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2885,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2899,7 +2902,7 @@
         <v>2.787117571133386</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37">
         <v>2.823906542063554</v>
@@ -2935,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2949,7 +2952,7 @@
         <v>2.883884958958227</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38">
         <v>2.823906542063554</v>
@@ -2985,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2999,7 +3002,7 @@
         <v>2.85679612614372</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E39">
         <v>2.509699758109345</v>
@@ -3035,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3049,7 +3052,7 @@
         <v>2.784156488881695</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <v>2.482559097029725</v>
@@ -3085,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3099,7 +3102,7 @@
         <v>2.712068545906188</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41">
         <v>2.389269688337961</v>
@@ -3135,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3149,7 +3152,7 @@
         <v>2.702691411029491</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42">
         <v>2.366731283785484</v>
@@ -3185,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3235,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3249,7 +3252,7 @@
         <v>2.972898466540091</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44">
         <v>2.959777273665928</v>
@@ -3285,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3299,7 +3302,7 @@
         <v>2.921933117969051</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45">
         <v>2.740731067560024</v>
@@ -3335,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3349,7 +3352,7 @@
         <v>2.98396235602636</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46">
         <v>2.472809772939694</v>
@@ -3385,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3399,7 +3402,7 @@
         <v>0.9436087597884253</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47">
         <v>-1.99755555963268</v>
@@ -3435,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3449,7 +3452,7 @@
         <v>0.9931330872741064</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48">
         <v>-1.945846335346161</v>
@@ -3485,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3499,7 +3502,7 @@
         <v>1.061208452840496</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49">
         <v>-1.561324587868725</v>
@@ -3535,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3549,7 +3552,7 @@
         <v>1.119649719030264</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50">
         <v>-1.498535232517298</v>
@@ -3585,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3599,7 +3602,7 @@
         <v>1.154541005165207</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51">
         <v>-1.461047999494632</v>
@@ -3635,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3649,7 +3652,7 @@
         <v>1.131852687543812</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52">
         <v>0.5478188871899121</v>
@@ -3699,7 +3702,7 @@
         <v>1.188936742513683</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53">
         <v>1.063100941658099</v>
@@ -3735,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3749,7 +3752,7 @@
         <v>1.249982102732112</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54">
         <v>0.07301952552553104</v>
@@ -3785,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3799,7 +3802,7 @@
         <v>1.342037179610671</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E55">
         <v>-0.05480301084717354</v>
@@ -3835,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3849,7 +3852,7 @@
         <v>1.451972473813719</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E56">
         <v>0.9119894589734443</v>
@@ -3885,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3899,7 +3902,7 @@
         <v>1.510041973607841</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57">
         <v>1.302812532847142</v>
@@ -3935,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3949,7 +3952,7 @@
         <v>1.540830568775363</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58">
         <v>0.9301997197644951</v>
@@ -3985,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3999,7 +4002,7 @@
         <v>1.597939172685521</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59">
         <v>0.792592453180788</v>
@@ -4035,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4049,7 +4052,7 @@
         <v>1.703402241378249</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E60">
         <v>1.579882369457003</v>
@@ -4085,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4099,7 +4102,7 @@
         <v>7.082322116014304</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61">
         <v>9.39892979714033</v>
@@ -4135,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4149,7 +4152,7 @@
         <v>6.03547807457366</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62">
         <v>8.392943592760137</v>
@@ -4185,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4199,7 +4202,7 @@
         <v>-3.725741650745938</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63">
         <v>-1.061483620645447</v>
@@ -4235,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4249,7 +4252,7 @@
         <v>-3.390064231685251</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64">
         <v>-1.061483620645447</v>
@@ -4285,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4299,7 +4302,7 @@
         <v>-4.367653322749888</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65">
         <v>-1.625808861219163</v>
@@ -4335,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4349,7 +4352,7 @@
         <v>-4.031312771796635</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66">
         <v>-1.625808861219163</v>
@@ -4385,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4399,7 +4402,7 @@
         <v>-4.607517906916144</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67">
         <v>-1.836681548332265</v>
@@ -4435,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4449,7 +4452,7 @@
         <v>-4.270929561970988</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68">
         <v>-1.836681548332265</v>
@@ -4485,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4499,7 +4502,7 @@
         <v>-4.387223400334264</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69">
         <v>-2.098063558594617</v>
@@ -4549,7 +4552,7 @@
         <v>-4.567940612410105</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70">
         <v>-2.098063558594617</v>
@@ -4599,7 +4602,7 @@
         <v>-4.572133036248417</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-2.256530930359915</v>
@@ -4635,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4649,7 +4652,7 @@
         <v>-4.748008707001226</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72">
         <v>-2.256530930359915</v>
@@ -4685,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4699,7 +4702,7 @@
         <v>-4.6969899027008</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73">
         <v>-2.363533139172588</v>
@@ -4735,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4749,7 +4752,7 @@
         <v>-4.869596410787189</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74">
         <v>-2.363533139172588</v>
@@ -4785,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4799,7 +4802,7 @@
         <v>-4.851917740072338</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75">
         <v>-2.496306139780017</v>
@@ -4835,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4849,7 +4852,7 @@
         <v>-4.5541965709862</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76">
         <v>-2.496306139780017</v>
@@ -4885,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4899,7 +4902,7 @@
         <v>-4.568923494933983</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77">
         <v>-2.496306139780017</v>
@@ -4935,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4949,7 +4952,7 @@
         <v>-4.843752817660352</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>-2.753521553057368</v>
@@ -4999,7 +5002,7 @@
         <v>-4.803407083453244</v>
       </c>
       <c r="D79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79">
         <v>-2.753521553057368</v>
@@ -5049,7 +5052,7 @@
         <v>-5.12322060515109</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80">
         <v>-3.001775297477636</v>
@@ -5085,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5099,7 +5102,7 @@
         <v>-5.086667231317023</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E81">
         <v>-3.001775297477636</v>
@@ -5135,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5149,7 +5152,7 @@
         <v>-5.498672524566146</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82">
         <v>-3.335292607939238</v>
@@ -5185,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5199,7 +5202,7 @@
         <v>-5.467214009763808</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E83">
         <v>-3.335292607939238</v>
@@ -5235,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5249,7 +5252,7 @@
         <v>-5.942693680916477</v>
       </c>
       <c r="D84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E84">
         <v>-3.729720587118912</v>
@@ -5285,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5299,7 +5302,7 @@
         <v>-5.917260505396555</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85">
         <v>-3.729720587118912</v>
@@ -5335,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5349,7 +5352,7 @@
         <v>-6.304243385177699</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E86">
         <v>-4.050888435058688</v>
@@ -5385,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5399,7 +5402,7 @@
         <v>-6.283716416500575</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E87">
         <v>-4.050888435058688</v>
@@ -5435,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5449,7 +5452,7 @@
         <v>-6.70774440980211</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E88">
         <v>-4.422513380784331</v>
@@ -5499,7 +5502,7 @@
         <v>-7.026497484109498</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E89">
         <v>-4.701873696165997</v>
@@ -5535,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5549,7 +5552,7 @@
         <v>-7.466555872236626</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E90">
         <v>-5.087547937459696</v>
@@ -5585,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5599,7 +5602,7 @@
         <v>-5.360456423998336</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91">
         <v>-6.993426227125362</v>
@@ -5635,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5649,7 +5652,7 @@
         <v>-8.255385642797997</v>
       </c>
       <c r="D92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E92">
         <v>-6.633019871061308</v>
@@ -5685,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5699,7 +5702,7 @@
         <v>-5.597771601185165</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E93">
         <v>-7.088994860354454</v>
@@ -5735,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5749,7 +5752,7 @@
         <v>-5.553423604070751</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E94">
         <v>-7.191259698838785</v>
@@ -5785,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5799,7 +5802,7 @@
         <v>-8.299892373677679</v>
       </c>
       <c r="D95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E95">
         <v>-6.674413562841202</v>
@@ -5835,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5849,7 +5852,7 @@
         <v>-5.645829142288029</v>
       </c>
       <c r="D96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E96">
         <v>-7.139484463254028</v>
@@ -5885,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5899,7 +5902,7 @@
         <v>-5.603572718318787</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E97">
         <v>-7.242673485221104</v>
@@ -5935,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5949,7 +5952,7 @@
         <v>-8.177862645389048</v>
       </c>
       <c r="D98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E98">
         <v>-6.702607565134123</v>
@@ -5985,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5999,7 +6002,7 @@
         <v>-8.330206723969127</v>
       </c>
       <c r="D99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E99">
         <v>-6.702607565134123</v>
@@ -6035,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6049,7 +6052,7 @@
         <v>-5.758656618823501</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100">
         <v>-7.247843724527407</v>
@@ -6085,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6099,7 +6102,7 @@
         <v>-5.6785620145153</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E101">
         <v>-7.17387385735514</v>
@@ -6135,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6149,7 +6152,7 @@
         <v>-5.637730199357563</v>
       </c>
       <c r="D102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E102">
         <v>-7.277692357634287</v>
@@ -6185,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6199,7 +6202,7 @@
         <v>-8.225632222005096</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E103">
         <v>-6.745854277581202</v>
@@ -6235,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6249,7 +6252,7 @@
         <v>-8.376705833121981</v>
       </c>
       <c r="D104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E104">
         <v>-6.745854277581202</v>
@@ -6285,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6299,7 +6302,7 @@
         <v>-5.862563499790042</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105">
         <v>-7.296273944224318</v>
@@ -6335,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6349,7 +6352,7 @@
         <v>-8.138199110881978</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E106">
         <v>-6.427417499781725</v>
@@ -6385,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6399,7 +6402,7 @@
         <v>-5.728770888660677</v>
       </c>
       <c r="D107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E107">
         <v>-7.22662366642691</v>
@@ -6435,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6449,7 +6452,7 @@
         <v>-5.690124277539631</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E108">
         <v>-7.331407721978074</v>
@@ -6485,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6499,7 +6502,7 @@
         <v>-8.44310768470099</v>
       </c>
       <c r="D109" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E109">
         <v>-6.807611628066162</v>
@@ -6549,7 +6552,7 @@
         <v>-5.928529929391487</v>
       </c>
       <c r="D110" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E110">
         <v>-7.365433468327915</v>
@@ -6599,7 +6602,7 @@
         <v>-8.210188877839769</v>
       </c>
       <c r="D111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E111">
         <v>-6.495996461248566</v>
@@ -6649,7 +6652,7 @@
         <v>-5.80047037430009</v>
       </c>
       <c r="D112" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E112">
         <v>-7.301951668546046</v>
@@ -6699,7 +6702,7 @@
         <v>-5.764944287351611</v>
       </c>
       <c r="D113" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E113">
         <v>-7.408114560359508</v>
@@ -6749,7 +6752,7 @@
         <v>-8.501365905896868</v>
       </c>
       <c r="D114" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E114">
         <v>-6.861794957287685</v>
@@ -6785,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6799,7 +6802,7 @@
         <v>-5.986406129464761</v>
       </c>
       <c r="D115" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E115">
         <v>-7.426111156633567</v>
@@ -6835,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6849,7 +6852,7 @@
         <v>-8.273349703442292</v>
       </c>
       <c r="D116" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E116">
         <v>-6.556164788057423</v>
@@ -6885,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6899,7 +6902,7 @@
         <v>-5.863376519154215</v>
       </c>
       <c r="D117" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E117">
         <v>-7.36804132275514</v>
@@ -6935,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6949,7 +6952,7 @@
         <v>-5.830588250251004</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E118">
         <v>-7.475413948123489</v>
@@ -6985,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6999,7 +7002,7 @@
         <v>-6.036191740627181</v>
       </c>
       <c r="D119" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E119">
         <v>-7.478306632362695</v>
@@ -7049,7 +7052,7 @@
         <v>-8.327681195491927</v>
       </c>
       <c r="D120" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E120">
         <v>-6.607922106592611</v>
@@ -7099,7 +7102,7 @@
         <v>-5.917488932606872</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E121">
         <v>-7.424892218669974</v>
@@ -7149,7 +7152,7 @@
         <v>-5.887055758621138</v>
       </c>
       <c r="D122" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E122">
         <v>-7.533305467373957</v>
@@ -7199,7 +7202,7 @@
         <v>-6.124286449526096</v>
       </c>
       <c r="D123" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E123">
         <v>-7.570665551593358</v>
@@ -7235,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7249,7 +7252,7 @@
         <v>-8.423819755698446</v>
       </c>
       <c r="D124" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E124">
         <v>-6.699505714853863</v>
@@ -7285,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7299,7 +7302,7 @@
         <v>-6.01323983732869</v>
       </c>
       <c r="D125" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E125">
         <v>-7.525488816950592</v>
@@ -7335,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7349,7 +7352,7 @@
         <v>-5.986973959803521</v>
       </c>
       <c r="D126" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E126">
         <v>-7.635743429206912</v>
@@ -7385,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7399,7 +7402,7 @@
         <v>-6.206127283819491</v>
       </c>
       <c r="D127" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E127">
         <v>-7.709858398136483</v>
@@ -7435,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7449,7 +7452,7 @@
         <v>-8.568708846748585</v>
       </c>
       <c r="D128" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E128">
         <v>-6.83753010098529</v>
@@ -7485,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7499,7 +7502,7 @@
         <v>-6.157544698172977</v>
       </c>
       <c r="D129" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E129">
         <v>-7.677096555367967</v>
@@ -7535,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7549,7 +7552,7 @@
         <v>-6.137559295360667</v>
       </c>
       <c r="D130" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E130">
         <v>-7.790126261102067</v>
@@ -7585,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7599,7 +7602,7 @@
         <v>-8.724455302555334</v>
       </c>
       <c r="D131" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E131">
         <v>-6.985897440438293</v>
@@ -7635,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7649,7 +7652,7 @@
         <v>-6.312663144077284</v>
       </c>
       <c r="D132" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E132">
         <v>-7.84006512505286</v>
@@ -7685,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7699,7 +7702,7 @@
         <v>-6.299428847716271</v>
       </c>
       <c r="D133" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E133">
         <v>-7.956077877823574</v>
@@ -7735,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7749,7 +7752,7 @@
         <v>-8.881996475438136</v>
       </c>
       <c r="D134" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E134">
         <v>-7.135974465009106</v>
@@ -7785,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7799,7 +7802,7 @@
         <v>-6.469569070295236</v>
       </c>
       <c r="D135" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E135">
         <v>-8.004911634581433</v>
@@ -7835,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7849,7 +7852,7 @@
         <v>-6.463163675581363</v>
       </c>
       <c r="D136" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E136">
         <v>-8.123941809010191</v>
@@ -7885,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7899,7 +7902,7 @@
         <v>-6.555849051211844</v>
       </c>
       <c r="D137" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E137">
         <v>-8.070947070211147</v>
@@ -7935,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7949,7 +7952,7 @@
         <v>-8.944574494910249</v>
       </c>
       <c r="D138" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E138">
         <v>-7.195587598478006</v>
@@ -7985,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7999,7 +8002,7 @@
         <v>-6.531894759043666</v>
       </c>
       <c r="D139" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E139">
         <v>-8.070391457375841</v>
@@ -8035,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8049,7 +8052,7 @@
         <v>-6.52820191960933</v>
       </c>
       <c r="D140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E140">
         <v>-8.190620202742068</v>
@@ -8085,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8099,7 +8102,7 @@
         <v>-9.097128692828768</v>
       </c>
       <c r="D141" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E141">
         <v>-7.340913926132238</v>
@@ -8135,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8149,7 +8152,7 @@
         <v>-6.683833819067353</v>
       </c>
       <c r="D142" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E142">
         <v>-8.230019741084938</v>
@@ -8185,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8199,7 +8202,7 @@
         <v>-6.686753712002471</v>
       </c>
       <c r="D143" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E143">
         <v>-8.35317039145162</v>
@@ -8235,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8249,7 +8252,7 @@
         <v>-9.226549811636133</v>
       </c>
       <c r="D144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E144">
         <v>-7.464203197576758</v>
@@ -8285,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8299,7 +8302,7 @@
         <v>-6.812733078524694</v>
       </c>
       <c r="D145" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E145">
         <v>-8.365442242417643</v>
@@ -8335,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8349,7 +8352,7 @@
         <v>-9.195297631482575</v>
       </c>
       <c r="D146" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E146">
         <v>-7.43443171547483</v>
@@ -8385,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8399,7 +8402,7 @@
         <v>-6.78160691522659</v>
       </c>
       <c r="D147" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E147">
         <v>-8.33274086842632</v>
@@ -8435,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8449,7 +8452,7 @@
         <v>-9.178575533094566</v>
       </c>
       <c r="D148" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E148">
         <v>-7.418501893925765</v>
@@ -8485,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8499,7 +8502,7 @@
         <v>-9.01172937356634</v>
       </c>
       <c r="D149" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E149">
         <v>-7.259560743971967</v>
@@ -8535,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8549,7 +8552,7 @@
         <v>-6.598778851898729</v>
       </c>
       <c r="D150" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E150">
         <v>-8.14066037274381</v>
@@ -8585,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8599,7 +8602,7 @@
         <v>-6.597996959825494</v>
       </c>
       <c r="D151" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E151">
         <v>-8.26217535066494</v>
@@ -8635,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8649,7 +8652,7 @@
         <v>-6.580061112481111</v>
       </c>
       <c r="D152" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E152">
         <v>-8.095946089051466</v>
@@ -8685,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8699,7 +8702,7 @@
         <v>-8.970596558592923</v>
       </c>
       <c r="D153" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E153">
         <v>-7.220376761966044</v>
@@ -8735,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8749,7 +8752,7 @@
         <v>-6.557811895050207</v>
       </c>
       <c r="D154" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E154">
         <v>-8.09762018933413</v>
@@ -8785,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8799,7 +8802,7 @@
         <v>-6.555247028134374</v>
       </c>
       <c r="D155" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E155">
         <v>-8.218347341162016</v>
@@ -8835,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8849,7 +8852,7 @@
         <v>-6.577113402823095</v>
       </c>
       <c r="D156" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E156">
         <v>-8.092902570845517</v>
@@ -8885,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8899,7 +8902,7 @@
         <v>-8.967428489274667</v>
       </c>
       <c r="D157" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E157">
         <v>-7.217358792706207</v>
@@ -8935,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8949,7 +8952,7 @@
         <v>-6.554656600205007</v>
       </c>
       <c r="D158" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E158">
         <v>-8.094305213575709</v>
@@ -8985,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -8999,7 +9002,7 @@
         <v>-6.551954407703803</v>
       </c>
       <c r="D159" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E159">
         <v>-8.214971686656575</v>
@@ -9035,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9049,7 +9052,7 @@
         <v>-8.96588564418861</v>
       </c>
       <c r="D160" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E160">
         <v>-7.215889046127252</v>
@@ -9085,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9099,7 +9102,7 @@
         <v>-6.553119976268491</v>
       </c>
       <c r="D161" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E161">
         <v>-8.092690825269933</v>
@@ -9135,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9149,7 +9152,7 @@
         <v>-6.550350906409733</v>
       </c>
       <c r="D162" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E162">
         <v>-8.213327747890489</v>
@@ -9185,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9199,7 +9202,7 @@
         <v>-8.957282379415823</v>
       </c>
       <c r="D163" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E163">
         <v>-7.207693395713662</v>
@@ -9235,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9249,7 +9252,7 @@
         <v>-6.544551402079463</v>
       </c>
       <c r="D164" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E164">
         <v>-8.083688618783896</v>
@@ -9285,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9299,7 +9302,7 @@
         <v>-6.541409408445269</v>
       </c>
       <c r="D165" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E165">
         <v>-8.204160761131575</v>
@@ -9335,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9349,7 +9352,7 @@
         <v>-9.189704217204067</v>
       </c>
       <c r="D166" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E166">
         <v>-8.287425006865455</v>
@@ -9385,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9399,7 +9402,7 @@
         <v>-8.966990157030267</v>
       </c>
       <c r="D167" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E167">
         <v>-7.216941228219355</v>
@@ -9435,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9449,7 +9452,7 @@
         <v>-6.554220035429331</v>
       </c>
       <c r="D168" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E168">
         <v>-8.09384655544094</v>
@@ -9485,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9499,7 +9502,7 @@
         <v>-6.551498842639312</v>
       </c>
       <c r="D169" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E169">
         <v>-8.214504633045351</v>
@@ -9535,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9549,7 +9552,7 @@
         <v>-9.200987551467627</v>
       </c>
       <c r="D170" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E170">
         <v>-8.062628257853937</v>
@@ -9585,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9599,7 +9602,7 @@
         <v>-5.744424659624897</v>
       </c>
       <c r="D171" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E171">
         <v>-9.168004982467224</v>
@@ -9635,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9649,7 +9652,7 @@
         <v>-9.320459183580553</v>
       </c>
       <c r="D172" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E172">
         <v>-8.519444616447643</v>
@@ -9685,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9699,7 +9702,7 @@
         <v>-9.758278581073185</v>
       </c>
       <c r="D173" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E173">
         <v>-8.519444616447643</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9749,7 +9752,7 @@
         <v>1.93748613778034</v>
       </c>
       <c r="D174" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E174">
         <v>-3.785088938010851</v>
@@ -9785,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -9799,7 +9802,7 @@
         <v>-9.449792997965268</v>
       </c>
       <c r="D175" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E175">
         <v>-3.02668852932127</v>
@@ -9835,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -9885,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9899,7 +9902,7 @@
         <v>-7.49349826462975</v>
       </c>
       <c r="D177" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E177">
         <v>-2.563031396720049</v>
@@ -9935,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -9949,7 +9952,7 @@
         <v>-7.400654460855741</v>
       </c>
       <c r="D178" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E178">
         <v>-2.563031396720049</v>
@@ -9985,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -9999,7 +10002,7 @@
         <v>-7.310878524281797</v>
       </c>
       <c r="D179" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E179">
         <v>-2.470392808492726</v>
@@ -10035,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10049,7 +10052,7 @@
         <v>-1.137705700364087</v>
       </c>
       <c r="D180" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E180">
         <v>-5.327198547332877</v>
@@ -10085,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10099,7 +10102,7 @@
         <v>-7.43565059492704</v>
       </c>
       <c r="D181" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E181">
         <v>-4.511272425220589</v>
@@ -10135,7 +10138,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10149,7 +10152,7 @@
         <v>-7.728087200798136</v>
       </c>
       <c r="D182" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E182">
         <v>-4.511272425220589</v>
@@ -10185,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10199,7 +10202,7 @@
         <v>-7.776944970817269</v>
       </c>
       <c r="D183" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E183">
         <v>-4.636449928781524</v>
@@ -10235,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10249,7 +10252,7 @@
         <v>-2.366005602048894</v>
       </c>
       <c r="D184" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E184">
         <v>-5.159190826471352</v>
@@ -10285,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10299,7 +10302,7 @@
         <v>-3.086643025309506</v>
       </c>
       <c r="D185" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E185">
         <v>-5.921712484906784</v>
@@ -10335,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10349,7 +10352,7 @@
         <v>-8.081861396637805</v>
       </c>
       <c r="D186" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E186">
         <v>-5.158033193571107</v>
@@ -10385,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10399,7 +10402,7 @@
         <v>-8.385297335303981</v>
       </c>
       <c r="D187" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E187">
         <v>-5.158033193571107</v>
@@ -10435,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10449,7 +10452,7 @@
         <v>-8.415456239571483</v>
       </c>
       <c r="D188" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E188">
         <v>-5.252412565305825</v>
@@ -10485,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10499,7 +10502,7 @@
         <v>-2.950620140107226</v>
       </c>
       <c r="D189" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E189">
         <v>-5.733355998374364</v>
@@ -10535,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10549,7 +10552,7 @@
         <v>6.422751594100816</v>
       </c>
       <c r="D190" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E190">
         <v>2.901892440584781</v>
@@ -10585,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10599,7 +10602,7 @@
         <v>5.893713788467551</v>
       </c>
       <c r="D191" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E191">
         <v>2.901892440584781</v>
@@ -10635,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10649,7 +10652,7 @@
         <v>0.5179406222671616</v>
       </c>
       <c r="D192" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E192">
         <v>0.1467723461990573</v>
@@ -10685,7 +10688,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10699,7 +10702,7 @@
         <v>0.3677345405657775</v>
       </c>
       <c r="D193" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E193">
         <v>0.1467723461990573</v>
@@ -10735,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10749,7 +10752,7 @@
         <v>7.212705926337946</v>
       </c>
       <c r="D194" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E194">
         <v>3.676716599119786</v>
@@ -10785,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -10799,7 +10802,7 @@
         <v>6.682075470841298</v>
       </c>
       <c r="D195" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E195">
         <v>3.676716599119786</v>
@@ -10835,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -10849,7 +10852,7 @@
         <v>0.8352277483245487</v>
       </c>
       <c r="D196" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E196">
         <v>0.3846845807742838</v>
@@ -10885,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10899,7 +10902,7 @@
         <v>1.19909776925082</v>
       </c>
       <c r="D197" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E197">
         <v>0.3846845807742838</v>
@@ -10935,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -10949,7 +10952,7 @@
         <v>15.85732541489383</v>
       </c>
       <c r="D198" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E198">
         <v>12.15576373860051</v>
@@ -10985,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -10999,7 +11002,7 @@
         <v>9.154626138941545</v>
       </c>
       <c r="D199" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E199">
         <v>10.1457637386005</v>
@@ -11035,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11049,7 +11052,7 @@
         <v>20.52882535635497</v>
       </c>
       <c r="D200" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E200">
         <v>17.16608306198427</v>
@@ -11085,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11099,7 +11102,7 @@
         <v>20.01532326601529</v>
       </c>
       <c r="D201" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E201">
         <v>17.16182266903495</v>
@@ -11135,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11149,7 +11152,7 @@
         <v>20.52405408116763</v>
       </c>
       <c r="D202" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E202">
         <v>17.16182266903495</v>
@@ -11185,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11199,7 +11202,7 @@
         <v>19.97713105134113</v>
       </c>
       <c r="D203" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E203">
         <v>17.12745703463643</v>
@@ -11235,7 +11238,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11249,7 +11252,7 @@
         <v>19.78769619247149</v>
       </c>
       <c r="D204" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E204">
         <v>16.95700216162655</v>
@@ -11285,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11299,7 +11302,7 @@
         <v>19.72946947948954</v>
       </c>
       <c r="D205" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E205">
         <v>16.90460933896265</v>
@@ -11335,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11349,7 +11352,7 @@
         <v>19.66471905771537</v>
       </c>
       <c r="D206" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E206">
         <v>16.84634643536238</v>
@@ -11385,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11399,7 +11402,7 @@
         <v>19.5088598974271</v>
       </c>
       <c r="D207" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E207">
         <v>16.70610322176966</v>
@@ -11435,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11449,7 +11452,7 @@
         <v>19.28831605863447</v>
       </c>
       <c r="D208" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E208">
         <v>16.50765626085222</v>
@@ -11485,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11499,7 +11502,7 @@
         <v>19.19520175231204</v>
       </c>
       <c r="D209" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E209">
         <v>16.42387132626151</v>
@@ -11535,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11549,7 +11552,7 @@
         <v>19.05540054991548</v>
       </c>
       <c r="D210" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E210">
         <v>16.12799605103372</v>
@@ -11585,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11599,7 +11602,7 @@
         <v>19.02007289952515</v>
       </c>
       <c r="D211" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E211">
         <v>16.09699076249269</v>
@@ -11635,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11649,7 +11652,7 @@
         <v>18.63226776448187</v>
       </c>
       <c r="D212" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E212">
         <v>15.75663384724757</v>
@@ -11685,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11699,7 +11702,7 @@
         <v>18.71498673226228</v>
       </c>
       <c r="D213" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E213">
         <v>15.39488806222844</v>
@@ -11735,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11749,7 +11752,7 @@
         <v>18.26133487568657</v>
       </c>
       <c r="D214" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E214">
         <v>15.4310848475438</v>
@@ -11785,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -11799,7 +11802,7 @@
         <v>18.75654747588454</v>
       </c>
       <c r="D215" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E215">
         <v>15.4310848475438</v>
@@ -11835,7 +11838,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -11849,7 +11852,7 @@
         <v>18.16683845632306</v>
       </c>
       <c r="D216" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E216">
         <v>14.535139415301</v>
@@ -11899,7 +11902,7 @@
         <v>19.29117147225969</v>
       </c>
       <c r="D217" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E217">
         <v>15.75788232322333</v>
@@ -11935,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -11985,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -11999,7 +12002,7 @@
         <v>12.17255864879727</v>
       </c>
       <c r="D219" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E219">
         <v>11.43255864879727</v>
@@ -12035,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12049,7 +12052,7 @@
         <v>11.88655543238428</v>
       </c>
       <c r="D220" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E220">
         <v>11.43255864879727</v>
@@ -12085,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12099,7 +12102,7 @@
         <v>12.10927609080188</v>
       </c>
       <c r="D221" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E221">
         <v>12.08247455606389</v>
@@ -12135,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12149,7 +12152,7 @@
         <v>11.82138853023023</v>
       </c>
       <c r="D222" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E222">
         <v>12.08247455606389</v>
@@ -12185,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12235,7 +12238,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12249,7 +12252,7 @@
         <v>11.74270804654375</v>
       </c>
       <c r="D224" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E224">
         <v>11.73063502614344</v>
@@ -12285,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12299,7 +12302,7 @@
         <v>11.41854815733105</v>
       </c>
       <c r="D225" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E225">
         <v>11.73063502614344</v>
@@ -12335,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12349,7 +12352,7 @@
         <v>11.75391413984507</v>
       </c>
       <c r="D226" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E226">
         <v>11.73063502614344</v>
@@ -12385,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12399,7 +12402,7 @@
         <v>11.56335103671992</v>
       </c>
       <c r="D227" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E227">
         <v>10.91452112601634</v>
@@ -12435,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12449,7 +12452,7 @@
         <v>11.29709670924624</v>
       </c>
       <c r="D228" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E228">
         <v>10.91452112601634</v>
@@ -12485,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12499,10 +12502,10 @@
         <v>11.17350343307117</v>
       </c>
       <c r="D229" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E229">
-        <v>10.79733859878642</v>
+        <v>10.95188140489946</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -12511,10 +12514,10 @@
         <v>0.07108649656692885</v>
       </c>
       <c r="H229">
-        <v>0.0676026614012136</v>
+        <v>0.06746811859510055</v>
       </c>
       <c r="I229">
-        <v>-0.3761648342847508</v>
+        <v>-0.2216220281717085</v>
       </c>
       <c r="J229">
         <v>0.7227140305652312</v>
@@ -12526,66 +12529,66 @@
         <v>41.13</v>
       </c>
       <c r="M229">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="N229">
-        <v>39.2</v>
+        <v>39.21</v>
       </c>
       <c r="O229">
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="230" spans="1:16">
       <c r="A230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C230">
-        <v>11.03366317468897</v>
+        <v>10.79733859878642</v>
       </c>
       <c r="D230" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E230">
-        <v>10.66475181580885</v>
+        <v>10.95188140489946</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230">
-        <v>0.07122633682531104</v>
+        <v>0.0676026614012136</v>
       </c>
       <c r="H230">
-        <v>0.06773524818419116</v>
+        <v>0.06746811859510055</v>
       </c>
       <c r="I230">
-        <v>-0.3689113588801227</v>
+        <v>0.1545428061130423</v>
       </c>
       <c r="J230">
-        <v>0.7260877400557547</v>
+        <v>0.7227140305652312</v>
       </c>
       <c r="K230">
-        <v>41.45</v>
+        <v>39.3</v>
       </c>
       <c r="L230">
-        <v>41.13</v>
+        <v>39.2</v>
       </c>
       <c r="M230">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="N230">
-        <v>39.2</v>
+        <v>39.21</v>
       </c>
       <c r="O230">
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12593,43 +12596,43 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C231">
-        <v>16.43638076605912</v>
+        <v>11.03366317468897</v>
       </c>
       <c r="D231" t="s">
         <v>131</v>
       </c>
       <c r="E231">
-        <v>12.4261081361488</v>
+        <v>10.81996936381999</v>
       </c>
       <c r="F231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G231">
-        <v>0.08142361923394088</v>
+        <v>0.07122633682531104</v>
       </c>
       <c r="H231">
-        <v>0.07535389186385121</v>
+        <v>0.06760003063618002</v>
       </c>
       <c r="I231">
-        <v>4.010272629910322</v>
+        <v>-0.2136938108689783</v>
       </c>
       <c r="J231">
-        <v>0.7627610148812412</v>
+        <v>0.7260877400557547</v>
       </c>
       <c r="K231">
-        <v>42.6</v>
+        <v>41.45</v>
       </c>
       <c r="L231">
-        <v>48.93</v>
+        <v>41.13</v>
       </c>
       <c r="M231">
-        <v>41.25</v>
+        <v>39.1</v>
       </c>
       <c r="N231">
-        <v>43.89</v>
+        <v>39.21</v>
       </c>
       <c r="O231">
         <v>1</v>
@@ -12646,28 +12649,28 @@
         <v>71</v>
       </c>
       <c r="C232">
-        <v>9.28562669433348</v>
+        <v>10.77822897973078</v>
       </c>
       <c r="D232" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E232">
-        <v>9.223492115167229</v>
+        <v>10.81996936381999</v>
       </c>
       <c r="F232">
         <v>1</v>
       </c>
       <c r="G232">
-        <v>0.07137437330566652</v>
+        <v>0.06988177102026921</v>
       </c>
       <c r="H232">
-        <v>0.06917650788483277</v>
+        <v>0.06760003063618002</v>
       </c>
       <c r="I232">
-        <v>-0.06213457916625131</v>
+        <v>0.04174038408920921</v>
       </c>
       <c r="J232">
-        <v>0.7627610148812412</v>
+        <v>0.7260877400557547</v>
       </c>
       <c r="K232">
         <v>40.7</v>
@@ -12676,10 +12679,10 @@
         <v>40.33</v>
       </c>
       <c r="M232">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="N232">
-        <v>39.2</v>
+        <v>39.21</v>
       </c>
       <c r="O232">
         <v>1</v>
@@ -12690,96 +12693,96 @@
     </row>
     <row r="233" spans="1:16">
       <c r="A233" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B233" t="s">
         <v>70</v>
       </c>
       <c r="C233">
-        <v>16.43574822320629</v>
+        <v>10.66475181580885</v>
       </c>
       <c r="D233" t="s">
         <v>131</v>
       </c>
       <c r="E233">
-        <v>12.42549563866806</v>
+        <v>10.81996936381999</v>
       </c>
       <c r="F233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0.08142425177679372</v>
+        <v>0.06773524818419116</v>
       </c>
       <c r="H233">
-        <v>0.07535450436133194</v>
+        <v>0.06760003063618002</v>
       </c>
       <c r="I233">
-        <v>4.010252584538225</v>
+        <v>0.1552175480111444</v>
       </c>
       <c r="J233">
-        <v>0.7627758633050167</v>
+        <v>0.7260877400557547</v>
       </c>
       <c r="K233">
-        <v>42.6</v>
+        <v>39.3</v>
       </c>
       <c r="L233">
-        <v>48.93</v>
+        <v>39.2</v>
       </c>
       <c r="M233">
-        <v>41.25</v>
+        <v>39.1</v>
       </c>
       <c r="N233">
-        <v>43.89</v>
+        <v>39.21</v>
       </c>
       <c r="O233">
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:16">
       <c r="A234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C234">
-        <v>9.285022363485819</v>
+        <v>16.43638076605912</v>
       </c>
       <c r="D234" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E234">
-        <v>9.22290857211285</v>
+        <v>12.4261081361488</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G234">
-        <v>0.07137497763651418</v>
+        <v>0.08142361923394088</v>
       </c>
       <c r="H234">
-        <v>0.06917709142788715</v>
+        <v>0.07535389186385121</v>
       </c>
       <c r="I234">
-        <v>-0.06211379137296902</v>
+        <v>4.010272629910322</v>
       </c>
       <c r="J234">
-        <v>0.7627758633050167</v>
+        <v>0.7627610148812412</v>
       </c>
       <c r="K234">
-        <v>40.7</v>
+        <v>42.6</v>
       </c>
       <c r="L234">
-        <v>40.33</v>
+        <v>48.93</v>
       </c>
       <c r="M234">
-        <v>39.3</v>
+        <v>41.25</v>
       </c>
       <c r="N234">
-        <v>39.2</v>
+        <v>43.89</v>
       </c>
       <c r="O234">
         <v>1</v>
@@ -12790,102 +12793,102 @@
     </row>
     <row r="235" spans="1:16">
       <c r="A235" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B235" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C235">
-        <v>16.50634301293896</v>
+        <v>9.28562669433348</v>
       </c>
       <c r="D235" t="s">
         <v>131</v>
       </c>
       <c r="E235">
-        <v>12.49385326957118</v>
+        <v>9.386044318143473</v>
       </c>
       <c r="F235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>0.08135365698706104</v>
+        <v>0.07137437330566652</v>
       </c>
       <c r="H235">
-        <v>0.07528614673042883</v>
+        <v>0.06903395568185652</v>
       </c>
       <c r="I235">
-        <v>4.01248974336778</v>
+        <v>0.1004176238099923</v>
       </c>
       <c r="J235">
-        <v>0.7611187086164564</v>
+        <v>0.7627610148812412</v>
       </c>
       <c r="K235">
-        <v>42.6</v>
+        <v>40.7</v>
       </c>
       <c r="L235">
-        <v>48.93</v>
+        <v>40.33</v>
       </c>
       <c r="M235">
-        <v>41.25</v>
+        <v>39.1</v>
       </c>
       <c r="N235">
-        <v>43.89</v>
+        <v>39.21</v>
       </c>
       <c r="O235">
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="236" spans="1:16">
       <c r="A236" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C236">
-        <v>9.352468559310221</v>
+        <v>9.223492115167229</v>
       </c>
       <c r="D236" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E236">
-        <v>9.288034751373271</v>
+        <v>9.386044318143473</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236">
-        <v>0.07130753144068977</v>
+        <v>0.06917650788483277</v>
       </c>
       <c r="H236">
-        <v>0.06911196524862673</v>
+        <v>0.06903395568185652</v>
       </c>
       <c r="I236">
-        <v>-0.06443380793695042</v>
+        <v>0.1625522029762436</v>
       </c>
       <c r="J236">
-        <v>0.7611187086164564</v>
+        <v>0.7627610148812412</v>
       </c>
       <c r="K236">
-        <v>40.7</v>
+        <v>39.3</v>
       </c>
       <c r="L236">
-        <v>40.33</v>
+        <v>39.2</v>
       </c>
       <c r="M236">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="N236">
-        <v>39.2</v>
+        <v>39.21</v>
       </c>
       <c r="O236">
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -12893,31 +12896,31 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C237">
-        <v>16.53470387839059</v>
+        <v>16.43574822320629</v>
       </c>
       <c r="D237" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E237">
-        <v>12.52131537520216</v>
+        <v>12.42549563866806</v>
       </c>
       <c r="F237">
         <v>-1</v>
       </c>
       <c r="G237">
-        <v>0.08132529612160939</v>
+        <v>0.08142425177679372</v>
       </c>
       <c r="H237">
-        <v>0.07525868462479784</v>
+        <v>0.07535450436133194</v>
       </c>
       <c r="I237">
-        <v>4.013388503188434</v>
+        <v>4.010252584538225</v>
       </c>
       <c r="J237">
-        <v>0.7604529606011597</v>
+        <v>0.7627758633050167</v>
       </c>
       <c r="K237">
         <v>42.6</v>
@@ -12935,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -12946,28 +12949,28 @@
         <v>71</v>
       </c>
       <c r="C238">
-        <v>9.379564503532794</v>
+        <v>9.285022363485819</v>
       </c>
       <c r="D238" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E238">
-        <v>9.314198648374425</v>
+        <v>9.385463744773848</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238">
-        <v>0.0712804354964672</v>
+        <v>0.07137497763651418</v>
       </c>
       <c r="H238">
-        <v>0.06908580135162558</v>
+        <v>0.06903453625522615</v>
       </c>
       <c r="I238">
-        <v>-0.0653658551583689</v>
+        <v>0.1004413812880287</v>
       </c>
       <c r="J238">
-        <v>0.7604529606011597</v>
+        <v>0.7627758633050167</v>
       </c>
       <c r="K238">
         <v>40.7</v>
@@ -12976,115 +12979,465 @@
         <v>40.33</v>
       </c>
       <c r="M238">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="N238">
-        <v>39.2</v>
+        <v>39.21</v>
       </c>
       <c r="O238">
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:16">
       <c r="A239" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B239" t="s">
         <v>70</v>
       </c>
       <c r="C239">
-        <v>16.5169693618984</v>
+        <v>9.22290857211285</v>
       </c>
       <c r="D239" t="s">
         <v>131</v>
       </c>
       <c r="E239">
-        <v>12.50414286803543</v>
+        <v>9.385463744773848</v>
       </c>
       <c r="F239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G239">
-        <v>0.0813430306381016</v>
+        <v>0.06917709142788715</v>
       </c>
       <c r="H239">
-        <v>0.07527585713196457</v>
+        <v>0.06903453625522615</v>
       </c>
       <c r="I239">
-        <v>4.012826493862978</v>
+        <v>0.1625551726609977</v>
       </c>
       <c r="J239">
-        <v>0.7608692638052018</v>
+        <v>0.7627758633050167</v>
       </c>
       <c r="K239">
-        <v>42.6</v>
+        <v>39.3</v>
       </c>
       <c r="L239">
-        <v>48.93</v>
+        <v>39.2</v>
       </c>
       <c r="M239">
-        <v>41.25</v>
+        <v>39.1</v>
       </c>
       <c r="N239">
-        <v>43.89</v>
+        <v>39.21</v>
       </c>
       <c r="O239">
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:16">
       <c r="A240" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B240" t="s">
+        <v>72</v>
+      </c>
+      <c r="C240">
+        <v>16.50634301293896</v>
+      </c>
+      <c r="D240" t="s">
+        <v>132</v>
+      </c>
+      <c r="E240">
+        <v>12.49385326957118</v>
+      </c>
+      <c r="F240">
+        <v>-1</v>
+      </c>
+      <c r="G240">
+        <v>0.08135365698706104</v>
+      </c>
+      <c r="H240">
+        <v>0.07528614673042883</v>
+      </c>
+      <c r="I240">
+        <v>4.01248974336778</v>
+      </c>
+      <c r="J240">
+        <v>0.7611187086164564</v>
+      </c>
+      <c r="K240">
+        <v>42.6</v>
+      </c>
+      <c r="L240">
+        <v>48.93</v>
+      </c>
+      <c r="M240">
+        <v>41.25</v>
+      </c>
+      <c r="N240">
+        <v>43.89</v>
+      </c>
+      <c r="O240">
+        <v>1</v>
+      </c>
+      <c r="P240" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16">
+      <c r="A241" s="1">
+        <v>1</v>
+      </c>
+      <c r="B241" t="s">
         <v>71</v>
       </c>
-      <c r="C240">
-        <v>9.362620963128283</v>
-      </c>
-      <c r="D240" t="s">
-        <v>130</v>
-      </c>
-      <c r="E240">
+      <c r="C241">
+        <v>9.352468559310221</v>
+      </c>
+      <c r="D241" t="s">
+        <v>131</v>
+      </c>
+      <c r="E241">
+        <v>9.450258493096555</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>0.07130753144068977</v>
+      </c>
+      <c r="H241">
+        <v>0.06896974150690345</v>
+      </c>
+      <c r="I241">
+        <v>0.09778993378633416</v>
+      </c>
+      <c r="J241">
+        <v>0.7611187086164564</v>
+      </c>
+      <c r="K241">
+        <v>40.7</v>
+      </c>
+      <c r="L241">
+        <v>40.33</v>
+      </c>
+      <c r="M241">
+        <v>39.1</v>
+      </c>
+      <c r="N241">
+        <v>39.21</v>
+      </c>
+      <c r="O241">
+        <v>1</v>
+      </c>
+      <c r="P241" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16">
+      <c r="A242" s="1">
+        <v>2</v>
+      </c>
+      <c r="B242" t="s">
+        <v>70</v>
+      </c>
+      <c r="C242">
+        <v>9.288034751373271</v>
+      </c>
+      <c r="D242" t="s">
+        <v>131</v>
+      </c>
+      <c r="E242">
+        <v>9.450258493096555</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>0.06911196524862673</v>
+      </c>
+      <c r="H242">
+        <v>0.06896974150690345</v>
+      </c>
+      <c r="I242">
+        <v>0.1622237417232846</v>
+      </c>
+      <c r="J242">
+        <v>0.7611187086164564</v>
+      </c>
+      <c r="K242">
+        <v>39.3</v>
+      </c>
+      <c r="L242">
+        <v>39.2</v>
+      </c>
+      <c r="M242">
+        <v>39.1</v>
+      </c>
+      <c r="N242">
+        <v>39.21</v>
+      </c>
+      <c r="O242">
+        <v>1</v>
+      </c>
+      <c r="P242" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16">
+      <c r="A243" s="1">
+        <v>0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>72</v>
+      </c>
+      <c r="C243">
+        <v>16.53470387839059</v>
+      </c>
+      <c r="D243" t="s">
+        <v>132</v>
+      </c>
+      <c r="E243">
+        <v>12.52131537520216</v>
+      </c>
+      <c r="F243">
+        <v>-1</v>
+      </c>
+      <c r="G243">
+        <v>0.08132529612160939</v>
+      </c>
+      <c r="H243">
+        <v>0.07525868462479784</v>
+      </c>
+      <c r="I243">
+        <v>4.013388503188434</v>
+      </c>
+      <c r="J243">
+        <v>0.7604529606011597</v>
+      </c>
+      <c r="K243">
+        <v>42.6</v>
+      </c>
+      <c r="L243">
+        <v>48.93</v>
+      </c>
+      <c r="M243">
+        <v>41.25</v>
+      </c>
+      <c r="N243">
+        <v>43.89</v>
+      </c>
+      <c r="O243">
+        <v>1</v>
+      </c>
+      <c r="P243" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16">
+      <c r="A244" s="1">
+        <v>1</v>
+      </c>
+      <c r="B244" t="s">
+        <v>71</v>
+      </c>
+      <c r="C244">
+        <v>9.379564503532794</v>
+      </c>
+      <c r="D244" t="s">
+        <v>131</v>
+      </c>
+      <c r="E244">
+        <v>9.476289240494655</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>0.0712804354964672</v>
+      </c>
+      <c r="H244">
+        <v>0.06894371075950535</v>
+      </c>
+      <c r="I244">
+        <v>0.09672473696186046</v>
+      </c>
+      <c r="J244">
+        <v>0.7604529606011597</v>
+      </c>
+      <c r="K244">
+        <v>40.7</v>
+      </c>
+      <c r="L244">
+        <v>40.33</v>
+      </c>
+      <c r="M244">
+        <v>39.1</v>
+      </c>
+      <c r="N244">
+        <v>39.21</v>
+      </c>
+      <c r="O244">
+        <v>1</v>
+      </c>
+      <c r="P244" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16">
+      <c r="A245" s="1">
+        <v>2</v>
+      </c>
+      <c r="B245" t="s">
+        <v>70</v>
+      </c>
+      <c r="C245">
+        <v>9.314198648374425</v>
+      </c>
+      <c r="D245" t="s">
+        <v>131</v>
+      </c>
+      <c r="E245">
+        <v>9.476289240494655</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>0.06908580135162558</v>
+      </c>
+      <c r="H245">
+        <v>0.06894371075950535</v>
+      </c>
+      <c r="I245">
+        <v>0.1620905921202294</v>
+      </c>
+      <c r="J245">
+        <v>0.7604529606011597</v>
+      </c>
+      <c r="K245">
+        <v>39.3</v>
+      </c>
+      <c r="L245">
+        <v>39.2</v>
+      </c>
+      <c r="M245">
+        <v>39.1</v>
+      </c>
+      <c r="N245">
+        <v>39.21</v>
+      </c>
+      <c r="O245">
+        <v>1</v>
+      </c>
+      <c r="P245" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16">
+      <c r="A246" s="1">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>72</v>
+      </c>
+      <c r="C246">
+        <v>16.5169693618984</v>
+      </c>
+      <c r="D246" t="s">
+        <v>132</v>
+      </c>
+      <c r="E246">
+        <v>12.50414286803543</v>
+      </c>
+      <c r="F246">
+        <v>-1</v>
+      </c>
+      <c r="G246">
+        <v>0.0813430306381016</v>
+      </c>
+      <c r="H246">
+        <v>0.07527585713196457</v>
+      </c>
+      <c r="I246">
+        <v>4.012826493862978</v>
+      </c>
+      <c r="J246">
+        <v>0.7608692638052018</v>
+      </c>
+      <c r="K246">
+        <v>42.6</v>
+      </c>
+      <c r="L246">
+        <v>48.93</v>
+      </c>
+      <c r="M246">
+        <v>41.25</v>
+      </c>
+      <c r="N246">
+        <v>43.89</v>
+      </c>
+      <c r="O246">
+        <v>1</v>
+      </c>
+      <c r="P246" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16">
+      <c r="A247" s="1">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>70</v>
+      </c>
+      <c r="C247">
         <v>9.297837932455575</v>
       </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>0.07129737903687172</v>
-      </c>
-      <c r="H240">
+      <c r="D247" t="s">
+        <v>131</v>
+      </c>
+      <c r="E247">
+        <v>9.460011785216608</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
         <v>0.06910216206754442</v>
       </c>
-      <c r="I240">
-        <v>-0.0647830306727073</v>
-      </c>
-      <c r="J240">
+      <c r="H247">
+        <v>0.0689599882147834</v>
+      </c>
+      <c r="I247">
+        <v>0.1621738527610326</v>
+      </c>
+      <c r="J247">
         <v>0.7608692638052018</v>
       </c>
-      <c r="K240">
-        <v>40.7</v>
-      </c>
-      <c r="L240">
-        <v>40.33</v>
-      </c>
-      <c r="M240">
+      <c r="K247">
         <v>39.3</v>
       </c>
-      <c r="N240">
+      <c r="L247">
         <v>39.2</v>
       </c>
-      <c r="O240">
-        <v>1</v>
-      </c>
-      <c r="P240" t="s">
+      <c r="M247">
+        <v>39.1</v>
+      </c>
+      <c r="N247">
+        <v>39.21</v>
+      </c>
+      <c r="O247">
+        <v>1</v>
+      </c>
+      <c r="P247" t="s">
         <v>59</v>
       </c>
     </row>

--- a/s60_signal/position-00914-600585.xlsx
+++ b/s60_signal/position-00914-600585.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="240">
   <si>
     <t>trade_time</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2021-06-17</t>
@@ -1088,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P247"/>
+  <dimension ref="A1:P237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1188,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1238,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1288,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1338,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1388,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1438,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1488,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1538,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1588,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1638,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1688,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1738,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1788,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1838,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1888,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1938,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1988,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2038,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2088,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2138,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2188,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2238,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2288,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2338,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2388,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2438,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2488,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2538,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2588,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2638,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2688,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2738,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2788,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2838,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2888,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2938,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2988,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3038,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3088,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3138,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3188,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3238,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3288,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3338,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3388,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3438,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3488,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3538,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3588,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3638,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3738,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3788,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3838,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3888,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3938,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3988,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4038,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4088,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4138,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4188,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4238,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4288,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4338,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4388,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4438,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4488,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4638,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4688,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4738,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4788,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4838,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4888,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4938,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5088,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5138,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5188,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5238,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5288,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5338,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5388,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5438,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5538,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5588,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5638,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5688,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5738,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5788,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5838,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5888,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5938,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5988,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6038,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6088,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6138,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6188,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6238,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6288,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6338,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6388,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6438,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6488,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6788,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6838,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6888,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6938,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6988,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7238,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7288,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7338,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7388,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7438,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7488,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7538,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7588,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7788,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7838,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7888,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7938,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7988,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8038,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8088,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8138,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8188,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8238,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8288,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8338,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8388,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8438,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8488,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8538,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8588,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8638,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8688,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8738,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8788,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8838,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8888,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8938,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8988,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9038,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9088,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9138,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9188,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9238,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9288,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9338,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9388,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9438,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9488,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9538,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9588,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9638,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9688,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9738,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9788,7 +9791,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -9838,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -9888,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9938,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -9988,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10038,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10588,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10638,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10688,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10738,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10788,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -10838,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -10888,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10938,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -10988,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11038,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11088,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11138,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11188,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11238,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11288,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11338,7 +11341,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11388,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11438,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11488,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11538,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11588,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11638,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11688,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11738,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11788,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -11838,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -11938,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -11988,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12038,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12088,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12138,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12188,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12238,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12438,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12488,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12596,49 +12599,49 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C231">
-        <v>11.03366317468897</v>
+        <v>10.77822897973078</v>
       </c>
       <c r="D231" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E231">
-        <v>10.81996936381999</v>
+        <v>10.12779568583672</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
       <c r="G231">
-        <v>0.07122633682531104</v>
+        <v>0.06988177102026921</v>
       </c>
       <c r="H231">
-        <v>0.06760003063618002</v>
+        <v>0.06647220431416329</v>
       </c>
       <c r="I231">
-        <v>-0.2136938108689783</v>
+        <v>-0.6504332938940642</v>
       </c>
       <c r="J231">
         <v>0.7260877400557547</v>
       </c>
       <c r="K231">
-        <v>41.45</v>
+        <v>40.7</v>
       </c>
       <c r="L231">
-        <v>41.13</v>
+        <v>40.33</v>
       </c>
       <c r="M231">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="N231">
-        <v>39.21</v>
+        <v>38.3</v>
       </c>
       <c r="O231">
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12646,99 +12649,99 @@
         <v>1</v>
       </c>
       <c r="B232" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C232">
-        <v>10.77822897973078</v>
+        <v>10.66475181580885</v>
       </c>
       <c r="D232" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E232">
-        <v>10.81996936381999</v>
+        <v>10.12779568583672</v>
       </c>
       <c r="F232">
         <v>1</v>
       </c>
       <c r="G232">
-        <v>0.06988177102026921</v>
+        <v>0.06773524818419116</v>
       </c>
       <c r="H232">
-        <v>0.06760003063618002</v>
+        <v>0.06647220431416329</v>
       </c>
       <c r="I232">
-        <v>0.04174038408920921</v>
+        <v>-0.536956129972129</v>
       </c>
       <c r="J232">
         <v>0.7260877400557547</v>
       </c>
       <c r="K232">
-        <v>40.7</v>
+        <v>39.3</v>
       </c>
       <c r="L232">
-        <v>40.33</v>
+        <v>39.2</v>
       </c>
       <c r="M232">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="N232">
-        <v>39.21</v>
+        <v>38.3</v>
       </c>
       <c r="O232">
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="1:16">
       <c r="A233" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C233">
-        <v>10.66475181580885</v>
+        <v>16.43638076605912</v>
       </c>
       <c r="D233" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E233">
-        <v>10.81996936381999</v>
+        <v>12.4261081361488</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G233">
-        <v>0.06773524818419116</v>
+        <v>0.08142361923394088</v>
       </c>
       <c r="H233">
-        <v>0.06760003063618002</v>
+        <v>0.07535389186385121</v>
       </c>
       <c r="I233">
-        <v>0.1552175480111444</v>
+        <v>4.010272629910322</v>
       </c>
       <c r="J233">
-        <v>0.7260877400557547</v>
+        <v>0.7627610148812412</v>
       </c>
       <c r="K233">
-        <v>39.3</v>
+        <v>42.6</v>
       </c>
       <c r="L233">
-        <v>39.2</v>
+        <v>48.93</v>
       </c>
       <c r="M233">
-        <v>39.1</v>
+        <v>41.25</v>
       </c>
       <c r="N233">
-        <v>39.21</v>
+        <v>43.89</v>
       </c>
       <c r="O233">
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12749,28 +12752,28 @@
         <v>72</v>
       </c>
       <c r="C234">
-        <v>16.43638076605912</v>
+        <v>16.43574822320629</v>
       </c>
       <c r="D234" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E234">
-        <v>12.4261081361488</v>
+        <v>12.42549563866806</v>
       </c>
       <c r="F234">
         <v>-1</v>
       </c>
       <c r="G234">
-        <v>0.08142361923394088</v>
+        <v>0.08142425177679372</v>
       </c>
       <c r="H234">
-        <v>0.07535389186385121</v>
+        <v>0.07535450436133194</v>
       </c>
       <c r="I234">
-        <v>4.010272629910322</v>
+        <v>4.010252584538225</v>
       </c>
       <c r="J234">
-        <v>0.7627610148812412</v>
+        <v>0.7627758633050167</v>
       </c>
       <c r="K234">
         <v>42.6</v>
@@ -12788,107 +12791,107 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="1:16">
       <c r="A235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C235">
-        <v>9.28562669433348</v>
+        <v>16.50634301293896</v>
       </c>
       <c r="D235" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E235">
-        <v>9.386044318143473</v>
+        <v>12.49385326957118</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G235">
-        <v>0.07137437330566652</v>
+        <v>0.08135365698706104</v>
       </c>
       <c r="H235">
-        <v>0.06903395568185652</v>
+        <v>0.07528614673042883</v>
       </c>
       <c r="I235">
-        <v>0.1004176238099923</v>
+        <v>4.01248974336778</v>
       </c>
       <c r="J235">
-        <v>0.7627610148812412</v>
+        <v>0.7611187086164564</v>
       </c>
       <c r="K235">
-        <v>40.7</v>
+        <v>42.6</v>
       </c>
       <c r="L235">
-        <v>40.33</v>
+        <v>48.93</v>
       </c>
       <c r="M235">
-        <v>39.1</v>
+        <v>41.25</v>
       </c>
       <c r="N235">
-        <v>39.21</v>
+        <v>43.89</v>
       </c>
       <c r="O235">
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:16">
       <c r="A236" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C236">
-        <v>9.223492115167229</v>
+        <v>16.53470387839059</v>
       </c>
       <c r="D236" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E236">
-        <v>9.386044318143473</v>
+        <v>12.52131537520216</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G236">
-        <v>0.06917650788483277</v>
+        <v>0.08132529612160939</v>
       </c>
       <c r="H236">
-        <v>0.06903395568185652</v>
+        <v>0.07525868462479784</v>
       </c>
       <c r="I236">
-        <v>0.1625522029762436</v>
+        <v>4.013388503188434</v>
       </c>
       <c r="J236">
-        <v>0.7627610148812412</v>
+        <v>0.7604529606011597</v>
       </c>
       <c r="K236">
-        <v>39.3</v>
+        <v>42.6</v>
       </c>
       <c r="L236">
-        <v>39.2</v>
+        <v>48.93</v>
       </c>
       <c r="M236">
-        <v>39.1</v>
+        <v>41.25</v>
       </c>
       <c r="N236">
-        <v>39.21</v>
+        <v>43.89</v>
       </c>
       <c r="O236">
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -12899,28 +12902,28 @@
         <v>72</v>
       </c>
       <c r="C237">
-        <v>16.43574822320629</v>
+        <v>16.5169693618984</v>
       </c>
       <c r="D237" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E237">
-        <v>12.42549563866806</v>
+        <v>12.50414286803543</v>
       </c>
       <c r="F237">
         <v>-1</v>
       </c>
       <c r="G237">
-        <v>0.08142425177679372</v>
+        <v>0.0813430306381016</v>
       </c>
       <c r="H237">
-        <v>0.07535450436133194</v>
+        <v>0.07527585713196457</v>
       </c>
       <c r="I237">
-        <v>4.010252584538225</v>
+        <v>4.012826493862978</v>
       </c>
       <c r="J237">
-        <v>0.7627758633050167</v>
+        <v>0.7608692638052018</v>
       </c>
       <c r="K237">
         <v>42.6</v>
@@ -12938,506 +12941,6 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16">
-      <c r="A238" s="1">
-        <v>1</v>
-      </c>
-      <c r="B238" t="s">
-        <v>71</v>
-      </c>
-      <c r="C238">
-        <v>9.285022363485819</v>
-      </c>
-      <c r="D238" t="s">
-        <v>131</v>
-      </c>
-      <c r="E238">
-        <v>9.385463744773848</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>0.07137497763651418</v>
-      </c>
-      <c r="H238">
-        <v>0.06903453625522615</v>
-      </c>
-      <c r="I238">
-        <v>0.1004413812880287</v>
-      </c>
-      <c r="J238">
-        <v>0.7627758633050167</v>
-      </c>
-      <c r="K238">
-        <v>40.7</v>
-      </c>
-      <c r="L238">
-        <v>40.33</v>
-      </c>
-      <c r="M238">
-        <v>39.1</v>
-      </c>
-      <c r="N238">
-        <v>39.21</v>
-      </c>
-      <c r="O238">
-        <v>1</v>
-      </c>
-      <c r="P238" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16">
-      <c r="A239" s="1">
-        <v>2</v>
-      </c>
-      <c r="B239" t="s">
-        <v>70</v>
-      </c>
-      <c r="C239">
-        <v>9.22290857211285</v>
-      </c>
-      <c r="D239" t="s">
-        <v>131</v>
-      </c>
-      <c r="E239">
-        <v>9.385463744773848</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>0.06917709142788715</v>
-      </c>
-      <c r="H239">
-        <v>0.06903453625522615</v>
-      </c>
-      <c r="I239">
-        <v>0.1625551726609977</v>
-      </c>
-      <c r="J239">
-        <v>0.7627758633050167</v>
-      </c>
-      <c r="K239">
-        <v>39.3</v>
-      </c>
-      <c r="L239">
-        <v>39.2</v>
-      </c>
-      <c r="M239">
-        <v>39.1</v>
-      </c>
-      <c r="N239">
-        <v>39.21</v>
-      </c>
-      <c r="O239">
-        <v>1</v>
-      </c>
-      <c r="P239" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16">
-      <c r="A240" s="1">
-        <v>0</v>
-      </c>
-      <c r="B240" t="s">
-        <v>72</v>
-      </c>
-      <c r="C240">
-        <v>16.50634301293896</v>
-      </c>
-      <c r="D240" t="s">
-        <v>132</v>
-      </c>
-      <c r="E240">
-        <v>12.49385326957118</v>
-      </c>
-      <c r="F240">
-        <v>-1</v>
-      </c>
-      <c r="G240">
-        <v>0.08135365698706104</v>
-      </c>
-      <c r="H240">
-        <v>0.07528614673042883</v>
-      </c>
-      <c r="I240">
-        <v>4.01248974336778</v>
-      </c>
-      <c r="J240">
-        <v>0.7611187086164564</v>
-      </c>
-      <c r="K240">
-        <v>42.6</v>
-      </c>
-      <c r="L240">
-        <v>48.93</v>
-      </c>
-      <c r="M240">
-        <v>41.25</v>
-      </c>
-      <c r="N240">
-        <v>43.89</v>
-      </c>
-      <c r="O240">
-        <v>1</v>
-      </c>
-      <c r="P240" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16">
-      <c r="A241" s="1">
-        <v>1</v>
-      </c>
-      <c r="B241" t="s">
-        <v>71</v>
-      </c>
-      <c r="C241">
-        <v>9.352468559310221</v>
-      </c>
-      <c r="D241" t="s">
-        <v>131</v>
-      </c>
-      <c r="E241">
-        <v>9.450258493096555</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>0.07130753144068977</v>
-      </c>
-      <c r="H241">
-        <v>0.06896974150690345</v>
-      </c>
-      <c r="I241">
-        <v>0.09778993378633416</v>
-      </c>
-      <c r="J241">
-        <v>0.7611187086164564</v>
-      </c>
-      <c r="K241">
-        <v>40.7</v>
-      </c>
-      <c r="L241">
-        <v>40.33</v>
-      </c>
-      <c r="M241">
-        <v>39.1</v>
-      </c>
-      <c r="N241">
-        <v>39.21</v>
-      </c>
-      <c r="O241">
-        <v>1</v>
-      </c>
-      <c r="P241" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16">
-      <c r="A242" s="1">
-        <v>2</v>
-      </c>
-      <c r="B242" t="s">
-        <v>70</v>
-      </c>
-      <c r="C242">
-        <v>9.288034751373271</v>
-      </c>
-      <c r="D242" t="s">
-        <v>131</v>
-      </c>
-      <c r="E242">
-        <v>9.450258493096555</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>0.06911196524862673</v>
-      </c>
-      <c r="H242">
-        <v>0.06896974150690345</v>
-      </c>
-      <c r="I242">
-        <v>0.1622237417232846</v>
-      </c>
-      <c r="J242">
-        <v>0.7611187086164564</v>
-      </c>
-      <c r="K242">
-        <v>39.3</v>
-      </c>
-      <c r="L242">
-        <v>39.2</v>
-      </c>
-      <c r="M242">
-        <v>39.1</v>
-      </c>
-      <c r="N242">
-        <v>39.21</v>
-      </c>
-      <c r="O242">
-        <v>1</v>
-      </c>
-      <c r="P242" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16">
-      <c r="A243" s="1">
-        <v>0</v>
-      </c>
-      <c r="B243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C243">
-        <v>16.53470387839059</v>
-      </c>
-      <c r="D243" t="s">
-        <v>132</v>
-      </c>
-      <c r="E243">
-        <v>12.52131537520216</v>
-      </c>
-      <c r="F243">
-        <v>-1</v>
-      </c>
-      <c r="G243">
-        <v>0.08132529612160939</v>
-      </c>
-      <c r="H243">
-        <v>0.07525868462479784</v>
-      </c>
-      <c r="I243">
-        <v>4.013388503188434</v>
-      </c>
-      <c r="J243">
-        <v>0.7604529606011597</v>
-      </c>
-      <c r="K243">
-        <v>42.6</v>
-      </c>
-      <c r="L243">
-        <v>48.93</v>
-      </c>
-      <c r="M243">
-        <v>41.25</v>
-      </c>
-      <c r="N243">
-        <v>43.89</v>
-      </c>
-      <c r="O243">
-        <v>1</v>
-      </c>
-      <c r="P243" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16">
-      <c r="A244" s="1">
-        <v>1</v>
-      </c>
-      <c r="B244" t="s">
-        <v>71</v>
-      </c>
-      <c r="C244">
-        <v>9.379564503532794</v>
-      </c>
-      <c r="D244" t="s">
-        <v>131</v>
-      </c>
-      <c r="E244">
-        <v>9.476289240494655</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>0.0712804354964672</v>
-      </c>
-      <c r="H244">
-        <v>0.06894371075950535</v>
-      </c>
-      <c r="I244">
-        <v>0.09672473696186046</v>
-      </c>
-      <c r="J244">
-        <v>0.7604529606011597</v>
-      </c>
-      <c r="K244">
-        <v>40.7</v>
-      </c>
-      <c r="L244">
-        <v>40.33</v>
-      </c>
-      <c r="M244">
-        <v>39.1</v>
-      </c>
-      <c r="N244">
-        <v>39.21</v>
-      </c>
-      <c r="O244">
-        <v>1</v>
-      </c>
-      <c r="P244" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16">
-      <c r="A245" s="1">
-        <v>2</v>
-      </c>
-      <c r="B245" t="s">
-        <v>70</v>
-      </c>
-      <c r="C245">
-        <v>9.314198648374425</v>
-      </c>
-      <c r="D245" t="s">
-        <v>131</v>
-      </c>
-      <c r="E245">
-        <v>9.476289240494655</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>0.06908580135162558</v>
-      </c>
-      <c r="H245">
-        <v>0.06894371075950535</v>
-      </c>
-      <c r="I245">
-        <v>0.1620905921202294</v>
-      </c>
-      <c r="J245">
-        <v>0.7604529606011597</v>
-      </c>
-      <c r="K245">
-        <v>39.3</v>
-      </c>
-      <c r="L245">
-        <v>39.2</v>
-      </c>
-      <c r="M245">
-        <v>39.1</v>
-      </c>
-      <c r="N245">
-        <v>39.21</v>
-      </c>
-      <c r="O245">
-        <v>1</v>
-      </c>
-      <c r="P245" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16">
-      <c r="A246" s="1">
-        <v>0</v>
-      </c>
-      <c r="B246" t="s">
-        <v>72</v>
-      </c>
-      <c r="C246">
-        <v>16.5169693618984</v>
-      </c>
-      <c r="D246" t="s">
-        <v>132</v>
-      </c>
-      <c r="E246">
-        <v>12.50414286803543</v>
-      </c>
-      <c r="F246">
-        <v>-1</v>
-      </c>
-      <c r="G246">
-        <v>0.0813430306381016</v>
-      </c>
-      <c r="H246">
-        <v>0.07527585713196457</v>
-      </c>
-      <c r="I246">
-        <v>4.012826493862978</v>
-      </c>
-      <c r="J246">
-        <v>0.7608692638052018</v>
-      </c>
-      <c r="K246">
-        <v>42.6</v>
-      </c>
-      <c r="L246">
-        <v>48.93</v>
-      </c>
-      <c r="M246">
-        <v>41.25</v>
-      </c>
-      <c r="N246">
-        <v>43.89</v>
-      </c>
-      <c r="O246">
-        <v>1</v>
-      </c>
-      <c r="P246" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16">
-      <c r="A247" s="1">
-        <v>1</v>
-      </c>
-      <c r="B247" t="s">
-        <v>70</v>
-      </c>
-      <c r="C247">
-        <v>9.297837932455575</v>
-      </c>
-      <c r="D247" t="s">
-        <v>131</v>
-      </c>
-      <c r="E247">
-        <v>9.460011785216608</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>0.06910216206754442</v>
-      </c>
-      <c r="H247">
-        <v>0.0689599882147834</v>
-      </c>
-      <c r="I247">
-        <v>0.1621738527610326</v>
-      </c>
-      <c r="J247">
-        <v>0.7608692638052018</v>
-      </c>
-      <c r="K247">
-        <v>39.3</v>
-      </c>
-      <c r="L247">
-        <v>39.2</v>
-      </c>
-      <c r="M247">
-        <v>39.1</v>
-      </c>
-      <c r="N247">
-        <v>39.21</v>
-      </c>
-      <c r="O247">
-        <v>1</v>
-      </c>
-      <c r="P247" t="s">
         <v>59</v>
       </c>
     </row>

--- a/s60_signal/position-00914-600585.xlsx
+++ b/s60_signal/position-00914-600585.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="241">
   <si>
     <t>trade_time</t>
   </si>
@@ -232,6 +232,9 @@
     <t>2021-07-02</t>
   </si>
   <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
     <t>2021-06-08</t>
   </si>
   <si>
@@ -412,7 +415,7 @@
     <t>2021-07-13</t>
   </si>
   <si>
-    <t>2021-07-14</t>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2021-06-17</t>
@@ -1091,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P237"/>
+  <dimension ref="A1:P240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1241,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1255,7 +1258,7 @@
         <v>3.865859388393531</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>4.097842290047694</v>
@@ -1291,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1305,7 +1308,7 @@
         <v>3.867842290047694</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>4.097842290047694</v>
@@ -1341,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1355,7 +1358,7 @@
         <v>3.461721442525899</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>3.39419673099987</v>
@@ -1391,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1405,7 +1408,7 @@
         <v>3.459734423297274</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>3.39419673099987</v>
@@ -1441,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1491,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1541,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1555,7 +1558,7 @@
         <v>3.16694425131325</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>3.359129610475641</v>
@@ -1591,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1605,7 +1608,7 @@
         <v>3.394897239794993</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>3.359129610475641</v>
@@ -1641,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1655,7 +1658,7 @@
         <v>3.117640232442373</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>2.635536081278246</v>
@@ -1691,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1705,7 +1708,7 @@
         <v>3.321848534770627</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>2.635536081278246</v>
@@ -1741,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1755,7 +1758,7 @@
         <v>3.344834697556873</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>2.635536081278246</v>
@@ -1791,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1805,7 +1808,7 @@
         <v>2.993112189363568</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>2.673112189363568</v>
@@ -1841,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1855,7 +1858,7 @@
         <v>3.20019421576287</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>2.673112189363568</v>
@@ -1891,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1905,7 +1908,7 @@
         <v>3.218390838430704</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>2.673112189363568</v>
@@ -1941,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1955,7 +1958,7 @@
         <v>3.103012988322206</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18">
         <v>2.62988710634049</v>
@@ -1991,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2005,7 +2008,7 @@
         <v>3.117383578413634</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>2.62988710634049</v>
@@ -2041,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2055,7 +2058,7 @@
         <v>2.953610693719877</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>2.537157276716563</v>
@@ -2091,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2105,7 +2108,7 @@
         <v>2.962099303708847</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>2.537157276716563</v>
@@ -2141,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2155,7 +2158,7 @@
         <v>2.872635186535728</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>2.682635186535727</v>
@@ -2191,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2205,7 +2208,7 @@
         <v>2.877935784430836</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>2.682635186535727</v>
@@ -2241,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2255,7 +2258,7 @@
         <v>2.852267607428114</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>2.629917990017542</v>
@@ -2291,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2305,7 +2308,7 @@
         <v>2.856766332130007</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25">
         <v>2.629917990017542</v>
@@ -2341,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2355,7 +2358,7 @@
         <v>2.811761351230931</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <v>2.640825752700035</v>
@@ -2391,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2405,7 +2408,7 @@
         <v>2.814665341436871</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <v>2.640825752700035</v>
@@ -2441,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2491,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2541,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2555,7 +2558,7 @@
         <v>2.63826823762383</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>2.63791236922124</v>
@@ -2591,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2605,7 +2608,7 @@
         <v>2.634341790286186</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>2.63791236922124</v>
@@ -2641,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2655,7 +2658,7 @@
         <v>2.644964559990708</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>2.63791236922124</v>
@@ -2691,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2705,7 +2708,7 @@
         <v>2.731915275790641</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33">
         <v>2.352208534673963</v>
@@ -2741,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2755,7 +2758,7 @@
         <v>2.610439248718354</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34">
         <v>2.352208534673963</v>
@@ -2791,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2805,7 +2808,7 @@
         <v>2.746753374580404</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E35">
         <v>2.350225795209379</v>
@@ -2841,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2891,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2905,7 +2908,7 @@
         <v>2.787117571133386</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <v>2.823906542063554</v>
@@ -2941,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2955,7 +2958,7 @@
         <v>2.883884958958227</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38">
         <v>2.823906542063554</v>
@@ -2991,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3005,7 +3008,7 @@
         <v>2.85679612614372</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39">
         <v>2.509699758109345</v>
@@ -3041,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3055,7 +3058,7 @@
         <v>2.784156488881695</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40">
         <v>2.482559097029725</v>
@@ -3091,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3105,7 +3108,7 @@
         <v>2.712068545906188</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>2.389269688337961</v>
@@ -3141,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3155,7 +3158,7 @@
         <v>2.702691411029491</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42">
         <v>2.366731283785484</v>
@@ -3191,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3241,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3255,7 +3258,7 @@
         <v>2.972898466540091</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44">
         <v>2.959777273665928</v>
@@ -3291,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3305,7 +3308,7 @@
         <v>2.921933117969051</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45">
         <v>2.740731067560024</v>
@@ -3341,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3355,7 +3358,7 @@
         <v>2.98396235602636</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46">
         <v>2.472809772939694</v>
@@ -3391,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3405,7 +3408,7 @@
         <v>0.9436087597884253</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47">
         <v>-1.99755555963268</v>
@@ -3441,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3455,7 +3458,7 @@
         <v>0.9931330872741064</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48">
         <v>-1.945846335346161</v>
@@ -3491,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3505,7 +3508,7 @@
         <v>1.061208452840496</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49">
         <v>-1.561324587868725</v>
@@ -3541,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3555,7 +3558,7 @@
         <v>1.119649719030264</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50">
         <v>-1.498535232517298</v>
@@ -3591,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3605,7 +3608,7 @@
         <v>1.154541005165207</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51">
         <v>-1.461047999494632</v>
@@ -3641,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3655,7 +3658,7 @@
         <v>1.131852687543812</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <v>0.5478188871899121</v>
@@ -3705,7 +3708,7 @@
         <v>1.188936742513683</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53">
         <v>1.063100941658099</v>
@@ -3741,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3755,7 +3758,7 @@
         <v>1.249982102732112</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E54">
         <v>0.07301952552553104</v>
@@ -3791,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3805,7 +3808,7 @@
         <v>1.342037179610671</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E55">
         <v>-0.05480301084717354</v>
@@ -3841,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3855,7 +3858,7 @@
         <v>1.451972473813719</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56">
         <v>0.9119894589734443</v>
@@ -3891,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3905,7 +3908,7 @@
         <v>1.510041973607841</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57">
         <v>1.302812532847142</v>
@@ -3941,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3955,7 +3958,7 @@
         <v>1.540830568775363</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58">
         <v>0.9301997197644951</v>
@@ -3991,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4005,7 +4008,7 @@
         <v>1.597939172685521</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E59">
         <v>0.792592453180788</v>
@@ -4041,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4055,7 +4058,7 @@
         <v>1.703402241378249</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60">
         <v>1.579882369457003</v>
@@ -4091,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4105,7 +4108,7 @@
         <v>7.082322116014304</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61">
         <v>9.39892979714033</v>
@@ -4141,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4155,7 +4158,7 @@
         <v>6.03547807457366</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62">
         <v>8.392943592760137</v>
@@ -4191,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4205,7 +4208,7 @@
         <v>-3.725741650745938</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E63">
         <v>-1.061483620645447</v>
@@ -4241,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4255,7 +4258,7 @@
         <v>-3.390064231685251</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E64">
         <v>-1.061483620645447</v>
@@ -4291,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4305,7 +4308,7 @@
         <v>-4.367653322749888</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65">
         <v>-1.625808861219163</v>
@@ -4341,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4355,7 +4358,7 @@
         <v>-4.031312771796635</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66">
         <v>-1.625808861219163</v>
@@ -4391,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4405,7 +4408,7 @@
         <v>-4.607517906916144</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67">
         <v>-1.836681548332265</v>
@@ -4441,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4455,7 +4458,7 @@
         <v>-4.270929561970988</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68">
         <v>-1.836681548332265</v>
@@ -4491,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4505,7 +4508,7 @@
         <v>-4.387223400334264</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69">
         <v>-2.098063558594617</v>
@@ -4555,7 +4558,7 @@
         <v>-4.567940612410105</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70">
         <v>-2.098063558594617</v>
@@ -4605,7 +4608,7 @@
         <v>-4.572133036248417</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71">
         <v>-2.256530930359915</v>
@@ -4641,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4655,7 +4658,7 @@
         <v>-4.748008707001226</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-2.256530930359915</v>
@@ -4691,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4705,7 +4708,7 @@
         <v>-4.6969899027008</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73">
         <v>-2.363533139172588</v>
@@ -4741,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4755,7 +4758,7 @@
         <v>-4.869596410787189</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74">
         <v>-2.363533139172588</v>
@@ -4791,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4805,7 +4808,7 @@
         <v>-4.851917740072338</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75">
         <v>-2.496306139780017</v>
@@ -4841,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4855,7 +4858,7 @@
         <v>-4.5541965709862</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76">
         <v>-2.496306139780017</v>
@@ -4891,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4905,7 +4908,7 @@
         <v>-4.568923494933983</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77">
         <v>-2.496306139780017</v>
@@ -4941,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4955,7 +4958,7 @@
         <v>-4.843752817660352</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78">
         <v>-2.753521553057368</v>
@@ -5005,7 +5008,7 @@
         <v>-4.803407083453244</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79">
         <v>-2.753521553057368</v>
@@ -5055,7 +5058,7 @@
         <v>-5.12322060515109</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80">
         <v>-3.001775297477636</v>
@@ -5091,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5105,7 +5108,7 @@
         <v>-5.086667231317023</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81">
         <v>-3.001775297477636</v>
@@ -5141,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5155,7 +5158,7 @@
         <v>-5.498672524566146</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82">
         <v>-3.335292607939238</v>
@@ -5191,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5205,7 +5208,7 @@
         <v>-5.467214009763808</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83">
         <v>-3.335292607939238</v>
@@ -5241,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5255,7 +5258,7 @@
         <v>-5.942693680916477</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84">
         <v>-3.729720587118912</v>
@@ -5291,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5305,7 +5308,7 @@
         <v>-5.917260505396555</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85">
         <v>-3.729720587118912</v>
@@ -5341,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5355,7 +5358,7 @@
         <v>-6.304243385177699</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86">
         <v>-4.050888435058688</v>
@@ -5391,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5405,7 +5408,7 @@
         <v>-6.283716416500575</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87">
         <v>-4.050888435058688</v>
@@ -5441,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5455,7 +5458,7 @@
         <v>-6.70774440980211</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88">
         <v>-4.422513380784331</v>
@@ -5505,7 +5508,7 @@
         <v>-7.026497484109498</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89">
         <v>-4.701873696165997</v>
@@ -5541,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5555,7 +5558,7 @@
         <v>-7.466555872236626</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90">
         <v>-5.087547937459696</v>
@@ -5591,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5605,7 +5608,7 @@
         <v>-5.360456423998336</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E91">
         <v>-6.993426227125362</v>
@@ -5641,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5655,7 +5658,7 @@
         <v>-8.255385642797997</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92">
         <v>-6.633019871061308</v>
@@ -5691,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5705,7 +5708,7 @@
         <v>-5.597771601185165</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93">
         <v>-7.088994860354454</v>
@@ -5741,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5755,7 +5758,7 @@
         <v>-5.553423604070751</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E94">
         <v>-7.191259698838785</v>
@@ -5791,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5805,7 +5808,7 @@
         <v>-8.299892373677679</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E95">
         <v>-6.674413562841202</v>
@@ -5841,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5855,7 +5858,7 @@
         <v>-5.645829142288029</v>
       </c>
       <c r="D96" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E96">
         <v>-7.139484463254028</v>
@@ -5891,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5905,7 +5908,7 @@
         <v>-5.603572718318787</v>
       </c>
       <c r="D97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E97">
         <v>-7.242673485221104</v>
@@ -5941,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5955,7 +5958,7 @@
         <v>-8.177862645389048</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98">
         <v>-6.702607565134123</v>
@@ -5991,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6005,7 +6008,7 @@
         <v>-8.330206723969127</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E99">
         <v>-6.702607565134123</v>
@@ -6041,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6055,7 +6058,7 @@
         <v>-5.758656618823501</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E100">
         <v>-7.247843724527407</v>
@@ -6091,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6105,7 +6108,7 @@
         <v>-5.6785620145153</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E101">
         <v>-7.17387385735514</v>
@@ -6141,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6155,7 +6158,7 @@
         <v>-5.637730199357563</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102">
         <v>-7.277692357634287</v>
@@ -6191,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6205,7 +6208,7 @@
         <v>-8.225632222005096</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E103">
         <v>-6.745854277581202</v>
@@ -6241,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6255,7 +6258,7 @@
         <v>-8.376705833121981</v>
       </c>
       <c r="D104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E104">
         <v>-6.745854277581202</v>
@@ -6291,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6305,7 +6308,7 @@
         <v>-5.862563499790042</v>
       </c>
       <c r="D105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E105">
         <v>-7.296273944224318</v>
@@ -6341,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6355,7 +6358,7 @@
         <v>-8.138199110881978</v>
       </c>
       <c r="D106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E106">
         <v>-6.427417499781725</v>
@@ -6391,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6405,7 +6408,7 @@
         <v>-5.728770888660677</v>
       </c>
       <c r="D107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E107">
         <v>-7.22662366642691</v>
@@ -6441,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6455,7 +6458,7 @@
         <v>-5.690124277539631</v>
       </c>
       <c r="D108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E108">
         <v>-7.331407721978074</v>
@@ -6491,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6505,7 +6508,7 @@
         <v>-8.44310768470099</v>
       </c>
       <c r="D109" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E109">
         <v>-6.807611628066162</v>
@@ -6555,7 +6558,7 @@
         <v>-5.928529929391487</v>
       </c>
       <c r="D110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110">
         <v>-7.365433468327915</v>
@@ -6605,7 +6608,7 @@
         <v>-8.210188877839769</v>
       </c>
       <c r="D111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E111">
         <v>-6.495996461248566</v>
@@ -6655,7 +6658,7 @@
         <v>-5.80047037430009</v>
       </c>
       <c r="D112" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E112">
         <v>-7.301951668546046</v>
@@ -6705,7 +6708,7 @@
         <v>-5.764944287351611</v>
       </c>
       <c r="D113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E113">
         <v>-7.408114560359508</v>
@@ -6755,7 +6758,7 @@
         <v>-8.501365905896868</v>
       </c>
       <c r="D114" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E114">
         <v>-6.861794957287685</v>
@@ -6791,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6805,7 +6808,7 @@
         <v>-5.986406129464761</v>
       </c>
       <c r="D115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E115">
         <v>-7.426111156633567</v>
@@ -6841,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6855,7 +6858,7 @@
         <v>-8.273349703442292</v>
       </c>
       <c r="D116" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E116">
         <v>-6.556164788057423</v>
@@ -6891,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6905,7 +6908,7 @@
         <v>-5.863376519154215</v>
       </c>
       <c r="D117" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E117">
         <v>-7.36804132275514</v>
@@ -6941,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6955,7 +6958,7 @@
         <v>-5.830588250251004</v>
       </c>
       <c r="D118" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E118">
         <v>-7.475413948123489</v>
@@ -6991,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7005,7 +7008,7 @@
         <v>-6.036191740627181</v>
       </c>
       <c r="D119" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E119">
         <v>-7.478306632362695</v>
@@ -7055,7 +7058,7 @@
         <v>-8.327681195491927</v>
       </c>
       <c r="D120" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E120">
         <v>-6.607922106592611</v>
@@ -7105,7 +7108,7 @@
         <v>-5.917488932606872</v>
       </c>
       <c r="D121" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E121">
         <v>-7.424892218669974</v>
@@ -7155,7 +7158,7 @@
         <v>-5.887055758621138</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E122">
         <v>-7.533305467373957</v>
@@ -7205,7 +7208,7 @@
         <v>-6.124286449526096</v>
       </c>
       <c r="D123" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E123">
         <v>-7.570665551593358</v>
@@ -7241,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7255,7 +7258,7 @@
         <v>-8.423819755698446</v>
       </c>
       <c r="D124" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E124">
         <v>-6.699505714853863</v>
@@ -7291,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7305,7 +7308,7 @@
         <v>-6.01323983732869</v>
       </c>
       <c r="D125" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E125">
         <v>-7.525488816950592</v>
@@ -7341,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7355,7 +7358,7 @@
         <v>-5.986973959803521</v>
       </c>
       <c r="D126" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E126">
         <v>-7.635743429206912</v>
@@ -7391,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7405,7 +7408,7 @@
         <v>-6.206127283819491</v>
       </c>
       <c r="D127" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E127">
         <v>-7.709858398136483</v>
@@ -7441,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7455,7 +7458,7 @@
         <v>-8.568708846748585</v>
       </c>
       <c r="D128" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E128">
         <v>-6.83753010098529</v>
@@ -7491,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7505,7 +7508,7 @@
         <v>-6.157544698172977</v>
       </c>
       <c r="D129" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E129">
         <v>-7.677096555367967</v>
@@ -7541,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7555,7 +7558,7 @@
         <v>-6.137559295360667</v>
       </c>
       <c r="D130" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E130">
         <v>-7.790126261102067</v>
@@ -7591,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7605,7 +7608,7 @@
         <v>-8.724455302555334</v>
       </c>
       <c r="D131" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E131">
         <v>-6.985897440438293</v>
@@ -7641,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7655,7 +7658,7 @@
         <v>-6.312663144077284</v>
       </c>
       <c r="D132" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E132">
         <v>-7.84006512505286</v>
@@ -7691,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7705,7 +7708,7 @@
         <v>-6.299428847716271</v>
       </c>
       <c r="D133" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E133">
         <v>-7.956077877823574</v>
@@ -7741,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7755,7 +7758,7 @@
         <v>-8.881996475438136</v>
       </c>
       <c r="D134" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E134">
         <v>-7.135974465009106</v>
@@ -7791,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7805,7 +7808,7 @@
         <v>-6.469569070295236</v>
       </c>
       <c r="D135" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E135">
         <v>-8.004911634581433</v>
@@ -7841,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7855,7 +7858,7 @@
         <v>-6.463163675581363</v>
       </c>
       <c r="D136" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E136">
         <v>-8.123941809010191</v>
@@ -7891,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7905,7 +7908,7 @@
         <v>-6.555849051211844</v>
       </c>
       <c r="D137" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E137">
         <v>-8.070947070211147</v>
@@ -7941,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7955,7 +7958,7 @@
         <v>-8.944574494910249</v>
       </c>
       <c r="D138" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E138">
         <v>-7.195587598478006</v>
@@ -7991,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8005,7 +8008,7 @@
         <v>-6.531894759043666</v>
       </c>
       <c r="D139" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E139">
         <v>-8.070391457375841</v>
@@ -8041,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8055,7 +8058,7 @@
         <v>-6.52820191960933</v>
       </c>
       <c r="D140" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E140">
         <v>-8.190620202742068</v>
@@ -8091,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8105,7 +8108,7 @@
         <v>-9.097128692828768</v>
       </c>
       <c r="D141" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E141">
         <v>-7.340913926132238</v>
@@ -8141,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8155,7 +8158,7 @@
         <v>-6.683833819067353</v>
       </c>
       <c r="D142" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E142">
         <v>-8.230019741084938</v>
@@ -8191,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8205,7 +8208,7 @@
         <v>-6.686753712002471</v>
       </c>
       <c r="D143" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E143">
         <v>-8.35317039145162</v>
@@ -8241,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8255,7 +8258,7 @@
         <v>-9.226549811636133</v>
       </c>
       <c r="D144" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E144">
         <v>-7.464203197576758</v>
@@ -8291,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8305,7 +8308,7 @@
         <v>-6.812733078524694</v>
       </c>
       <c r="D145" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E145">
         <v>-8.365442242417643</v>
@@ -8341,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8355,7 +8358,7 @@
         <v>-9.195297631482575</v>
       </c>
       <c r="D146" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E146">
         <v>-7.43443171547483</v>
@@ -8391,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8405,7 +8408,7 @@
         <v>-6.78160691522659</v>
       </c>
       <c r="D147" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E147">
         <v>-8.33274086842632</v>
@@ -8441,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8455,7 +8458,7 @@
         <v>-9.178575533094566</v>
       </c>
       <c r="D148" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E148">
         <v>-7.418501893925765</v>
@@ -8491,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8505,7 +8508,7 @@
         <v>-9.01172937356634</v>
       </c>
       <c r="D149" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E149">
         <v>-7.259560743971967</v>
@@ -8541,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8555,7 +8558,7 @@
         <v>-6.598778851898729</v>
       </c>
       <c r="D150" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E150">
         <v>-8.14066037274381</v>
@@ -8591,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8605,7 +8608,7 @@
         <v>-6.597996959825494</v>
       </c>
       <c r="D151" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E151">
         <v>-8.26217535066494</v>
@@ -8641,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8655,7 +8658,7 @@
         <v>-6.580061112481111</v>
       </c>
       <c r="D152" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E152">
         <v>-8.095946089051466</v>
@@ -8691,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8705,7 +8708,7 @@
         <v>-8.970596558592923</v>
       </c>
       <c r="D153" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E153">
         <v>-7.220376761966044</v>
@@ -8741,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8755,7 +8758,7 @@
         <v>-6.557811895050207</v>
       </c>
       <c r="D154" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E154">
         <v>-8.09762018933413</v>
@@ -8791,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8805,7 +8808,7 @@
         <v>-6.555247028134374</v>
       </c>
       <c r="D155" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E155">
         <v>-8.218347341162016</v>
@@ -8841,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8855,7 +8858,7 @@
         <v>-6.577113402823095</v>
       </c>
       <c r="D156" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E156">
         <v>-8.092902570845517</v>
@@ -8891,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8905,7 +8908,7 @@
         <v>-8.967428489274667</v>
       </c>
       <c r="D157" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E157">
         <v>-7.217358792706207</v>
@@ -8941,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8955,7 +8958,7 @@
         <v>-6.554656600205007</v>
       </c>
       <c r="D158" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E158">
         <v>-8.094305213575709</v>
@@ -8991,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9005,7 +9008,7 @@
         <v>-6.551954407703803</v>
       </c>
       <c r="D159" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E159">
         <v>-8.214971686656575</v>
@@ -9041,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9055,7 +9058,7 @@
         <v>-8.96588564418861</v>
       </c>
       <c r="D160" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E160">
         <v>-7.215889046127252</v>
@@ -9091,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9105,7 +9108,7 @@
         <v>-6.553119976268491</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E161">
         <v>-8.092690825269933</v>
@@ -9141,7 +9144,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9155,7 +9158,7 @@
         <v>-6.550350906409733</v>
       </c>
       <c r="D162" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E162">
         <v>-8.213327747890489</v>
@@ -9191,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9205,7 +9208,7 @@
         <v>-8.957282379415823</v>
       </c>
       <c r="D163" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E163">
         <v>-7.207693395713662</v>
@@ -9241,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9255,7 +9258,7 @@
         <v>-6.544551402079463</v>
       </c>
       <c r="D164" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E164">
         <v>-8.083688618783896</v>
@@ -9291,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9305,7 +9308,7 @@
         <v>-6.541409408445269</v>
       </c>
       <c r="D165" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E165">
         <v>-8.204160761131575</v>
@@ -9341,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9355,7 +9358,7 @@
         <v>-9.189704217204067</v>
       </c>
       <c r="D166" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E166">
         <v>-8.287425006865455</v>
@@ -9391,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9405,7 +9408,7 @@
         <v>-8.966990157030267</v>
       </c>
       <c r="D167" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E167">
         <v>-7.216941228219355</v>
@@ -9441,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9455,7 +9458,7 @@
         <v>-6.554220035429331</v>
       </c>
       <c r="D168" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E168">
         <v>-8.09384655544094</v>
@@ -9491,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9505,7 +9508,7 @@
         <v>-6.551498842639312</v>
       </c>
       <c r="D169" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E169">
         <v>-8.214504633045351</v>
@@ -9541,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9555,7 +9558,7 @@
         <v>-9.200987551467627</v>
       </c>
       <c r="D170" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E170">
         <v>-8.062628257853937</v>
@@ -9591,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9605,7 +9608,7 @@
         <v>-5.744424659624897</v>
       </c>
       <c r="D171" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E171">
         <v>-9.168004982467224</v>
@@ -9641,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9655,7 +9658,7 @@
         <v>-9.320459183580553</v>
       </c>
       <c r="D172" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E172">
         <v>-8.519444616447643</v>
@@ -9691,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9705,7 +9708,7 @@
         <v>-9.758278581073185</v>
       </c>
       <c r="D173" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E173">
         <v>-8.519444616447643</v>
@@ -9741,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9755,7 +9758,7 @@
         <v>1.93748613778034</v>
       </c>
       <c r="D174" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E174">
         <v>-3.785088938010851</v>
@@ -9791,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -9805,7 +9808,7 @@
         <v>-9.449792997965268</v>
       </c>
       <c r="D175" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E175">
         <v>-3.02668852932127</v>
@@ -9841,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -9891,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9905,7 +9908,7 @@
         <v>-7.49349826462975</v>
       </c>
       <c r="D177" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E177">
         <v>-2.563031396720049</v>
@@ -9941,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -9955,7 +9958,7 @@
         <v>-7.400654460855741</v>
       </c>
       <c r="D178" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E178">
         <v>-2.563031396720049</v>
@@ -9991,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10005,7 +10008,7 @@
         <v>-7.310878524281797</v>
       </c>
       <c r="D179" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E179">
         <v>-2.470392808492726</v>
@@ -10041,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10055,7 +10058,7 @@
         <v>-1.137705700364087</v>
       </c>
       <c r="D180" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E180">
         <v>-5.327198547332877</v>
@@ -10091,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10105,7 +10108,7 @@
         <v>-7.43565059492704</v>
       </c>
       <c r="D181" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E181">
         <v>-4.511272425220589</v>
@@ -10141,7 +10144,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10155,7 +10158,7 @@
         <v>-7.728087200798136</v>
       </c>
       <c r="D182" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E182">
         <v>-4.511272425220589</v>
@@ -10191,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10205,7 +10208,7 @@
         <v>-7.776944970817269</v>
       </c>
       <c r="D183" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E183">
         <v>-4.636449928781524</v>
@@ -10241,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10255,7 +10258,7 @@
         <v>-2.366005602048894</v>
       </c>
       <c r="D184" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E184">
         <v>-5.159190826471352</v>
@@ -10291,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10305,7 +10308,7 @@
         <v>-3.086643025309506</v>
       </c>
       <c r="D185" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E185">
         <v>-5.921712484906784</v>
@@ -10341,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10355,7 +10358,7 @@
         <v>-8.081861396637805</v>
       </c>
       <c r="D186" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E186">
         <v>-5.158033193571107</v>
@@ -10391,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10405,7 +10408,7 @@
         <v>-8.385297335303981</v>
       </c>
       <c r="D187" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E187">
         <v>-5.158033193571107</v>
@@ -10441,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10455,7 +10458,7 @@
         <v>-8.415456239571483</v>
       </c>
       <c r="D188" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E188">
         <v>-5.252412565305825</v>
@@ -10491,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10505,7 +10508,7 @@
         <v>-2.950620140107226</v>
       </c>
       <c r="D189" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E189">
         <v>-5.733355998374364</v>
@@ -10541,7 +10544,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10555,7 +10558,7 @@
         <v>6.422751594100816</v>
       </c>
       <c r="D190" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E190">
         <v>2.901892440584781</v>
@@ -10591,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10605,7 +10608,7 @@
         <v>5.893713788467551</v>
       </c>
       <c r="D191" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E191">
         <v>2.901892440584781</v>
@@ -10641,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10655,7 +10658,7 @@
         <v>0.5179406222671616</v>
       </c>
       <c r="D192" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E192">
         <v>0.1467723461990573</v>
@@ -10691,7 +10694,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10705,7 +10708,7 @@
         <v>0.3677345405657775</v>
       </c>
       <c r="D193" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E193">
         <v>0.1467723461990573</v>
@@ -10741,7 +10744,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10755,7 +10758,7 @@
         <v>7.212705926337946</v>
       </c>
       <c r="D194" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E194">
         <v>3.676716599119786</v>
@@ -10791,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -10805,7 +10808,7 @@
         <v>6.682075470841298</v>
       </c>
       <c r="D195" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E195">
         <v>3.676716599119786</v>
@@ -10841,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -10855,7 +10858,7 @@
         <v>0.8352277483245487</v>
       </c>
       <c r="D196" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E196">
         <v>0.3846845807742838</v>
@@ -10891,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10905,7 +10908,7 @@
         <v>1.19909776925082</v>
       </c>
       <c r="D197" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E197">
         <v>0.3846845807742838</v>
@@ -10941,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -10955,7 +10958,7 @@
         <v>15.85732541489383</v>
       </c>
       <c r="D198" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E198">
         <v>12.15576373860051</v>
@@ -10991,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11005,7 +11008,7 @@
         <v>9.154626138941545</v>
       </c>
       <c r="D199" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E199">
         <v>10.1457637386005</v>
@@ -11041,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11055,7 +11058,7 @@
         <v>20.52882535635497</v>
       </c>
       <c r="D200" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E200">
         <v>17.16608306198427</v>
@@ -11091,7 +11094,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11105,7 +11108,7 @@
         <v>20.01532326601529</v>
       </c>
       <c r="D201" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E201">
         <v>17.16182266903495</v>
@@ -11141,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11155,7 +11158,7 @@
         <v>20.52405408116763</v>
       </c>
       <c r="D202" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E202">
         <v>17.16182266903495</v>
@@ -11191,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11205,7 +11208,7 @@
         <v>19.97713105134113</v>
       </c>
       <c r="D203" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E203">
         <v>17.12745703463643</v>
@@ -11241,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11255,7 +11258,7 @@
         <v>19.78769619247149</v>
       </c>
       <c r="D204" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E204">
         <v>16.95700216162655</v>
@@ -11291,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11305,7 +11308,7 @@
         <v>19.72946947948954</v>
       </c>
       <c r="D205" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E205">
         <v>16.90460933896265</v>
@@ -11341,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11355,7 +11358,7 @@
         <v>19.66471905771537</v>
       </c>
       <c r="D206" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E206">
         <v>16.84634643536238</v>
@@ -11391,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11405,7 +11408,7 @@
         <v>19.5088598974271</v>
       </c>
       <c r="D207" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E207">
         <v>16.70610322176966</v>
@@ -11441,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11455,7 +11458,7 @@
         <v>19.28831605863447</v>
       </c>
       <c r="D208" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E208">
         <v>16.50765626085222</v>
@@ -11491,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11505,7 +11508,7 @@
         <v>19.19520175231204</v>
       </c>
       <c r="D209" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E209">
         <v>16.42387132626151</v>
@@ -11541,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11555,7 +11558,7 @@
         <v>19.05540054991548</v>
       </c>
       <c r="D210" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E210">
         <v>16.12799605103372</v>
@@ -11591,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11605,7 +11608,7 @@
         <v>19.02007289952515</v>
       </c>
       <c r="D211" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E211">
         <v>16.09699076249269</v>
@@ -11641,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11655,7 +11658,7 @@
         <v>18.63226776448187</v>
       </c>
       <c r="D212" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E212">
         <v>15.75663384724757</v>
@@ -11691,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11705,7 +11708,7 @@
         <v>18.71498673226228</v>
       </c>
       <c r="D213" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E213">
         <v>15.39488806222844</v>
@@ -11741,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11755,7 +11758,7 @@
         <v>18.26133487568657</v>
       </c>
       <c r="D214" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E214">
         <v>15.4310848475438</v>
@@ -11791,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -11805,7 +11808,7 @@
         <v>18.75654747588454</v>
       </c>
       <c r="D215" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E215">
         <v>15.4310848475438</v>
@@ -11841,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -11855,7 +11858,7 @@
         <v>18.16683845632306</v>
       </c>
       <c r="D216" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E216">
         <v>14.535139415301</v>
@@ -11905,7 +11908,7 @@
         <v>19.29117147225969</v>
       </c>
       <c r="D217" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E217">
         <v>15.75788232322333</v>
@@ -11941,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -11991,7 +11994,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12005,7 +12008,7 @@
         <v>12.17255864879727</v>
       </c>
       <c r="D219" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E219">
         <v>11.43255864879727</v>
@@ -12041,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12055,7 +12058,7 @@
         <v>11.88655543238428</v>
       </c>
       <c r="D220" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E220">
         <v>11.43255864879727</v>
@@ -12091,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12105,7 +12108,7 @@
         <v>12.10927609080188</v>
       </c>
       <c r="D221" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E221">
         <v>12.08247455606389</v>
@@ -12141,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12155,7 +12158,7 @@
         <v>11.82138853023023</v>
       </c>
       <c r="D222" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E222">
         <v>12.08247455606389</v>
@@ -12191,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12241,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12255,7 +12258,7 @@
         <v>11.74270804654375</v>
       </c>
       <c r="D224" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E224">
         <v>11.73063502614344</v>
@@ -12291,7 +12294,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12305,7 +12308,7 @@
         <v>11.41854815733105</v>
       </c>
       <c r="D225" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E225">
         <v>11.73063502614344</v>
@@ -12341,7 +12344,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12355,7 +12358,7 @@
         <v>11.75391413984507</v>
       </c>
       <c r="D226" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E226">
         <v>11.73063502614344</v>
@@ -12391,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12441,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12491,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12505,7 +12508,7 @@
         <v>11.17350343307117</v>
       </c>
       <c r="D229" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E229">
         <v>10.95188140489946</v>
@@ -12541,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12555,7 +12558,7 @@
         <v>10.79733859878642</v>
       </c>
       <c r="D230" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E230">
         <v>10.95188140489946</v>
@@ -12591,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12605,7 +12608,7 @@
         <v>10.77822897973078</v>
       </c>
       <c r="D231" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="E231">
         <v>10.12779568583672</v>
@@ -12641,7 +12644,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12655,7 +12658,7 @@
         <v>10.66475181580885</v>
       </c>
       <c r="D232" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="E232">
         <v>10.12779568583672</v>
@@ -12691,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12702,46 +12705,46 @@
         <v>72</v>
       </c>
       <c r="C233">
-        <v>16.43638076605912</v>
+        <v>8.704872622607844</v>
       </c>
       <c r="D233" t="s">
         <v>133</v>
       </c>
       <c r="E233">
-        <v>12.4261081361488</v>
+        <v>8.733973556982541</v>
       </c>
       <c r="F233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0.08142361923394088</v>
+        <v>0.06789512737739216</v>
       </c>
       <c r="H233">
-        <v>0.07535389186385121</v>
+        <v>0.06952602644301746</v>
       </c>
       <c r="I233">
-        <v>4.010272629910322</v>
+        <v>0.02910093437469641</v>
       </c>
       <c r="J233">
         <v>0.7627610148812412</v>
       </c>
       <c r="K233">
-        <v>42.6</v>
+        <v>38.8</v>
       </c>
       <c r="L233">
-        <v>48.93</v>
+        <v>38.3</v>
       </c>
       <c r="M233">
-        <v>41.25</v>
+        <v>39.85</v>
       </c>
       <c r="N233">
-        <v>43.89</v>
+        <v>39.13</v>
       </c>
       <c r="O233">
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12752,46 +12755,46 @@
         <v>72</v>
       </c>
       <c r="C234">
-        <v>16.43574822320629</v>
+        <v>8.704296503765352</v>
       </c>
       <c r="D234" t="s">
         <v>133</v>
       </c>
       <c r="E234">
-        <v>12.42549563866806</v>
+        <v>8.733381847295085</v>
       </c>
       <c r="F234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G234">
-        <v>0.08142425177679372</v>
+        <v>0.06789570349623465</v>
       </c>
       <c r="H234">
-        <v>0.07535450436133194</v>
+        <v>0.06952661815270492</v>
       </c>
       <c r="I234">
-        <v>4.010252584538225</v>
+        <v>0.02908534352973291</v>
       </c>
       <c r="J234">
         <v>0.7627758633050167</v>
       </c>
       <c r="K234">
-        <v>42.6</v>
+        <v>38.8</v>
       </c>
       <c r="L234">
-        <v>48.93</v>
+        <v>38.3</v>
       </c>
       <c r="M234">
-        <v>41.25</v>
+        <v>39.85</v>
       </c>
       <c r="N234">
-        <v>43.89</v>
+        <v>39.13</v>
       </c>
       <c r="O234">
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -12799,13 +12802,13 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C235">
         <v>16.50634301293896</v>
       </c>
       <c r="D235" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E235">
         <v>12.49385326957118</v>
@@ -12841,51 +12844,51 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:16">
       <c r="A236" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B236" t="s">
         <v>72</v>
       </c>
       <c r="C236">
-        <v>16.53470387839059</v>
+        <v>8.768594105681494</v>
       </c>
       <c r="D236" t="s">
         <v>133</v>
       </c>
       <c r="E236">
-        <v>12.52131537520216</v>
+        <v>8.799419461634216</v>
       </c>
       <c r="F236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G236">
-        <v>0.08132529612160939</v>
+        <v>0.06783140589431849</v>
       </c>
       <c r="H236">
-        <v>0.07525868462479784</v>
+        <v>0.06946058053836579</v>
       </c>
       <c r="I236">
-        <v>4.013388503188434</v>
+        <v>0.03082535595272162</v>
       </c>
       <c r="J236">
-        <v>0.7604529606011597</v>
+        <v>0.7611187086164564</v>
       </c>
       <c r="K236">
-        <v>42.6</v>
+        <v>38.8</v>
       </c>
       <c r="L236">
-        <v>48.93</v>
+        <v>38.3</v>
       </c>
       <c r="M236">
-        <v>41.25</v>
+        <v>39.85</v>
       </c>
       <c r="N236">
-        <v>43.89</v>
+        <v>39.13</v>
       </c>
       <c r="O236">
         <v>1</v>
@@ -12899,31 +12902,31 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C237">
-        <v>16.5169693618984</v>
+        <v>16.53470387839059</v>
       </c>
       <c r="D237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E237">
-        <v>12.50414286803543</v>
+        <v>12.52131537520216</v>
       </c>
       <c r="F237">
         <v>-1</v>
       </c>
       <c r="G237">
-        <v>0.0813430306381016</v>
+        <v>0.08132529612160939</v>
       </c>
       <c r="H237">
-        <v>0.07527585713196457</v>
+        <v>0.07525868462479784</v>
       </c>
       <c r="I237">
-        <v>4.012826493862978</v>
+        <v>4.013388503188434</v>
       </c>
       <c r="J237">
-        <v>0.7608692638052018</v>
+        <v>0.7604529606011597</v>
       </c>
       <c r="K237">
         <v>42.6</v>
@@ -12941,6 +12944,156 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16">
+      <c r="A238" s="1">
+        <v>1</v>
+      </c>
+      <c r="B238" t="s">
+        <v>72</v>
+      </c>
+      <c r="C238">
+        <v>8.794425128675002</v>
+      </c>
+      <c r="D238" t="s">
+        <v>133</v>
+      </c>
+      <c r="E238">
+        <v>8.825949520043785</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>0.06780557487132499</v>
+      </c>
+      <c r="H238">
+        <v>0.06943405047995622</v>
+      </c>
+      <c r="I238">
+        <v>0.03152439136878371</v>
+      </c>
+      <c r="J238">
+        <v>0.7604529606011597</v>
+      </c>
+      <c r="K238">
+        <v>38.8</v>
+      </c>
+      <c r="L238">
+        <v>38.3</v>
+      </c>
+      <c r="M238">
+        <v>39.85</v>
+      </c>
+      <c r="N238">
+        <v>39.13</v>
+      </c>
+      <c r="O238">
+        <v>1</v>
+      </c>
+      <c r="P238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
+      <c r="A239" s="1">
+        <v>0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>73</v>
+      </c>
+      <c r="C239">
+        <v>16.5169693618984</v>
+      </c>
+      <c r="D239" t="s">
+        <v>134</v>
+      </c>
+      <c r="E239">
+        <v>12.50414286803543</v>
+      </c>
+      <c r="F239">
+        <v>-1</v>
+      </c>
+      <c r="G239">
+        <v>0.0813430306381016</v>
+      </c>
+      <c r="H239">
+        <v>0.07527585713196457</v>
+      </c>
+      <c r="I239">
+        <v>4.012826493862978</v>
+      </c>
+      <c r="J239">
+        <v>0.7608692638052018</v>
+      </c>
+      <c r="K239">
+        <v>42.6</v>
+      </c>
+      <c r="L239">
+        <v>48.93</v>
+      </c>
+      <c r="M239">
+        <v>41.25</v>
+      </c>
+      <c r="N239">
+        <v>43.89</v>
+      </c>
+      <c r="O239">
+        <v>1</v>
+      </c>
+      <c r="P239" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16">
+      <c r="A240" s="1">
+        <v>1</v>
+      </c>
+      <c r="B240" t="s">
+        <v>72</v>
+      </c>
+      <c r="C240">
+        <v>8.778272564358168</v>
+      </c>
+      <c r="D240" t="s">
+        <v>133</v>
+      </c>
+      <c r="E240">
+        <v>8.80935983736271</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>0.06782172743564184</v>
+      </c>
+      <c r="H240">
+        <v>0.0694506401626373</v>
+      </c>
+      <c r="I240">
+        <v>0.03108727300454106</v>
+      </c>
+      <c r="J240">
+        <v>0.7608692638052018</v>
+      </c>
+      <c r="K240">
+        <v>38.8</v>
+      </c>
+      <c r="L240">
+        <v>38.3</v>
+      </c>
+      <c r="M240">
+        <v>39.85</v>
+      </c>
+      <c r="N240">
+        <v>39.13</v>
+      </c>
+      <c r="O240">
+        <v>1</v>
+      </c>
+      <c r="P240" t="s">
         <v>59</v>
       </c>
     </row>

--- a/s60_signal/position-00914-600585.xlsx
+++ b/s60_signal/position-00914-600585.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="243">
   <si>
     <t>trade_time</t>
   </si>
@@ -238,6 +238,9 @@
     <t>2021-06-08</t>
   </si>
   <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
     <t>2017-06-06</t>
   </si>
   <si>
@@ -415,7 +418,7 @@
     <t>2021-07-13</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-06-17</t>
@@ -737,6 +740,9 @@
   </si>
   <si>
     <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P240"/>
+  <dimension ref="A1:P239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1194,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1244,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1258,7 +1264,7 @@
         <v>3.865859388393531</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>4.097842290047694</v>
@@ -1294,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1308,7 +1314,7 @@
         <v>3.867842290047694</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>4.097842290047694</v>
@@ -1344,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1358,7 +1364,7 @@
         <v>3.461721442525899</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>3.39419673099987</v>
@@ -1394,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1408,7 +1414,7 @@
         <v>3.459734423297274</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <v>3.39419673099987</v>
@@ -1444,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1494,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1544,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1558,7 +1564,7 @@
         <v>3.16694425131325</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>3.359129610475641</v>
@@ -1594,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1608,7 +1614,7 @@
         <v>3.394897239794993</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>3.359129610475641</v>
@@ -1644,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1658,7 +1664,7 @@
         <v>3.117640232442373</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>2.635536081278246</v>
@@ -1694,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1708,7 +1714,7 @@
         <v>3.321848534770627</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>2.635536081278246</v>
@@ -1744,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1758,7 +1764,7 @@
         <v>3.344834697556873</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>2.635536081278246</v>
@@ -1794,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1808,7 +1814,7 @@
         <v>2.993112189363568</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15">
         <v>2.673112189363568</v>
@@ -1844,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1858,7 +1864,7 @@
         <v>3.20019421576287</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16">
         <v>2.673112189363568</v>
@@ -1894,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1908,7 +1914,7 @@
         <v>3.218390838430704</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <v>2.673112189363568</v>
@@ -1944,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1958,7 +1964,7 @@
         <v>3.103012988322206</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>2.62988710634049</v>
@@ -1994,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2008,7 +2014,7 @@
         <v>3.117383578413634</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>2.62988710634049</v>
@@ -2044,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2058,7 +2064,7 @@
         <v>2.953610693719877</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>2.537157276716563</v>
@@ -2094,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2108,7 +2114,7 @@
         <v>2.962099303708847</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>2.537157276716563</v>
@@ -2144,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2158,7 +2164,7 @@
         <v>2.872635186535728</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>2.682635186535727</v>
@@ -2194,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2208,7 +2214,7 @@
         <v>2.877935784430836</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>2.682635186535727</v>
@@ -2244,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2258,7 +2264,7 @@
         <v>2.852267607428114</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>2.629917990017542</v>
@@ -2294,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2308,7 +2314,7 @@
         <v>2.856766332130007</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <v>2.629917990017542</v>
@@ -2344,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2358,7 +2364,7 @@
         <v>2.811761351230931</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>2.640825752700035</v>
@@ -2394,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2408,7 +2414,7 @@
         <v>2.814665341436871</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>2.640825752700035</v>
@@ -2444,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2494,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2544,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2558,7 +2564,7 @@
         <v>2.63826823762383</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30">
         <v>2.63791236922124</v>
@@ -2594,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2608,7 +2614,7 @@
         <v>2.634341790286186</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>2.63791236922124</v>
@@ -2644,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2658,7 +2664,7 @@
         <v>2.644964559990708</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>2.63791236922124</v>
@@ -2694,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2708,7 +2714,7 @@
         <v>2.731915275790641</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>2.352208534673963</v>
@@ -2744,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2758,7 +2764,7 @@
         <v>2.610439248718354</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E34">
         <v>2.352208534673963</v>
@@ -2794,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2808,7 +2814,7 @@
         <v>2.746753374580404</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <v>2.350225795209379</v>
@@ -2844,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2894,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2908,7 +2914,7 @@
         <v>2.787117571133386</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37">
         <v>2.823906542063554</v>
@@ -2944,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2958,7 +2964,7 @@
         <v>2.883884958958227</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38">
         <v>2.823906542063554</v>
@@ -2994,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3008,7 +3014,7 @@
         <v>2.85679612614372</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>2.509699758109345</v>
@@ -3044,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3058,7 +3064,7 @@
         <v>2.784156488881695</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>2.482559097029725</v>
@@ -3094,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3108,7 +3114,7 @@
         <v>2.712068545906188</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41">
         <v>2.389269688337961</v>
@@ -3144,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3158,7 +3164,7 @@
         <v>2.702691411029491</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42">
         <v>2.366731283785484</v>
@@ -3194,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3244,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3258,7 +3264,7 @@
         <v>2.972898466540091</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44">
         <v>2.959777273665928</v>
@@ -3294,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3308,7 +3314,7 @@
         <v>2.921933117969051</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45">
         <v>2.740731067560024</v>
@@ -3344,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3358,7 +3364,7 @@
         <v>2.98396235602636</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <v>2.472809772939694</v>
@@ -3394,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3408,7 +3414,7 @@
         <v>0.9436087597884253</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47">
         <v>-1.99755555963268</v>
@@ -3444,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3458,7 +3464,7 @@
         <v>0.9931330872741064</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48">
         <v>-1.945846335346161</v>
@@ -3494,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3508,7 +3514,7 @@
         <v>1.061208452840496</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49">
         <v>-1.561324587868725</v>
@@ -3544,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3558,7 +3564,7 @@
         <v>1.119649719030264</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50">
         <v>-1.498535232517298</v>
@@ -3594,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3608,7 +3614,7 @@
         <v>1.154541005165207</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51">
         <v>-1.461047999494632</v>
@@ -3644,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3658,7 +3664,7 @@
         <v>1.131852687543812</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52">
         <v>0.5478188871899121</v>
@@ -3708,7 +3714,7 @@
         <v>1.188936742513683</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E53">
         <v>1.063100941658099</v>
@@ -3744,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3758,7 +3764,7 @@
         <v>1.249982102732112</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E54">
         <v>0.07301952552553104</v>
@@ -3794,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3808,7 +3814,7 @@
         <v>1.342037179610671</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55">
         <v>-0.05480301084717354</v>
@@ -3844,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3858,7 +3864,7 @@
         <v>1.451972473813719</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E56">
         <v>0.9119894589734443</v>
@@ -3894,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3908,7 +3914,7 @@
         <v>1.510041973607841</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57">
         <v>1.302812532847142</v>
@@ -3944,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3958,7 +3964,7 @@
         <v>1.540830568775363</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E58">
         <v>0.9301997197644951</v>
@@ -3994,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4008,7 +4014,7 @@
         <v>1.597939172685521</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59">
         <v>0.792592453180788</v>
@@ -4044,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4058,7 +4064,7 @@
         <v>1.703402241378249</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60">
         <v>1.579882369457003</v>
@@ -4094,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4108,7 +4114,7 @@
         <v>7.082322116014304</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E61">
         <v>9.39892979714033</v>
@@ -4144,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4158,7 +4164,7 @@
         <v>6.03547807457366</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E62">
         <v>8.392943592760137</v>
@@ -4194,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4208,7 +4214,7 @@
         <v>-3.725741650745938</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E63">
         <v>-1.061483620645447</v>
@@ -4244,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4258,7 +4264,7 @@
         <v>-3.390064231685251</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E64">
         <v>-1.061483620645447</v>
@@ -4294,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4308,7 +4314,7 @@
         <v>-4.367653322749888</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65">
         <v>-1.625808861219163</v>
@@ -4344,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4358,7 +4364,7 @@
         <v>-4.031312771796635</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E66">
         <v>-1.625808861219163</v>
@@ -4394,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4408,7 +4414,7 @@
         <v>-4.607517906916144</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E67">
         <v>-1.836681548332265</v>
@@ -4444,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4458,7 +4464,7 @@
         <v>-4.270929561970988</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E68">
         <v>-1.836681548332265</v>
@@ -4494,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4508,7 +4514,7 @@
         <v>-4.387223400334264</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E69">
         <v>-2.098063558594617</v>
@@ -4558,7 +4564,7 @@
         <v>-4.567940612410105</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E70">
         <v>-2.098063558594617</v>
@@ -4608,7 +4614,7 @@
         <v>-4.572133036248417</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E71">
         <v>-2.256530930359915</v>
@@ -4644,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4658,7 +4664,7 @@
         <v>-4.748008707001226</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72">
         <v>-2.256530930359915</v>
@@ -4694,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4708,7 +4714,7 @@
         <v>-4.6969899027008</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-2.363533139172588</v>
@@ -4744,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4758,7 +4764,7 @@
         <v>-4.869596410787189</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E74">
         <v>-2.363533139172588</v>
@@ -4794,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4808,7 +4814,7 @@
         <v>-4.851917740072338</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E75">
         <v>-2.496306139780017</v>
@@ -4844,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4858,7 +4864,7 @@
         <v>-4.5541965709862</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E76">
         <v>-2.496306139780017</v>
@@ -4894,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4908,7 +4914,7 @@
         <v>-4.568923494933983</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77">
         <v>-2.496306139780017</v>
@@ -4944,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4958,7 +4964,7 @@
         <v>-4.843752817660352</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78">
         <v>-2.753521553057368</v>
@@ -5008,7 +5014,7 @@
         <v>-4.803407083453244</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E79">
         <v>-2.753521553057368</v>
@@ -5058,7 +5064,7 @@
         <v>-5.12322060515109</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80">
         <v>-3.001775297477636</v>
@@ -5094,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5108,7 +5114,7 @@
         <v>-5.086667231317023</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81">
         <v>-3.001775297477636</v>
@@ -5144,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5158,7 +5164,7 @@
         <v>-5.498672524566146</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82">
         <v>-3.335292607939238</v>
@@ -5194,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5208,7 +5214,7 @@
         <v>-5.467214009763808</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83">
         <v>-3.335292607939238</v>
@@ -5244,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5258,7 +5264,7 @@
         <v>-5.942693680916477</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84">
         <v>-3.729720587118912</v>
@@ -5294,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5308,7 +5314,7 @@
         <v>-5.917260505396555</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E85">
         <v>-3.729720587118912</v>
@@ -5344,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5358,7 +5364,7 @@
         <v>-6.304243385177699</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86">
         <v>-4.050888435058688</v>
@@ -5394,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5408,7 +5414,7 @@
         <v>-6.283716416500575</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87">
         <v>-4.050888435058688</v>
@@ -5444,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5458,7 +5464,7 @@
         <v>-6.70774440980211</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88">
         <v>-4.422513380784331</v>
@@ -5508,7 +5514,7 @@
         <v>-7.026497484109498</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89">
         <v>-4.701873696165997</v>
@@ -5544,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5558,7 +5564,7 @@
         <v>-7.466555872236626</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90">
         <v>-5.087547937459696</v>
@@ -5594,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5608,7 +5614,7 @@
         <v>-5.360456423998336</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91">
         <v>-6.993426227125362</v>
@@ -5644,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5658,7 +5664,7 @@
         <v>-8.255385642797997</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92">
         <v>-6.633019871061308</v>
@@ -5694,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5708,7 +5714,7 @@
         <v>-5.597771601185165</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93">
         <v>-7.088994860354454</v>
@@ -5744,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5758,7 +5764,7 @@
         <v>-5.553423604070751</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94">
         <v>-7.191259698838785</v>
@@ -5794,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5808,7 +5814,7 @@
         <v>-8.299892373677679</v>
       </c>
       <c r="D95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E95">
         <v>-6.674413562841202</v>
@@ -5844,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5858,7 +5864,7 @@
         <v>-5.645829142288029</v>
       </c>
       <c r="D96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E96">
         <v>-7.139484463254028</v>
@@ -5894,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5908,7 +5914,7 @@
         <v>-5.603572718318787</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E97">
         <v>-7.242673485221104</v>
@@ -5944,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5958,7 +5964,7 @@
         <v>-8.177862645389048</v>
       </c>
       <c r="D98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E98">
         <v>-6.702607565134123</v>
@@ -5994,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6008,7 +6014,7 @@
         <v>-8.330206723969127</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99">
         <v>-6.702607565134123</v>
@@ -6044,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6058,7 +6064,7 @@
         <v>-5.758656618823501</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E100">
         <v>-7.247843724527407</v>
@@ -6094,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6108,7 +6114,7 @@
         <v>-5.6785620145153</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101">
         <v>-7.17387385735514</v>
@@ -6144,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6158,7 +6164,7 @@
         <v>-5.637730199357563</v>
       </c>
       <c r="D102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E102">
         <v>-7.277692357634287</v>
@@ -6194,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6208,7 +6214,7 @@
         <v>-8.225632222005096</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E103">
         <v>-6.745854277581202</v>
@@ -6244,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6258,7 +6264,7 @@
         <v>-8.376705833121981</v>
       </c>
       <c r="D104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104">
         <v>-6.745854277581202</v>
@@ -6294,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6308,7 +6314,7 @@
         <v>-5.862563499790042</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E105">
         <v>-7.296273944224318</v>
@@ -6344,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6358,7 +6364,7 @@
         <v>-8.138199110881978</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E106">
         <v>-6.427417499781725</v>
@@ -6394,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6408,7 +6414,7 @@
         <v>-5.728770888660677</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107">
         <v>-7.22662366642691</v>
@@ -6444,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6458,7 +6464,7 @@
         <v>-5.690124277539631</v>
       </c>
       <c r="D108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E108">
         <v>-7.331407721978074</v>
@@ -6494,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6508,7 +6514,7 @@
         <v>-8.44310768470099</v>
       </c>
       <c r="D109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E109">
         <v>-6.807611628066162</v>
@@ -6558,7 +6564,7 @@
         <v>-5.928529929391487</v>
       </c>
       <c r="D110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E110">
         <v>-7.365433468327915</v>
@@ -6608,7 +6614,7 @@
         <v>-8.210188877839769</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E111">
         <v>-6.495996461248566</v>
@@ -6658,7 +6664,7 @@
         <v>-5.80047037430009</v>
       </c>
       <c r="D112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E112">
         <v>-7.301951668546046</v>
@@ -6708,7 +6714,7 @@
         <v>-5.764944287351611</v>
       </c>
       <c r="D113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E113">
         <v>-7.408114560359508</v>
@@ -6758,7 +6764,7 @@
         <v>-8.501365905896868</v>
       </c>
       <c r="D114" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E114">
         <v>-6.861794957287685</v>
@@ -6794,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6808,7 +6814,7 @@
         <v>-5.986406129464761</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E115">
         <v>-7.426111156633567</v>
@@ -6844,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6858,7 +6864,7 @@
         <v>-8.273349703442292</v>
       </c>
       <c r="D116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E116">
         <v>-6.556164788057423</v>
@@ -6894,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6908,7 +6914,7 @@
         <v>-5.863376519154215</v>
       </c>
       <c r="D117" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E117">
         <v>-7.36804132275514</v>
@@ -6944,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6958,7 +6964,7 @@
         <v>-5.830588250251004</v>
       </c>
       <c r="D118" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E118">
         <v>-7.475413948123489</v>
@@ -6994,7 +7000,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7008,7 +7014,7 @@
         <v>-6.036191740627181</v>
       </c>
       <c r="D119" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119">
         <v>-7.478306632362695</v>
@@ -7058,7 +7064,7 @@
         <v>-8.327681195491927</v>
       </c>
       <c r="D120" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E120">
         <v>-6.607922106592611</v>
@@ -7108,7 +7114,7 @@
         <v>-5.917488932606872</v>
       </c>
       <c r="D121" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E121">
         <v>-7.424892218669974</v>
@@ -7158,7 +7164,7 @@
         <v>-5.887055758621138</v>
       </c>
       <c r="D122" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E122">
         <v>-7.533305467373957</v>
@@ -7208,7 +7214,7 @@
         <v>-6.124286449526096</v>
       </c>
       <c r="D123" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E123">
         <v>-7.570665551593358</v>
@@ -7244,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7258,7 +7264,7 @@
         <v>-8.423819755698446</v>
       </c>
       <c r="D124" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E124">
         <v>-6.699505714853863</v>
@@ -7294,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7308,7 +7314,7 @@
         <v>-6.01323983732869</v>
       </c>
       <c r="D125" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E125">
         <v>-7.525488816950592</v>
@@ -7344,7 +7350,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7358,7 +7364,7 @@
         <v>-5.986973959803521</v>
       </c>
       <c r="D126" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E126">
         <v>-7.635743429206912</v>
@@ -7394,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7408,7 +7414,7 @@
         <v>-6.206127283819491</v>
       </c>
       <c r="D127" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E127">
         <v>-7.709858398136483</v>
@@ -7444,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7458,7 +7464,7 @@
         <v>-8.568708846748585</v>
       </c>
       <c r="D128" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E128">
         <v>-6.83753010098529</v>
@@ -7494,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7508,7 +7514,7 @@
         <v>-6.157544698172977</v>
       </c>
       <c r="D129" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E129">
         <v>-7.677096555367967</v>
@@ -7544,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7558,7 +7564,7 @@
         <v>-6.137559295360667</v>
       </c>
       <c r="D130" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E130">
         <v>-7.790126261102067</v>
@@ -7594,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7608,7 +7614,7 @@
         <v>-8.724455302555334</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E131">
         <v>-6.985897440438293</v>
@@ -7644,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7658,7 +7664,7 @@
         <v>-6.312663144077284</v>
       </c>
       <c r="D132" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E132">
         <v>-7.84006512505286</v>
@@ -7694,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7708,7 +7714,7 @@
         <v>-6.299428847716271</v>
       </c>
       <c r="D133" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E133">
         <v>-7.956077877823574</v>
@@ -7744,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7758,7 +7764,7 @@
         <v>-8.881996475438136</v>
       </c>
       <c r="D134" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E134">
         <v>-7.135974465009106</v>
@@ -7794,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7808,7 +7814,7 @@
         <v>-6.469569070295236</v>
       </c>
       <c r="D135" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E135">
         <v>-8.004911634581433</v>
@@ -7844,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7858,7 +7864,7 @@
         <v>-6.463163675581363</v>
       </c>
       <c r="D136" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E136">
         <v>-8.123941809010191</v>
@@ -7894,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7908,7 +7914,7 @@
         <v>-6.555849051211844</v>
       </c>
       <c r="D137" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E137">
         <v>-8.070947070211147</v>
@@ -7944,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7958,7 +7964,7 @@
         <v>-8.944574494910249</v>
       </c>
       <c r="D138" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E138">
         <v>-7.195587598478006</v>
@@ -7994,7 +8000,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8008,7 +8014,7 @@
         <v>-6.531894759043666</v>
       </c>
       <c r="D139" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E139">
         <v>-8.070391457375841</v>
@@ -8044,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8058,7 +8064,7 @@
         <v>-6.52820191960933</v>
       </c>
       <c r="D140" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E140">
         <v>-8.190620202742068</v>
@@ -8094,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8108,7 +8114,7 @@
         <v>-9.097128692828768</v>
       </c>
       <c r="D141" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E141">
         <v>-7.340913926132238</v>
@@ -8144,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8158,7 +8164,7 @@
         <v>-6.683833819067353</v>
       </c>
       <c r="D142" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E142">
         <v>-8.230019741084938</v>
@@ -8194,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8208,7 +8214,7 @@
         <v>-6.686753712002471</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E143">
         <v>-8.35317039145162</v>
@@ -8244,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8258,7 +8264,7 @@
         <v>-9.226549811636133</v>
       </c>
       <c r="D144" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E144">
         <v>-7.464203197576758</v>
@@ -8294,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8308,7 +8314,7 @@
         <v>-6.812733078524694</v>
       </c>
       <c r="D145" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E145">
         <v>-8.365442242417643</v>
@@ -8344,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8358,7 +8364,7 @@
         <v>-9.195297631482575</v>
       </c>
       <c r="D146" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E146">
         <v>-7.43443171547483</v>
@@ -8394,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8408,7 +8414,7 @@
         <v>-6.78160691522659</v>
       </c>
       <c r="D147" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E147">
         <v>-8.33274086842632</v>
@@ -8444,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8458,7 +8464,7 @@
         <v>-9.178575533094566</v>
       </c>
       <c r="D148" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E148">
         <v>-7.418501893925765</v>
@@ -8494,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8508,7 +8514,7 @@
         <v>-9.01172937356634</v>
       </c>
       <c r="D149" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E149">
         <v>-7.259560743971967</v>
@@ -8544,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8558,7 +8564,7 @@
         <v>-6.598778851898729</v>
       </c>
       <c r="D150" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E150">
         <v>-8.14066037274381</v>
@@ -8594,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8608,7 +8614,7 @@
         <v>-6.597996959825494</v>
       </c>
       <c r="D151" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E151">
         <v>-8.26217535066494</v>
@@ -8644,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8658,7 +8664,7 @@
         <v>-6.580061112481111</v>
       </c>
       <c r="D152" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E152">
         <v>-8.095946089051466</v>
@@ -8694,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8708,7 +8714,7 @@
         <v>-8.970596558592923</v>
       </c>
       <c r="D153" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E153">
         <v>-7.220376761966044</v>
@@ -8744,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8758,7 +8764,7 @@
         <v>-6.557811895050207</v>
       </c>
       <c r="D154" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E154">
         <v>-8.09762018933413</v>
@@ -8794,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8808,7 +8814,7 @@
         <v>-6.555247028134374</v>
       </c>
       <c r="D155" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E155">
         <v>-8.218347341162016</v>
@@ -8844,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8858,7 +8864,7 @@
         <v>-6.577113402823095</v>
       </c>
       <c r="D156" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E156">
         <v>-8.092902570845517</v>
@@ -8894,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8908,7 +8914,7 @@
         <v>-8.967428489274667</v>
       </c>
       <c r="D157" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E157">
         <v>-7.217358792706207</v>
@@ -8944,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8958,7 +8964,7 @@
         <v>-6.554656600205007</v>
       </c>
       <c r="D158" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E158">
         <v>-8.094305213575709</v>
@@ -8994,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9008,7 +9014,7 @@
         <v>-6.551954407703803</v>
       </c>
       <c r="D159" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E159">
         <v>-8.214971686656575</v>
@@ -9044,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9058,7 +9064,7 @@
         <v>-8.96588564418861</v>
       </c>
       <c r="D160" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E160">
         <v>-7.215889046127252</v>
@@ -9094,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9108,7 +9114,7 @@
         <v>-6.553119976268491</v>
       </c>
       <c r="D161" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E161">
         <v>-8.092690825269933</v>
@@ -9144,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9158,7 +9164,7 @@
         <v>-6.550350906409733</v>
       </c>
       <c r="D162" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E162">
         <v>-8.213327747890489</v>
@@ -9194,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9208,7 +9214,7 @@
         <v>-8.957282379415823</v>
       </c>
       <c r="D163" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E163">
         <v>-7.207693395713662</v>
@@ -9244,7 +9250,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9258,7 +9264,7 @@
         <v>-6.544551402079463</v>
       </c>
       <c r="D164" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E164">
         <v>-8.083688618783896</v>
@@ -9294,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9308,7 +9314,7 @@
         <v>-6.541409408445269</v>
       </c>
       <c r="D165" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E165">
         <v>-8.204160761131575</v>
@@ -9344,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9358,7 +9364,7 @@
         <v>-9.189704217204067</v>
       </c>
       <c r="D166" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E166">
         <v>-8.287425006865455</v>
@@ -9394,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9408,7 +9414,7 @@
         <v>-8.966990157030267</v>
       </c>
       <c r="D167" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E167">
         <v>-7.216941228219355</v>
@@ -9444,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9458,7 +9464,7 @@
         <v>-6.554220035429331</v>
       </c>
       <c r="D168" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E168">
         <v>-8.09384655544094</v>
@@ -9494,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9508,7 +9514,7 @@
         <v>-6.551498842639312</v>
       </c>
       <c r="D169" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E169">
         <v>-8.214504633045351</v>
@@ -9544,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9558,7 +9564,7 @@
         <v>-9.200987551467627</v>
       </c>
       <c r="D170" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E170">
         <v>-8.062628257853937</v>
@@ -9594,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9608,7 +9614,7 @@
         <v>-5.744424659624897</v>
       </c>
       <c r="D171" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E171">
         <v>-9.168004982467224</v>
@@ -9644,7 +9650,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9658,7 +9664,7 @@
         <v>-9.320459183580553</v>
       </c>
       <c r="D172" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E172">
         <v>-8.519444616447643</v>
@@ -9694,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9708,7 +9714,7 @@
         <v>-9.758278581073185</v>
       </c>
       <c r="D173" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E173">
         <v>-8.519444616447643</v>
@@ -9744,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9758,7 +9764,7 @@
         <v>1.93748613778034</v>
       </c>
       <c r="D174" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E174">
         <v>-3.785088938010851</v>
@@ -9794,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -9808,7 +9814,7 @@
         <v>-9.449792997965268</v>
       </c>
       <c r="D175" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E175">
         <v>-3.02668852932127</v>
@@ -9844,7 +9850,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -9894,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9908,7 +9914,7 @@
         <v>-7.49349826462975</v>
       </c>
       <c r="D177" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E177">
         <v>-2.563031396720049</v>
@@ -9944,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -9958,7 +9964,7 @@
         <v>-7.400654460855741</v>
       </c>
       <c r="D178" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E178">
         <v>-2.563031396720049</v>
@@ -9994,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10008,7 +10014,7 @@
         <v>-7.310878524281797</v>
       </c>
       <c r="D179" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E179">
         <v>-2.470392808492726</v>
@@ -10044,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10058,7 +10064,7 @@
         <v>-1.137705700364087</v>
       </c>
       <c r="D180" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E180">
         <v>-5.327198547332877</v>
@@ -10094,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10108,7 +10114,7 @@
         <v>-7.43565059492704</v>
       </c>
       <c r="D181" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E181">
         <v>-4.511272425220589</v>
@@ -10144,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10158,7 +10164,7 @@
         <v>-7.728087200798136</v>
       </c>
       <c r="D182" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E182">
         <v>-4.511272425220589</v>
@@ -10194,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10208,7 +10214,7 @@
         <v>-7.776944970817269</v>
       </c>
       <c r="D183" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E183">
         <v>-4.636449928781524</v>
@@ -10244,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10258,7 +10264,7 @@
         <v>-2.366005602048894</v>
       </c>
       <c r="D184" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E184">
         <v>-5.159190826471352</v>
@@ -10294,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10308,7 +10314,7 @@
         <v>-3.086643025309506</v>
       </c>
       <c r="D185" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E185">
         <v>-5.921712484906784</v>
@@ -10344,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10358,7 +10364,7 @@
         <v>-8.081861396637805</v>
       </c>
       <c r="D186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E186">
         <v>-5.158033193571107</v>
@@ -10394,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10408,7 +10414,7 @@
         <v>-8.385297335303981</v>
       </c>
       <c r="D187" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E187">
         <v>-5.158033193571107</v>
@@ -10444,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10458,7 +10464,7 @@
         <v>-8.415456239571483</v>
       </c>
       <c r="D188" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E188">
         <v>-5.252412565305825</v>
@@ -10494,7 +10500,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10508,7 +10514,7 @@
         <v>-2.950620140107226</v>
       </c>
       <c r="D189" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E189">
         <v>-5.733355998374364</v>
@@ -10544,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10558,7 +10564,7 @@
         <v>6.422751594100816</v>
       </c>
       <c r="D190" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E190">
         <v>2.901892440584781</v>
@@ -10594,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10608,7 +10614,7 @@
         <v>5.893713788467551</v>
       </c>
       <c r="D191" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E191">
         <v>2.901892440584781</v>
@@ -10644,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10658,7 +10664,7 @@
         <v>0.5179406222671616</v>
       </c>
       <c r="D192" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E192">
         <v>0.1467723461990573</v>
@@ -10694,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10708,7 +10714,7 @@
         <v>0.3677345405657775</v>
       </c>
       <c r="D193" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E193">
         <v>0.1467723461990573</v>
@@ -10744,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10758,7 +10764,7 @@
         <v>7.212705926337946</v>
       </c>
       <c r="D194" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E194">
         <v>3.676716599119786</v>
@@ -10794,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -10808,7 +10814,7 @@
         <v>6.682075470841298</v>
       </c>
       <c r="D195" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E195">
         <v>3.676716599119786</v>
@@ -10844,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -10858,7 +10864,7 @@
         <v>0.8352277483245487</v>
       </c>
       <c r="D196" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E196">
         <v>0.3846845807742838</v>
@@ -10894,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10908,7 +10914,7 @@
         <v>1.19909776925082</v>
       </c>
       <c r="D197" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E197">
         <v>0.3846845807742838</v>
@@ -10944,7 +10950,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -10958,7 +10964,7 @@
         <v>15.85732541489383</v>
       </c>
       <c r="D198" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E198">
         <v>12.15576373860051</v>
@@ -10994,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11008,7 +11014,7 @@
         <v>9.154626138941545</v>
       </c>
       <c r="D199" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E199">
         <v>10.1457637386005</v>
@@ -11044,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11058,7 +11064,7 @@
         <v>20.52882535635497</v>
       </c>
       <c r="D200" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E200">
         <v>17.16608306198427</v>
@@ -11094,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11108,7 +11114,7 @@
         <v>20.01532326601529</v>
       </c>
       <c r="D201" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E201">
         <v>17.16182266903495</v>
@@ -11144,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11158,7 +11164,7 @@
         <v>20.52405408116763</v>
       </c>
       <c r="D202" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E202">
         <v>17.16182266903495</v>
@@ -11194,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11208,7 +11214,7 @@
         <v>19.97713105134113</v>
       </c>
       <c r="D203" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E203">
         <v>17.12745703463643</v>
@@ -11244,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11258,7 +11264,7 @@
         <v>19.78769619247149</v>
       </c>
       <c r="D204" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E204">
         <v>16.95700216162655</v>
@@ -11294,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11308,7 +11314,7 @@
         <v>19.72946947948954</v>
       </c>
       <c r="D205" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E205">
         <v>16.90460933896265</v>
@@ -11344,7 +11350,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11358,7 +11364,7 @@
         <v>19.66471905771537</v>
       </c>
       <c r="D206" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E206">
         <v>16.84634643536238</v>
@@ -11394,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11408,7 +11414,7 @@
         <v>19.5088598974271</v>
       </c>
       <c r="D207" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E207">
         <v>16.70610322176966</v>
@@ -11444,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11458,7 +11464,7 @@
         <v>19.28831605863447</v>
       </c>
       <c r="D208" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E208">
         <v>16.50765626085222</v>
@@ -11494,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11508,7 +11514,7 @@
         <v>19.19520175231204</v>
       </c>
       <c r="D209" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E209">
         <v>16.42387132626151</v>
@@ -11544,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11558,7 +11564,7 @@
         <v>19.05540054991548</v>
       </c>
       <c r="D210" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E210">
         <v>16.12799605103372</v>
@@ -11594,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11608,7 +11614,7 @@
         <v>19.02007289952515</v>
       </c>
       <c r="D211" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E211">
         <v>16.09699076249269</v>
@@ -11644,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11658,7 +11664,7 @@
         <v>18.63226776448187</v>
       </c>
       <c r="D212" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E212">
         <v>15.75663384724757</v>
@@ -11694,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11708,7 +11714,7 @@
         <v>18.71498673226228</v>
       </c>
       <c r="D213" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E213">
         <v>15.39488806222844</v>
@@ -11744,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11758,7 +11764,7 @@
         <v>18.26133487568657</v>
       </c>
       <c r="D214" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E214">
         <v>15.4310848475438</v>
@@ -11794,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -11808,7 +11814,7 @@
         <v>18.75654747588454</v>
       </c>
       <c r="D215" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E215">
         <v>15.4310848475438</v>
@@ -11844,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -11858,7 +11864,7 @@
         <v>18.16683845632306</v>
       </c>
       <c r="D216" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E216">
         <v>14.535139415301</v>
@@ -11908,7 +11914,7 @@
         <v>19.29117147225969</v>
       </c>
       <c r="D217" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E217">
         <v>15.75788232322333</v>
@@ -11944,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -11994,7 +12000,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12008,7 +12014,7 @@
         <v>12.17255864879727</v>
       </c>
       <c r="D219" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E219">
         <v>11.43255864879727</v>
@@ -12044,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12058,7 +12064,7 @@
         <v>11.88655543238428</v>
       </c>
       <c r="D220" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E220">
         <v>11.43255864879727</v>
@@ -12094,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12108,7 +12114,7 @@
         <v>12.10927609080188</v>
       </c>
       <c r="D221" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E221">
         <v>12.08247455606389</v>
@@ -12144,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12158,7 +12164,7 @@
         <v>11.82138853023023</v>
       </c>
       <c r="D222" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E222">
         <v>12.08247455606389</v>
@@ -12194,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12244,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12258,7 +12264,7 @@
         <v>11.74270804654375</v>
       </c>
       <c r="D224" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E224">
         <v>11.73063502614344</v>
@@ -12294,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12308,7 +12314,7 @@
         <v>11.41854815733105</v>
       </c>
       <c r="D225" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E225">
         <v>11.73063502614344</v>
@@ -12344,7 +12350,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12358,7 +12364,7 @@
         <v>11.75391413984507</v>
       </c>
       <c r="D226" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E226">
         <v>11.73063502614344</v>
@@ -12394,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12444,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12494,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12508,7 +12514,7 @@
         <v>11.17350343307117</v>
       </c>
       <c r="D229" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E229">
         <v>10.95188140489946</v>
@@ -12544,7 +12550,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12558,7 +12564,7 @@
         <v>10.79733859878642</v>
       </c>
       <c r="D230" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E230">
         <v>10.95188140489946</v>
@@ -12594,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12644,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12694,7 +12700,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12708,10 +12714,10 @@
         <v>8.704872622607844</v>
       </c>
       <c r="D233" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E233">
-        <v>8.733973556982541</v>
+        <v>8.559077962935032</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -12720,10 +12726,10 @@
         <v>0.06789512737739216</v>
       </c>
       <c r="H233">
-        <v>0.06952602644301746</v>
+        <v>0.06874092203706496</v>
       </c>
       <c r="I233">
-        <v>0.02910093437469641</v>
+        <v>-0.1457946596728128</v>
       </c>
       <c r="J233">
         <v>0.7627610148812412</v>
@@ -12735,16 +12741,16 @@
         <v>38.3</v>
       </c>
       <c r="M233">
-        <v>39.85</v>
+        <v>39.45</v>
       </c>
       <c r="N233">
-        <v>39.13</v>
+        <v>38.65</v>
       </c>
       <c r="O233">
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12758,10 +12764,10 @@
         <v>8.704296503765352</v>
       </c>
       <c r="D234" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E234">
-        <v>8.733381847295085</v>
+        <v>8.558492192617088</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -12770,10 +12776,10 @@
         <v>0.06789570349623465</v>
       </c>
       <c r="H234">
-        <v>0.06952661815270492</v>
+        <v>0.0687415078073829</v>
       </c>
       <c r="I234">
-        <v>0.02908534352973291</v>
+        <v>-0.1458043111482645</v>
       </c>
       <c r="J234">
         <v>0.7627758633050167</v>
@@ -12785,16 +12791,16 @@
         <v>38.3</v>
       </c>
       <c r="M234">
-        <v>39.85</v>
+        <v>39.45</v>
       </c>
       <c r="N234">
-        <v>39.13</v>
+        <v>38.65</v>
       </c>
       <c r="O234">
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -12802,81 +12808,81 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C235">
-        <v>16.50634301293896</v>
+        <v>8.768594105681494</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
       </c>
       <c r="E235">
-        <v>12.49385326957118</v>
+        <v>8.623866945080792</v>
       </c>
       <c r="F235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>0.08135365698706104</v>
+        <v>0.06783140589431849</v>
       </c>
       <c r="H235">
-        <v>0.07528614673042883</v>
+        <v>0.06867613305491921</v>
       </c>
       <c r="I235">
-        <v>4.01248974336778</v>
+        <v>-0.1447271606007021</v>
       </c>
       <c r="J235">
         <v>0.7611187086164564</v>
       </c>
       <c r="K235">
-        <v>42.6</v>
+        <v>38.8</v>
       </c>
       <c r="L235">
-        <v>48.93</v>
+        <v>38.3</v>
       </c>
       <c r="M235">
-        <v>41.25</v>
+        <v>39.45</v>
       </c>
       <c r="N235">
-        <v>43.89</v>
+        <v>38.65</v>
       </c>
       <c r="O235">
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236" spans="1:16">
       <c r="A236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B236" t="s">
         <v>72</v>
       </c>
       <c r="C236">
-        <v>8.768594105681494</v>
+        <v>8.794425128675002</v>
       </c>
       <c r="D236" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E236">
-        <v>8.799419461634216</v>
+        <v>8.650130704284244</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236">
-        <v>0.06783140589431849</v>
+        <v>0.06780557487132499</v>
       </c>
       <c r="H236">
-        <v>0.06946058053836579</v>
+        <v>0.06864986929571575</v>
       </c>
       <c r="I236">
-        <v>0.03082535595272162</v>
+        <v>-0.1442944243907576</v>
       </c>
       <c r="J236">
-        <v>0.7611187086164564</v>
+        <v>0.7604529606011597</v>
       </c>
       <c r="K236">
         <v>38.8</v>
@@ -12885,16 +12891,16 @@
         <v>38.3</v>
       </c>
       <c r="M236">
-        <v>39.85</v>
+        <v>39.45</v>
       </c>
       <c r="N236">
-        <v>39.13</v>
+        <v>38.65</v>
       </c>
       <c r="O236">
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -12905,28 +12911,28 @@
         <v>73</v>
       </c>
       <c r="C237">
-        <v>16.53470387839059</v>
+        <v>16.5169693618984</v>
       </c>
       <c r="D237" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E237">
-        <v>12.52131537520216</v>
+        <v>12.50414286803543</v>
       </c>
       <c r="F237">
         <v>-1</v>
       </c>
       <c r="G237">
-        <v>0.08132529612160939</v>
+        <v>0.0813430306381016</v>
       </c>
       <c r="H237">
-        <v>0.07525868462479784</v>
+        <v>0.07527585713196457</v>
       </c>
       <c r="I237">
-        <v>4.013388503188434</v>
+        <v>4.012826493862978</v>
       </c>
       <c r="J237">
-        <v>0.7604529606011597</v>
+        <v>0.7608692638052018</v>
       </c>
       <c r="K237">
         <v>42.6</v>
@@ -12944,7 +12950,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -12955,28 +12961,28 @@
         <v>72</v>
       </c>
       <c r="C238">
-        <v>8.794425128675002</v>
+        <v>8.778272564358168</v>
       </c>
       <c r="D238" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E238">
-        <v>8.825949520043785</v>
+        <v>8.633707542884785</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238">
-        <v>0.06780557487132499</v>
+        <v>0.06782172743564184</v>
       </c>
       <c r="H238">
-        <v>0.06943405047995622</v>
+        <v>0.06866629245711522</v>
       </c>
       <c r="I238">
-        <v>0.03152439136878371</v>
+        <v>-0.1445650214733831</v>
       </c>
       <c r="J238">
-        <v>0.7604529606011597</v>
+        <v>0.7608692638052018</v>
       </c>
       <c r="K238">
         <v>38.8</v>
@@ -12985,16 +12991,16 @@
         <v>38.3</v>
       </c>
       <c r="M238">
-        <v>39.85</v>
+        <v>39.45</v>
       </c>
       <c r="N238">
-        <v>39.13</v>
+        <v>38.65</v>
       </c>
       <c r="O238">
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13002,99 +13008,49 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C239">
-        <v>16.5169693618984</v>
+        <v>11.09936735679353</v>
       </c>
       <c r="D239" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="E239">
-        <v>12.50414286803543</v>
+        <v>6.600011940326141</v>
       </c>
       <c r="F239">
         <v>-1</v>
       </c>
       <c r="G239">
-        <v>0.0813430306381016</v>
+        <v>0.08306063264320648</v>
       </c>
       <c r="H239">
-        <v>0.07527585713196457</v>
+        <v>0.07523998805967387</v>
       </c>
       <c r="I239">
-        <v>4.012826493862978</v>
+        <v>4.499355416467388</v>
       </c>
       <c r="J239">
-        <v>0.7608692638052018</v>
+        <v>0.851612606939798</v>
       </c>
       <c r="K239">
-        <v>42.6</v>
+        <v>42.25</v>
       </c>
       <c r="L239">
-        <v>48.93</v>
+        <v>47.08</v>
       </c>
       <c r="M239">
-        <v>41.25</v>
+        <v>40.3</v>
       </c>
       <c r="N239">
-        <v>43.89</v>
+        <v>40.92</v>
       </c>
       <c r="O239">
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16">
-      <c r="A240" s="1">
-        <v>1</v>
-      </c>
-      <c r="B240" t="s">
-        <v>72</v>
-      </c>
-      <c r="C240">
-        <v>8.778272564358168</v>
-      </c>
-      <c r="D240" t="s">
-        <v>133</v>
-      </c>
-      <c r="E240">
-        <v>8.80935983736271</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>0.06782172743564184</v>
-      </c>
-      <c r="H240">
-        <v>0.0694506401626373</v>
-      </c>
-      <c r="I240">
-        <v>0.03108727300454106</v>
-      </c>
-      <c r="J240">
-        <v>0.7608692638052018</v>
-      </c>
-      <c r="K240">
-        <v>38.8</v>
-      </c>
-      <c r="L240">
-        <v>38.3</v>
-      </c>
-      <c r="M240">
-        <v>39.85</v>
-      </c>
-      <c r="N240">
-        <v>39.13</v>
-      </c>
-      <c r="O240">
-        <v>1</v>
-      </c>
-      <c r="P240" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-00914-600585.xlsx
+++ b/s60_signal/position-00914-600585.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="242">
   <si>
     <t>trade_time</t>
   </si>
@@ -235,7 +235,7 @@
     <t>2021-07-14</t>
   </si>
   <si>
-    <t>2021-06-08</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-06-16</t>
@@ -418,10 +418,7 @@
     <t>2021-07-13</t>
   </si>
   <si>
-    <t>2021-07-16</t>
-  </si>
-  <si>
-    <t>2021-06-17</t>
+    <t>2021-07-19</t>
   </si>
   <si>
     <t>2016-12-22</t>
@@ -1200,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1250,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1300,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1350,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1400,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1450,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1500,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1550,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1600,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1650,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1700,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1750,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1800,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1850,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1900,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1950,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2000,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2050,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2100,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2150,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2200,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2250,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2300,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2350,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2400,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2450,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2500,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2550,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2600,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2650,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2700,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2750,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2800,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2850,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2900,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2950,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3000,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3050,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3100,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3150,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3200,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3250,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3300,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3350,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3400,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3450,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3500,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3550,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3600,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3650,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3750,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3800,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3850,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3900,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3950,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4000,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4050,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4100,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4150,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4200,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4250,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4300,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4350,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4400,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4450,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4500,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4650,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4700,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4750,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4800,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4850,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4900,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4950,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5100,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5150,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5200,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5250,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5300,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5350,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5400,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5450,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5550,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5600,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5650,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5700,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5750,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5800,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5850,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5900,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5950,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6000,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6050,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6100,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6150,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6200,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6250,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6300,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6350,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6400,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6450,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6500,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6800,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6850,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6900,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6950,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7000,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7250,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7300,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7350,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7400,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7450,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7500,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7550,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7600,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7800,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7850,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7900,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7950,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8000,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8050,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8100,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8150,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8200,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8250,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8300,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8350,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8400,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8450,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8500,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8550,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8600,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8650,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8700,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8750,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8800,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8850,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8900,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8950,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9000,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9050,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9100,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9150,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9200,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9250,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9300,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9350,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9400,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9450,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9500,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9550,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9600,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9650,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9700,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9750,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9800,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -9850,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -9900,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9950,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10000,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10050,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10600,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10650,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10700,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10750,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10800,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -10850,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -10900,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10950,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11000,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11050,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11100,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11150,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11200,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11250,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11300,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11350,7 +11347,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11400,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11450,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11500,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11550,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11600,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11650,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11700,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11750,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11800,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -11850,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -11950,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12000,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12050,7 +12047,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12100,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12150,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12200,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12250,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12450,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12500,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12650,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12700,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12717,7 +12714,7 @@
         <v>134</v>
       </c>
       <c r="E233">
-        <v>8.559077962935032</v>
+        <v>8.731838977816277</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -12726,10 +12723,10 @@
         <v>0.06789512737739216</v>
       </c>
       <c r="H233">
-        <v>0.06874092203706496</v>
+        <v>0.06738816102218373</v>
       </c>
       <c r="I233">
-        <v>-0.1457946596728128</v>
+        <v>0.02696635520843316</v>
       </c>
       <c r="J233">
         <v>0.7627610148812412</v>
@@ -12741,16 +12738,16 @@
         <v>38.3</v>
       </c>
       <c r="M233">
-        <v>39.45</v>
+        <v>38.45</v>
       </c>
       <c r="N233">
-        <v>38.65</v>
+        <v>38.06</v>
       </c>
       <c r="O233">
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12767,7 +12764,7 @@
         <v>134</v>
       </c>
       <c r="E234">
-        <v>8.558492192617088</v>
+        <v>8.731268055922108</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -12776,10 +12773,10 @@
         <v>0.06789570349623465</v>
       </c>
       <c r="H234">
-        <v>0.0687415078073829</v>
+        <v>0.06738873194407791</v>
       </c>
       <c r="I234">
-        <v>-0.1458043111482645</v>
+        <v>0.02697155215675551</v>
       </c>
       <c r="J234">
         <v>0.7627758633050167</v>
@@ -12791,16 +12788,16 @@
         <v>38.3</v>
       </c>
       <c r="M234">
-        <v>39.45</v>
+        <v>38.45</v>
       </c>
       <c r="N234">
-        <v>38.65</v>
+        <v>38.06</v>
       </c>
       <c r="O234">
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -12817,7 +12814,7 @@
         <v>134</v>
       </c>
       <c r="E235">
-        <v>8.623866945080792</v>
+        <v>8.794985653697253</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -12826,10 +12823,10 @@
         <v>0.06783140589431849</v>
       </c>
       <c r="H235">
-        <v>0.06867613305491921</v>
+        <v>0.06732501434630275</v>
       </c>
       <c r="I235">
-        <v>-0.1447271606007021</v>
+        <v>0.02639154801575927</v>
       </c>
       <c r="J235">
         <v>0.7611187086164564</v>
@@ -12841,16 +12838,16 @@
         <v>38.3</v>
       </c>
       <c r="M235">
-        <v>39.45</v>
+        <v>38.45</v>
       </c>
       <c r="N235">
-        <v>38.65</v>
+        <v>38.06</v>
       </c>
       <c r="O235">
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -12867,7 +12864,7 @@
         <v>134</v>
       </c>
       <c r="E236">
-        <v>8.650130704284244</v>
+        <v>8.820583664885408</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -12876,10 +12873,10 @@
         <v>0.06780557487132499</v>
       </c>
       <c r="H236">
-        <v>0.06864986929571575</v>
+        <v>0.0672994163351146</v>
       </c>
       <c r="I236">
-        <v>-0.1442944243907576</v>
+        <v>0.02615853621040642</v>
       </c>
       <c r="J236">
         <v>0.7604529606011597</v>
@@ -12891,16 +12888,16 @@
         <v>38.3</v>
       </c>
       <c r="M236">
-        <v>39.45</v>
+        <v>38.45</v>
       </c>
       <c r="N236">
-        <v>38.65</v>
+        <v>38.06</v>
       </c>
       <c r="O236">
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -12908,43 +12905,43 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C237">
-        <v>16.5169693618984</v>
+        <v>8.778272564358168</v>
       </c>
       <c r="D237" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E237">
-        <v>12.50414286803543</v>
+        <v>8.80457680668999</v>
       </c>
       <c r="F237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>0.0813430306381016</v>
+        <v>0.06782172743564184</v>
       </c>
       <c r="H237">
-        <v>0.07527585713196457</v>
+        <v>0.06731542319331001</v>
       </c>
       <c r="I237">
-        <v>4.012826493862978</v>
+        <v>0.02630424233182183</v>
       </c>
       <c r="J237">
         <v>0.7608692638052018</v>
       </c>
       <c r="K237">
-        <v>42.6</v>
+        <v>38.8</v>
       </c>
       <c r="L237">
-        <v>48.93</v>
+        <v>38.3</v>
       </c>
       <c r="M237">
-        <v>41.25</v>
+        <v>38.45</v>
       </c>
       <c r="N237">
-        <v>43.89</v>
+        <v>38.06</v>
       </c>
       <c r="O237">
         <v>1</v>
@@ -12958,43 +12955,43 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C238">
-        <v>8.778272564358168</v>
+        <v>8.633707542884785</v>
       </c>
       <c r="D238" t="s">
         <v>134</v>
       </c>
       <c r="E238">
-        <v>8.633707542884785</v>
+        <v>8.80457680668999</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238">
-        <v>0.06782172743564184</v>
+        <v>0.06866629245711522</v>
       </c>
       <c r="H238">
-        <v>0.06866629245711522</v>
+        <v>0.06731542319331001</v>
       </c>
       <c r="I238">
-        <v>-0.1445650214733831</v>
+        <v>0.170869263805205</v>
       </c>
       <c r="J238">
         <v>0.7608692638052018</v>
       </c>
       <c r="K238">
-        <v>38.8</v>
+        <v>39.45</v>
       </c>
       <c r="L238">
-        <v>38.3</v>
+        <v>38.65</v>
       </c>
       <c r="M238">
-        <v>39.45</v>
+        <v>38.45</v>
       </c>
       <c r="N238">
-        <v>38.65</v>
+        <v>38.06</v>
       </c>
       <c r="O238">
         <v>1</v>
@@ -13050,7 +13047,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-00914-600585.xlsx
+++ b/s60_signal/position-00914-600585.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="242">
   <si>
     <t>trade_time</t>
   </si>
@@ -232,193 +232,193 @@
     <t>2021-07-02</t>
   </si>
   <si>
+    <t>2021-07-16</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2017-06-06</t>
+  </si>
+  <si>
+    <t>2017-06-08</t>
+  </si>
+  <si>
+    <t>2017-06-13</t>
+  </si>
+  <si>
+    <t>2017-06-14</t>
+  </si>
+  <si>
+    <t>2017-06-15</t>
+  </si>
+  <si>
+    <t>2017-06-16</t>
+  </si>
+  <si>
+    <t>2017-06-19</t>
+  </si>
+  <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
+    <t>2017-06-21</t>
+  </si>
+  <si>
+    <t>2017-06-22</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>2017-06-27</t>
+  </si>
+  <si>
+    <t>2017-06-28</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-07-03</t>
+  </si>
+  <si>
+    <t>2017-07-04</t>
+  </si>
+  <si>
+    <t>2017-07-05</t>
+  </si>
+  <si>
+    <t>2017-07-06</t>
+  </si>
+  <si>
+    <t>2017-07-11</t>
+  </si>
+  <si>
+    <t>2017-07-12</t>
+  </si>
+  <si>
+    <t>2017-07-13</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2018-08-06</t>
+  </si>
+  <si>
+    <t>2018-08-07</t>
+  </si>
+  <si>
+    <t>2018-08-08</t>
+  </si>
+  <si>
+    <t>2018-08-09</t>
+  </si>
+  <si>
+    <t>2018-08-10</t>
+  </si>
+  <si>
+    <t>2018-08-13</t>
+  </si>
+  <si>
+    <t>2018-08-14</t>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+  </si>
+  <si>
+    <t>2018-08-16</t>
+  </si>
+  <si>
+    <t>2019-05-15</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2019-09-05</t>
+  </si>
+  <si>
+    <t>2019-11-14</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-07</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
     <t>2021-07-14</t>
   </si>
   <si>
-    <t>2021-07-16</t>
-  </si>
-  <si>
-    <t>2021-06-16</t>
-  </si>
-  <si>
-    <t>2017-06-06</t>
-  </si>
-  <si>
-    <t>2017-06-08</t>
-  </si>
-  <si>
-    <t>2017-06-13</t>
-  </si>
-  <si>
-    <t>2017-06-14</t>
-  </si>
-  <si>
-    <t>2017-06-15</t>
-  </si>
-  <si>
-    <t>2017-06-16</t>
-  </si>
-  <si>
-    <t>2017-06-19</t>
-  </si>
-  <si>
-    <t>2017-06-20</t>
-  </si>
-  <si>
-    <t>2017-06-21</t>
-  </si>
-  <si>
-    <t>2017-06-22</t>
-  </si>
-  <si>
-    <t>2017-06-26</t>
-  </si>
-  <si>
-    <t>2017-06-27</t>
-  </si>
-  <si>
-    <t>2017-06-28</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>2017-07-03</t>
-  </si>
-  <si>
-    <t>2017-07-04</t>
-  </si>
-  <si>
-    <t>2017-07-05</t>
-  </si>
-  <si>
-    <t>2017-07-06</t>
-  </si>
-  <si>
-    <t>2017-07-11</t>
-  </si>
-  <si>
-    <t>2017-07-12</t>
-  </si>
-  <si>
-    <t>2017-07-13</t>
-  </si>
-  <si>
-    <t>2018-03-26</t>
-  </si>
-  <si>
-    <t>2018-08-06</t>
-  </si>
-  <si>
-    <t>2018-08-07</t>
-  </si>
-  <si>
-    <t>2018-08-08</t>
-  </si>
-  <si>
-    <t>2018-08-09</t>
-  </si>
-  <si>
-    <t>2018-08-10</t>
-  </si>
-  <si>
-    <t>2018-08-13</t>
-  </si>
-  <si>
-    <t>2018-08-14</t>
-  </si>
-  <si>
-    <t>2018-08-15</t>
-  </si>
-  <si>
-    <t>2018-08-16</t>
-  </si>
-  <si>
-    <t>2019-05-15</t>
-  </si>
-  <si>
-    <t>2019-08-05</t>
-  </si>
-  <si>
-    <t>2019-12-12</t>
-  </si>
-  <si>
-    <t>2019-12-06</t>
-  </si>
-  <si>
-    <t>2019-09-05</t>
-  </si>
-  <si>
-    <t>2019-11-14</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
-    <t>2020-01-21</t>
-  </si>
-  <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>2020-02-03</t>
-  </si>
-  <si>
-    <t>2020-04-29</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2020-12-14</t>
-  </si>
-  <si>
-    <t>2021-03-18</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>2021-04-13</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>2021-03-05</t>
-  </si>
-  <si>
-    <t>2021-07-05</t>
-  </si>
-  <si>
-    <t>2021-07-07</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>2021-07-19</t>
+    <t>2021-07-20</t>
   </si>
   <si>
     <t>2016-12-22</t>
@@ -1097,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P239"/>
+  <dimension ref="A1:P238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1261,7 @@
         <v>3.865859388393531</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>4.097842290047694</v>
@@ -1311,7 +1311,7 @@
         <v>3.867842290047694</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>4.097842290047694</v>
@@ -1361,7 +1361,7 @@
         <v>3.461721442525899</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>3.39419673099987</v>
@@ -1411,7 +1411,7 @@
         <v>3.459734423297274</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>3.39419673099987</v>
@@ -1561,7 +1561,7 @@
         <v>3.16694425131325</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>3.359129610475641</v>
@@ -1611,7 +1611,7 @@
         <v>3.394897239794993</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>3.359129610475641</v>
@@ -1661,7 +1661,7 @@
         <v>3.117640232442373</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>2.635536081278246</v>
@@ -1711,7 +1711,7 @@
         <v>3.321848534770627</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>2.635536081278246</v>
@@ -1761,7 +1761,7 @@
         <v>3.344834697556873</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>2.635536081278246</v>
@@ -1811,7 +1811,7 @@
         <v>2.993112189363568</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>2.673112189363568</v>
@@ -1861,7 +1861,7 @@
         <v>3.20019421576287</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>2.673112189363568</v>
@@ -1911,7 +1911,7 @@
         <v>3.218390838430704</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>2.673112189363568</v>
@@ -1961,7 +1961,7 @@
         <v>3.103012988322206</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18">
         <v>2.62988710634049</v>
@@ -2011,7 +2011,7 @@
         <v>3.117383578413634</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>2.62988710634049</v>
@@ -2061,7 +2061,7 @@
         <v>2.953610693719877</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>2.537157276716563</v>
@@ -2111,7 +2111,7 @@
         <v>2.962099303708847</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>2.537157276716563</v>
@@ -2161,7 +2161,7 @@
         <v>2.872635186535728</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>2.682635186535727</v>
@@ -2211,7 +2211,7 @@
         <v>2.877935784430836</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>2.682635186535727</v>
@@ -2261,7 +2261,7 @@
         <v>2.852267607428114</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>2.629917990017542</v>
@@ -2311,7 +2311,7 @@
         <v>2.856766332130007</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25">
         <v>2.629917990017542</v>
@@ -2361,7 +2361,7 @@
         <v>2.811761351230931</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <v>2.640825752700035</v>
@@ -2411,7 +2411,7 @@
         <v>2.814665341436871</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <v>2.640825752700035</v>
@@ -2561,7 +2561,7 @@
         <v>2.63826823762383</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>2.63791236922124</v>
@@ -2611,7 +2611,7 @@
         <v>2.634341790286186</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>2.63791236922124</v>
@@ -2661,7 +2661,7 @@
         <v>2.644964559990708</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>2.63791236922124</v>
@@ -2711,7 +2711,7 @@
         <v>2.731915275790641</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33">
         <v>2.352208534673963</v>
@@ -2761,7 +2761,7 @@
         <v>2.610439248718354</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34">
         <v>2.352208534673963</v>
@@ -2811,7 +2811,7 @@
         <v>2.746753374580404</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35">
         <v>2.350225795209379</v>
@@ -2911,7 +2911,7 @@
         <v>2.787117571133386</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <v>2.823906542063554</v>
@@ -2961,7 +2961,7 @@
         <v>2.883884958958227</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38">
         <v>2.823906542063554</v>
@@ -3011,7 +3011,7 @@
         <v>2.85679612614372</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39">
         <v>2.509699758109345</v>
@@ -3061,7 +3061,7 @@
         <v>2.784156488881695</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40">
         <v>2.482559097029725</v>
@@ -3111,7 +3111,7 @@
         <v>2.712068545906188</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>2.389269688337961</v>
@@ -3161,7 +3161,7 @@
         <v>2.702691411029491</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42">
         <v>2.366731283785484</v>
@@ -3261,7 +3261,7 @@
         <v>2.972898466540091</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44">
         <v>2.959777273665928</v>
@@ -3311,7 +3311,7 @@
         <v>2.921933117969051</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45">
         <v>2.740731067560024</v>
@@ -3361,7 +3361,7 @@
         <v>2.98396235602636</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46">
         <v>2.472809772939694</v>
@@ -3411,7 +3411,7 @@
         <v>0.9436087597884253</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47">
         <v>-1.99755555963268</v>
@@ -3461,7 +3461,7 @@
         <v>0.9931330872741064</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48">
         <v>-1.945846335346161</v>
@@ -3511,7 +3511,7 @@
         <v>1.061208452840496</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E49">
         <v>-1.561324587868725</v>
@@ -3561,7 +3561,7 @@
         <v>1.119649719030264</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50">
         <v>-1.498535232517298</v>
@@ -3611,7 +3611,7 @@
         <v>1.154541005165207</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51">
         <v>-1.461047999494632</v>
@@ -3661,7 +3661,7 @@
         <v>1.131852687543812</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <v>0.5478188871899121</v>
@@ -3711,7 +3711,7 @@
         <v>1.188936742513683</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53">
         <v>1.063100941658099</v>
@@ -3761,7 +3761,7 @@
         <v>1.249982102732112</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54">
         <v>0.07301952552553104</v>
@@ -3811,7 +3811,7 @@
         <v>1.342037179610671</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55">
         <v>-0.05480301084717354</v>
@@ -3861,7 +3861,7 @@
         <v>1.451972473813719</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56">
         <v>0.9119894589734443</v>
@@ -3911,7 +3911,7 @@
         <v>1.510041973607841</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E57">
         <v>1.302812532847142</v>
@@ -3961,7 +3961,7 @@
         <v>1.540830568775363</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58">
         <v>0.9301997197644951</v>
@@ -4011,7 +4011,7 @@
         <v>1.597939172685521</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59">
         <v>0.792592453180788</v>
@@ -4061,7 +4061,7 @@
         <v>1.703402241378249</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60">
         <v>1.579882369457003</v>
@@ -4111,7 +4111,7 @@
         <v>7.082322116014304</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61">
         <v>9.39892979714033</v>
@@ -4161,7 +4161,7 @@
         <v>6.03547807457366</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62">
         <v>8.392943592760137</v>
@@ -4211,7 +4211,7 @@
         <v>-3.725741650745938</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63">
         <v>-1.061483620645447</v>
@@ -4261,7 +4261,7 @@
         <v>-3.390064231685251</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64">
         <v>-1.061483620645447</v>
@@ -4311,7 +4311,7 @@
         <v>-4.367653322749888</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E65">
         <v>-1.625808861219163</v>
@@ -4361,7 +4361,7 @@
         <v>-4.031312771796635</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66">
         <v>-1.625808861219163</v>
@@ -4411,7 +4411,7 @@
         <v>-4.607517906916144</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E67">
         <v>-1.836681548332265</v>
@@ -4461,7 +4461,7 @@
         <v>-4.270929561970988</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E68">
         <v>-1.836681548332265</v>
@@ -4511,7 +4511,7 @@
         <v>-4.387223400334264</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69">
         <v>-2.098063558594617</v>
@@ -4561,7 +4561,7 @@
         <v>-4.567940612410105</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E70">
         <v>-2.098063558594617</v>
@@ -4611,7 +4611,7 @@
         <v>-4.572133036248417</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71">
         <v>-2.256530930359915</v>
@@ -4661,7 +4661,7 @@
         <v>-4.748008707001226</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-2.256530930359915</v>
@@ -4711,7 +4711,7 @@
         <v>-4.6969899027008</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73">
         <v>-2.363533139172588</v>
@@ -4761,7 +4761,7 @@
         <v>-4.869596410787189</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E74">
         <v>-2.363533139172588</v>
@@ -4811,7 +4811,7 @@
         <v>-4.851917740072338</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E75">
         <v>-2.496306139780017</v>
@@ -4861,7 +4861,7 @@
         <v>-4.5541965709862</v>
       </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E76">
         <v>-2.496306139780017</v>
@@ -4911,7 +4911,7 @@
         <v>-4.568923494933983</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77">
         <v>-2.496306139780017</v>
@@ -4961,7 +4961,7 @@
         <v>-4.843752817660352</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78">
         <v>-2.753521553057368</v>
@@ -5011,7 +5011,7 @@
         <v>-4.803407083453244</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79">
         <v>-2.753521553057368</v>
@@ -5061,7 +5061,7 @@
         <v>-5.12322060515109</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80">
         <v>-3.001775297477636</v>
@@ -5111,7 +5111,7 @@
         <v>-5.086667231317023</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81">
         <v>-3.001775297477636</v>
@@ -5161,7 +5161,7 @@
         <v>-5.498672524566146</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82">
         <v>-3.335292607939238</v>
@@ -5211,7 +5211,7 @@
         <v>-5.467214009763808</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83">
         <v>-3.335292607939238</v>
@@ -5261,7 +5261,7 @@
         <v>-5.942693680916477</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E84">
         <v>-3.729720587118912</v>
@@ -5311,7 +5311,7 @@
         <v>-5.917260505396555</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85">
         <v>-3.729720587118912</v>
@@ -5361,7 +5361,7 @@
         <v>-6.304243385177699</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86">
         <v>-4.050888435058688</v>
@@ -5411,7 +5411,7 @@
         <v>-6.283716416500575</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87">
         <v>-4.050888435058688</v>
@@ -5461,7 +5461,7 @@
         <v>-6.70774440980211</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88">
         <v>-4.422513380784331</v>
@@ -5511,7 +5511,7 @@
         <v>-7.026497484109498</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E89">
         <v>-4.701873696165997</v>
@@ -5561,7 +5561,7 @@
         <v>-7.466555872236626</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90">
         <v>-5.087547937459696</v>
@@ -5611,7 +5611,7 @@
         <v>-5.360456423998336</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91">
         <v>-6.993426227125362</v>
@@ -5661,7 +5661,7 @@
         <v>-8.255385642797997</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92">
         <v>-6.633019871061308</v>
@@ -5711,7 +5711,7 @@
         <v>-5.597771601185165</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93">
         <v>-7.088994860354454</v>
@@ -5761,7 +5761,7 @@
         <v>-5.553423604070751</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94">
         <v>-7.191259698838785</v>
@@ -5811,7 +5811,7 @@
         <v>-8.299892373677679</v>
       </c>
       <c r="D95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E95">
         <v>-6.674413562841202</v>
@@ -5861,7 +5861,7 @@
         <v>-5.645829142288029</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E96">
         <v>-7.139484463254028</v>
@@ -5911,7 +5911,7 @@
         <v>-5.603572718318787</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E97">
         <v>-7.242673485221104</v>
@@ -5961,7 +5961,7 @@
         <v>-8.177862645389048</v>
       </c>
       <c r="D98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E98">
         <v>-6.702607565134123</v>
@@ -6011,7 +6011,7 @@
         <v>-8.330206723969127</v>
       </c>
       <c r="D99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E99">
         <v>-6.702607565134123</v>
@@ -6061,7 +6061,7 @@
         <v>-5.758656618823501</v>
       </c>
       <c r="D100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E100">
         <v>-7.247843724527407</v>
@@ -6111,7 +6111,7 @@
         <v>-5.6785620145153</v>
       </c>
       <c r="D101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E101">
         <v>-7.17387385735514</v>
@@ -6161,7 +6161,7 @@
         <v>-5.637730199357563</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E102">
         <v>-7.277692357634287</v>
@@ -6211,7 +6211,7 @@
         <v>-8.225632222005096</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E103">
         <v>-6.745854277581202</v>
@@ -6261,7 +6261,7 @@
         <v>-8.376705833121981</v>
       </c>
       <c r="D104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E104">
         <v>-6.745854277581202</v>
@@ -6311,7 +6311,7 @@
         <v>-5.862563499790042</v>
       </c>
       <c r="D105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E105">
         <v>-7.296273944224318</v>
@@ -6361,7 +6361,7 @@
         <v>-8.138199110881978</v>
       </c>
       <c r="D106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E106">
         <v>-6.427417499781725</v>
@@ -6411,7 +6411,7 @@
         <v>-5.728770888660677</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E107">
         <v>-7.22662366642691</v>
@@ -6461,7 +6461,7 @@
         <v>-5.690124277539631</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E108">
         <v>-7.331407721978074</v>
@@ -6511,7 +6511,7 @@
         <v>-8.44310768470099</v>
       </c>
       <c r="D109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E109">
         <v>-6.807611628066162</v>
@@ -6561,7 +6561,7 @@
         <v>-5.928529929391487</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E110">
         <v>-7.365433468327915</v>
@@ -6611,7 +6611,7 @@
         <v>-8.210188877839769</v>
       </c>
       <c r="D111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E111">
         <v>-6.495996461248566</v>
@@ -6661,7 +6661,7 @@
         <v>-5.80047037430009</v>
       </c>
       <c r="D112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E112">
         <v>-7.301951668546046</v>
@@ -6711,7 +6711,7 @@
         <v>-5.764944287351611</v>
       </c>
       <c r="D113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E113">
         <v>-7.408114560359508</v>
@@ -6761,7 +6761,7 @@
         <v>-8.501365905896868</v>
       </c>
       <c r="D114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E114">
         <v>-6.861794957287685</v>
@@ -6811,7 +6811,7 @@
         <v>-5.986406129464761</v>
       </c>
       <c r="D115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E115">
         <v>-7.426111156633567</v>
@@ -6861,7 +6861,7 @@
         <v>-8.273349703442292</v>
       </c>
       <c r="D116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E116">
         <v>-6.556164788057423</v>
@@ -6911,7 +6911,7 @@
         <v>-5.863376519154215</v>
       </c>
       <c r="D117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E117">
         <v>-7.36804132275514</v>
@@ -6961,7 +6961,7 @@
         <v>-5.830588250251004</v>
       </c>
       <c r="D118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E118">
         <v>-7.475413948123489</v>
@@ -7011,7 +7011,7 @@
         <v>-6.036191740627181</v>
       </c>
       <c r="D119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E119">
         <v>-7.478306632362695</v>
@@ -7061,7 +7061,7 @@
         <v>-8.327681195491927</v>
       </c>
       <c r="D120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E120">
         <v>-6.607922106592611</v>
@@ -7111,7 +7111,7 @@
         <v>-5.917488932606872</v>
       </c>
       <c r="D121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E121">
         <v>-7.424892218669974</v>
@@ -7161,7 +7161,7 @@
         <v>-5.887055758621138</v>
       </c>
       <c r="D122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E122">
         <v>-7.533305467373957</v>
@@ -7211,7 +7211,7 @@
         <v>-6.124286449526096</v>
       </c>
       <c r="D123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E123">
         <v>-7.570665551593358</v>
@@ -7261,7 +7261,7 @@
         <v>-8.423819755698446</v>
       </c>
       <c r="D124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E124">
         <v>-6.699505714853863</v>
@@ -7311,7 +7311,7 @@
         <v>-6.01323983732869</v>
       </c>
       <c r="D125" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E125">
         <v>-7.525488816950592</v>
@@ -7361,7 +7361,7 @@
         <v>-5.986973959803521</v>
       </c>
       <c r="D126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E126">
         <v>-7.635743429206912</v>
@@ -7411,7 +7411,7 @@
         <v>-6.206127283819491</v>
       </c>
       <c r="D127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E127">
         <v>-7.709858398136483</v>
@@ -7461,7 +7461,7 @@
         <v>-8.568708846748585</v>
       </c>
       <c r="D128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E128">
         <v>-6.83753010098529</v>
@@ -7511,7 +7511,7 @@
         <v>-6.157544698172977</v>
       </c>
       <c r="D129" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E129">
         <v>-7.677096555367967</v>
@@ -7561,7 +7561,7 @@
         <v>-6.137559295360667</v>
       </c>
       <c r="D130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E130">
         <v>-7.790126261102067</v>
@@ -7611,7 +7611,7 @@
         <v>-8.724455302555334</v>
       </c>
       <c r="D131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E131">
         <v>-6.985897440438293</v>
@@ -7647,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7661,7 +7661,7 @@
         <v>-6.312663144077284</v>
       </c>
       <c r="D132" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E132">
         <v>-7.84006512505286</v>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7711,7 +7711,7 @@
         <v>-6.299428847716271</v>
       </c>
       <c r="D133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E133">
         <v>-7.956077877823574</v>
@@ -7747,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7761,7 +7761,7 @@
         <v>-8.881996475438136</v>
       </c>
       <c r="D134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E134">
         <v>-7.135974465009106</v>
@@ -7811,7 +7811,7 @@
         <v>-6.469569070295236</v>
       </c>
       <c r="D135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E135">
         <v>-8.004911634581433</v>
@@ -7861,7 +7861,7 @@
         <v>-6.463163675581363</v>
       </c>
       <c r="D136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E136">
         <v>-8.123941809010191</v>
@@ -7911,7 +7911,7 @@
         <v>-6.555849051211844</v>
       </c>
       <c r="D137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E137">
         <v>-8.070947070211147</v>
@@ -7961,7 +7961,7 @@
         <v>-8.944574494910249</v>
       </c>
       <c r="D138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E138">
         <v>-7.195587598478006</v>
@@ -8011,7 +8011,7 @@
         <v>-6.531894759043666</v>
       </c>
       <c r="D139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E139">
         <v>-8.070391457375841</v>
@@ -8061,7 +8061,7 @@
         <v>-6.52820191960933</v>
       </c>
       <c r="D140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E140">
         <v>-8.190620202742068</v>
@@ -8111,7 +8111,7 @@
         <v>-9.097128692828768</v>
       </c>
       <c r="D141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E141">
         <v>-7.340913926132238</v>
@@ -8161,7 +8161,7 @@
         <v>-6.683833819067353</v>
       </c>
       <c r="D142" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E142">
         <v>-8.230019741084938</v>
@@ -8211,7 +8211,7 @@
         <v>-6.686753712002471</v>
       </c>
       <c r="D143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E143">
         <v>-8.35317039145162</v>
@@ -8261,7 +8261,7 @@
         <v>-9.226549811636133</v>
       </c>
       <c r="D144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E144">
         <v>-7.464203197576758</v>
@@ -8311,7 +8311,7 @@
         <v>-6.812733078524694</v>
       </c>
       <c r="D145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E145">
         <v>-8.365442242417643</v>
@@ -8361,7 +8361,7 @@
         <v>-9.195297631482575</v>
       </c>
       <c r="D146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E146">
         <v>-7.43443171547483</v>
@@ -8411,7 +8411,7 @@
         <v>-6.78160691522659</v>
       </c>
       <c r="D147" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E147">
         <v>-8.33274086842632</v>
@@ -8461,7 +8461,7 @@
         <v>-9.178575533094566</v>
       </c>
       <c r="D148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E148">
         <v>-7.418501893925765</v>
@@ -8511,7 +8511,7 @@
         <v>-9.01172937356634</v>
       </c>
       <c r="D149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E149">
         <v>-7.259560743971967</v>
@@ -8561,7 +8561,7 @@
         <v>-6.598778851898729</v>
       </c>
       <c r="D150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E150">
         <v>-8.14066037274381</v>
@@ -8611,7 +8611,7 @@
         <v>-6.597996959825494</v>
       </c>
       <c r="D151" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E151">
         <v>-8.26217535066494</v>
@@ -8661,7 +8661,7 @@
         <v>-6.580061112481111</v>
       </c>
       <c r="D152" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E152">
         <v>-8.095946089051466</v>
@@ -8711,7 +8711,7 @@
         <v>-8.970596558592923</v>
       </c>
       <c r="D153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E153">
         <v>-7.220376761966044</v>
@@ -8761,7 +8761,7 @@
         <v>-6.557811895050207</v>
       </c>
       <c r="D154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E154">
         <v>-8.09762018933413</v>
@@ -8811,7 +8811,7 @@
         <v>-6.555247028134374</v>
       </c>
       <c r="D155" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E155">
         <v>-8.218347341162016</v>
@@ -8861,7 +8861,7 @@
         <v>-6.577113402823095</v>
       </c>
       <c r="D156" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E156">
         <v>-8.092902570845517</v>
@@ -8911,7 +8911,7 @@
         <v>-8.967428489274667</v>
       </c>
       <c r="D157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E157">
         <v>-7.217358792706207</v>
@@ -8961,7 +8961,7 @@
         <v>-6.554656600205007</v>
       </c>
       <c r="D158" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E158">
         <v>-8.094305213575709</v>
@@ -9011,7 +9011,7 @@
         <v>-6.551954407703803</v>
       </c>
       <c r="D159" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E159">
         <v>-8.214971686656575</v>
@@ -9061,7 +9061,7 @@
         <v>-8.96588564418861</v>
       </c>
       <c r="D160" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E160">
         <v>-7.215889046127252</v>
@@ -9111,7 +9111,7 @@
         <v>-6.553119976268491</v>
       </c>
       <c r="D161" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E161">
         <v>-8.092690825269933</v>
@@ -9161,7 +9161,7 @@
         <v>-6.550350906409733</v>
       </c>
       <c r="D162" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E162">
         <v>-8.213327747890489</v>
@@ -9211,7 +9211,7 @@
         <v>-8.957282379415823</v>
       </c>
       <c r="D163" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E163">
         <v>-7.207693395713662</v>
@@ -9261,7 +9261,7 @@
         <v>-6.544551402079463</v>
       </c>
       <c r="D164" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E164">
         <v>-8.083688618783896</v>
@@ -9311,7 +9311,7 @@
         <v>-6.541409408445269</v>
       </c>
       <c r="D165" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E165">
         <v>-8.204160761131575</v>
@@ -9361,7 +9361,7 @@
         <v>-9.189704217204067</v>
       </c>
       <c r="D166" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E166">
         <v>-8.287425006865455</v>
@@ -9411,7 +9411,7 @@
         <v>-8.966990157030267</v>
       </c>
       <c r="D167" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E167">
         <v>-7.216941228219355</v>
@@ -9461,7 +9461,7 @@
         <v>-6.554220035429331</v>
       </c>
       <c r="D168" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E168">
         <v>-8.09384655544094</v>
@@ -9511,7 +9511,7 @@
         <v>-6.551498842639312</v>
       </c>
       <c r="D169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E169">
         <v>-8.214504633045351</v>
@@ -9561,7 +9561,7 @@
         <v>-9.200987551467627</v>
       </c>
       <c r="D170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E170">
         <v>-8.062628257853937</v>
@@ -9611,7 +9611,7 @@
         <v>-5.744424659624897</v>
       </c>
       <c r="D171" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E171">
         <v>-9.168004982467224</v>
@@ -9661,7 +9661,7 @@
         <v>-9.320459183580553</v>
       </c>
       <c r="D172" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E172">
         <v>-8.519444616447643</v>
@@ -9711,7 +9711,7 @@
         <v>-9.758278581073185</v>
       </c>
       <c r="D173" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E173">
         <v>-8.519444616447643</v>
@@ -9761,7 +9761,7 @@
         <v>1.93748613778034</v>
       </c>
       <c r="D174" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E174">
         <v>-3.785088938010851</v>
@@ -9811,7 +9811,7 @@
         <v>-9.449792997965268</v>
       </c>
       <c r="D175" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E175">
         <v>-3.02668852932127</v>
@@ -9911,7 +9911,7 @@
         <v>-7.49349826462975</v>
       </c>
       <c r="D177" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E177">
         <v>-2.563031396720049</v>
@@ -9961,7 +9961,7 @@
         <v>-7.400654460855741</v>
       </c>
       <c r="D178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E178">
         <v>-2.563031396720049</v>
@@ -10011,7 +10011,7 @@
         <v>-7.310878524281797</v>
       </c>
       <c r="D179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E179">
         <v>-2.470392808492726</v>
@@ -10061,7 +10061,7 @@
         <v>-1.137705700364087</v>
       </c>
       <c r="D180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E180">
         <v>-5.327198547332877</v>
@@ -10097,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10111,7 +10111,7 @@
         <v>-7.43565059492704</v>
       </c>
       <c r="D181" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E181">
         <v>-4.511272425220589</v>
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10161,7 +10161,7 @@
         <v>-7.728087200798136</v>
       </c>
       <c r="D182" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E182">
         <v>-4.511272425220589</v>
@@ -10197,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10211,7 +10211,7 @@
         <v>-7.776944970817269</v>
       </c>
       <c r="D183" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E183">
         <v>-4.636449928781524</v>
@@ -10247,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10261,7 +10261,7 @@
         <v>-2.366005602048894</v>
       </c>
       <c r="D184" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E184">
         <v>-5.159190826471352</v>
@@ -10297,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10311,7 +10311,7 @@
         <v>-3.086643025309506</v>
       </c>
       <c r="D185" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E185">
         <v>-5.921712484906784</v>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10361,7 +10361,7 @@
         <v>-8.081861396637805</v>
       </c>
       <c r="D186" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E186">
         <v>-5.158033193571107</v>
@@ -10397,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10411,7 +10411,7 @@
         <v>-8.385297335303981</v>
       </c>
       <c r="D187" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E187">
         <v>-5.158033193571107</v>
@@ -10447,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10461,7 +10461,7 @@
         <v>-8.415456239571483</v>
       </c>
       <c r="D188" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E188">
         <v>-5.252412565305825</v>
@@ -10497,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10511,7 +10511,7 @@
         <v>-2.950620140107226</v>
       </c>
       <c r="D189" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E189">
         <v>-5.733355998374364</v>
@@ -10547,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10561,7 +10561,7 @@
         <v>6.422751594100816</v>
       </c>
       <c r="D190" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E190">
         <v>2.901892440584781</v>
@@ -10611,7 +10611,7 @@
         <v>5.893713788467551</v>
       </c>
       <c r="D191" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E191">
         <v>2.901892440584781</v>
@@ -10661,7 +10661,7 @@
         <v>0.5179406222671616</v>
       </c>
       <c r="D192" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E192">
         <v>0.1467723461990573</v>
@@ -10711,7 +10711,7 @@
         <v>0.3677345405657775</v>
       </c>
       <c r="D193" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E193">
         <v>0.1467723461990573</v>
@@ -10761,7 +10761,7 @@
         <v>7.212705926337946</v>
       </c>
       <c r="D194" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E194">
         <v>3.676716599119786</v>
@@ -10811,7 +10811,7 @@
         <v>6.682075470841298</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E195">
         <v>3.676716599119786</v>
@@ -10861,7 +10861,7 @@
         <v>0.8352277483245487</v>
       </c>
       <c r="D196" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E196">
         <v>0.3846845807742838</v>
@@ -10911,7 +10911,7 @@
         <v>1.19909776925082</v>
       </c>
       <c r="D197" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E197">
         <v>0.3846845807742838</v>
@@ -10961,7 +10961,7 @@
         <v>15.85732541489383</v>
       </c>
       <c r="D198" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E198">
         <v>12.15576373860051</v>
@@ -11011,7 +11011,7 @@
         <v>9.154626138941545</v>
       </c>
       <c r="D199" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E199">
         <v>10.1457637386005</v>
@@ -11061,7 +11061,7 @@
         <v>20.52882535635497</v>
       </c>
       <c r="D200" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E200">
         <v>17.16608306198427</v>
@@ -11111,7 +11111,7 @@
         <v>20.01532326601529</v>
       </c>
       <c r="D201" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E201">
         <v>17.16182266903495</v>
@@ -11161,7 +11161,7 @@
         <v>20.52405408116763</v>
       </c>
       <c r="D202" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E202">
         <v>17.16182266903495</v>
@@ -11211,7 +11211,7 @@
         <v>19.97713105134113</v>
       </c>
       <c r="D203" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E203">
         <v>17.12745703463643</v>
@@ -11261,7 +11261,7 @@
         <v>19.78769619247149</v>
       </c>
       <c r="D204" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E204">
         <v>16.95700216162655</v>
@@ -11311,7 +11311,7 @@
         <v>19.72946947948954</v>
       </c>
       <c r="D205" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E205">
         <v>16.90460933896265</v>
@@ -11361,7 +11361,7 @@
         <v>19.66471905771537</v>
       </c>
       <c r="D206" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E206">
         <v>16.84634643536238</v>
@@ -11411,7 +11411,7 @@
         <v>19.5088598974271</v>
       </c>
       <c r="D207" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E207">
         <v>16.70610322176966</v>
@@ -11461,7 +11461,7 @@
         <v>19.28831605863447</v>
       </c>
       <c r="D208" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E208">
         <v>16.50765626085222</v>
@@ -11511,7 +11511,7 @@
         <v>19.19520175231204</v>
       </c>
       <c r="D209" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E209">
         <v>16.42387132626151</v>
@@ -11561,7 +11561,7 @@
         <v>19.05540054991548</v>
       </c>
       <c r="D210" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E210">
         <v>16.12799605103372</v>
@@ -11611,7 +11611,7 @@
         <v>19.02007289952515</v>
       </c>
       <c r="D211" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E211">
         <v>16.09699076249269</v>
@@ -11661,7 +11661,7 @@
         <v>18.63226776448187</v>
       </c>
       <c r="D212" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E212">
         <v>15.75663384724757</v>
@@ -11711,7 +11711,7 @@
         <v>18.71498673226228</v>
       </c>
       <c r="D213" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E213">
         <v>15.39488806222844</v>
@@ -11761,7 +11761,7 @@
         <v>18.26133487568657</v>
       </c>
       <c r="D214" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E214">
         <v>15.4310848475438</v>
@@ -11811,7 +11811,7 @@
         <v>18.75654747588454</v>
       </c>
       <c r="D215" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E215">
         <v>15.4310848475438</v>
@@ -11861,7 +11861,7 @@
         <v>18.16683845632306</v>
       </c>
       <c r="D216" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E216">
         <v>14.535139415301</v>
@@ -11911,7 +11911,7 @@
         <v>19.29117147225969</v>
       </c>
       <c r="D217" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E217">
         <v>15.75788232322333</v>
@@ -12011,7 +12011,7 @@
         <v>12.17255864879727</v>
       </c>
       <c r="D219" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E219">
         <v>11.43255864879727</v>
@@ -12061,7 +12061,7 @@
         <v>11.88655543238428</v>
       </c>
       <c r="D220" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E220">
         <v>11.43255864879727</v>
@@ -12111,7 +12111,7 @@
         <v>12.10927609080188</v>
       </c>
       <c r="D221" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E221">
         <v>12.08247455606389</v>
@@ -12161,7 +12161,7 @@
         <v>11.82138853023023</v>
       </c>
       <c r="D222" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E222">
         <v>12.08247455606389</v>
@@ -12261,7 +12261,7 @@
         <v>11.74270804654375</v>
       </c>
       <c r="D224" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E224">
         <v>11.73063502614344</v>
@@ -12297,7 +12297,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12311,7 +12311,7 @@
         <v>11.41854815733105</v>
       </c>
       <c r="D225" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E225">
         <v>11.73063502614344</v>
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12361,7 +12361,7 @@
         <v>11.75391413984507</v>
       </c>
       <c r="D226" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E226">
         <v>11.73063502614344</v>
@@ -12397,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12511,7 +12511,7 @@
         <v>11.17350343307117</v>
       </c>
       <c r="D229" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E229">
         <v>10.95188140489946</v>
@@ -12547,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12561,7 +12561,7 @@
         <v>10.79733859878642</v>
       </c>
       <c r="D230" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E230">
         <v>10.95188140489946</v>
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12611,7 +12611,7 @@
         <v>10.77822897973078</v>
       </c>
       <c r="D231" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="E231">
         <v>10.12779568583672</v>
@@ -12661,7 +12661,7 @@
         <v>10.66475181580885</v>
       </c>
       <c r="D232" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="E232">
         <v>10.12779568583672</v>
@@ -12708,40 +12708,40 @@
         <v>72</v>
       </c>
       <c r="C233">
-        <v>8.704872622607844</v>
+        <v>8.559077962935032</v>
       </c>
       <c r="D233" t="s">
         <v>134</v>
       </c>
       <c r="E233">
-        <v>8.731838977816277</v>
+        <v>8.676734571863783</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
       <c r="G233">
-        <v>0.06789512737739216</v>
+        <v>0.06874092203706496</v>
       </c>
       <c r="H233">
-        <v>0.06738816102218373</v>
+        <v>0.06794326542813621</v>
       </c>
       <c r="I233">
-        <v>0.02696635520843316</v>
+        <v>0.1176566089287512</v>
       </c>
       <c r="J233">
         <v>0.7627610148812412</v>
       </c>
       <c r="K233">
-        <v>38.8</v>
+        <v>39.45</v>
       </c>
       <c r="L233">
-        <v>38.3</v>
+        <v>38.65</v>
       </c>
       <c r="M233">
-        <v>38.45</v>
+        <v>38.85</v>
       </c>
       <c r="N233">
-        <v>38.06</v>
+        <v>38.31</v>
       </c>
       <c r="O233">
         <v>1</v>
@@ -12758,40 +12758,40 @@
         <v>72</v>
       </c>
       <c r="C234">
-        <v>8.704296503765352</v>
+        <v>8.558492192617088</v>
       </c>
       <c r="D234" t="s">
         <v>134</v>
       </c>
       <c r="E234">
-        <v>8.731268055922108</v>
+        <v>8.676157710600105</v>
       </c>
       <c r="F234">
         <v>1</v>
       </c>
       <c r="G234">
-        <v>0.06789570349623465</v>
+        <v>0.0687415078073829</v>
       </c>
       <c r="H234">
-        <v>0.06738873194407791</v>
+        <v>0.0679438422893999</v>
       </c>
       <c r="I234">
-        <v>0.02697155215675551</v>
+        <v>0.1176655179830171</v>
       </c>
       <c r="J234">
         <v>0.7627758633050167</v>
       </c>
       <c r="K234">
-        <v>38.8</v>
+        <v>39.45</v>
       </c>
       <c r="L234">
-        <v>38.3</v>
+        <v>38.65</v>
       </c>
       <c r="M234">
-        <v>38.45</v>
+        <v>38.85</v>
       </c>
       <c r="N234">
-        <v>38.06</v>
+        <v>38.31</v>
       </c>
       <c r="O234">
         <v>1</v>
@@ -12808,40 +12808,40 @@
         <v>72</v>
       </c>
       <c r="C235">
-        <v>8.768594105681494</v>
+        <v>8.623866945080792</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
       </c>
       <c r="E235">
-        <v>8.794985653697253</v>
+        <v>8.740538170250673</v>
       </c>
       <c r="F235">
         <v>1</v>
       </c>
       <c r="G235">
-        <v>0.06783140589431849</v>
+        <v>0.06867613305491921</v>
       </c>
       <c r="H235">
-        <v>0.06732501434630275</v>
+        <v>0.06787946182974933</v>
       </c>
       <c r="I235">
-        <v>0.02639154801575927</v>
+        <v>0.1166712251698812</v>
       </c>
       <c r="J235">
         <v>0.7611187086164564</v>
       </c>
       <c r="K235">
-        <v>38.8</v>
+        <v>39.45</v>
       </c>
       <c r="L235">
-        <v>38.3</v>
+        <v>38.65</v>
       </c>
       <c r="M235">
-        <v>38.45</v>
+        <v>38.85</v>
       </c>
       <c r="N235">
-        <v>38.06</v>
+        <v>38.31</v>
       </c>
       <c r="O235">
         <v>1</v>
@@ -12858,40 +12858,40 @@
         <v>72</v>
       </c>
       <c r="C236">
-        <v>8.794425128675002</v>
+        <v>8.650130704284244</v>
       </c>
       <c r="D236" t="s">
         <v>134</v>
       </c>
       <c r="E236">
-        <v>8.820583664885408</v>
+        <v>8.766402480644945</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236">
-        <v>0.06780557487132499</v>
+        <v>0.06864986929571575</v>
       </c>
       <c r="H236">
-        <v>0.0672994163351146</v>
+        <v>0.06785359751935506</v>
       </c>
       <c r="I236">
-        <v>0.02615853621040642</v>
+        <v>0.1162717763607013</v>
       </c>
       <c r="J236">
         <v>0.7604529606011597</v>
       </c>
       <c r="K236">
-        <v>38.8</v>
+        <v>39.45</v>
       </c>
       <c r="L236">
-        <v>38.3</v>
+        <v>38.65</v>
       </c>
       <c r="M236">
-        <v>38.45</v>
+        <v>38.85</v>
       </c>
       <c r="N236">
-        <v>38.06</v>
+        <v>38.31</v>
       </c>
       <c r="O236">
         <v>1</v>
@@ -12908,40 +12908,40 @@
         <v>72</v>
       </c>
       <c r="C237">
-        <v>8.778272564358168</v>
+        <v>8.633707542884785</v>
       </c>
       <c r="D237" t="s">
         <v>134</v>
       </c>
       <c r="E237">
-        <v>8.80457680668999</v>
+        <v>8.750229101167911</v>
       </c>
       <c r="F237">
         <v>1</v>
       </c>
       <c r="G237">
-        <v>0.06782172743564184</v>
+        <v>0.06866629245711522</v>
       </c>
       <c r="H237">
-        <v>0.06731542319331001</v>
+        <v>0.06786977089883209</v>
       </c>
       <c r="I237">
-        <v>0.02630424233182183</v>
+        <v>0.1165215582831252</v>
       </c>
       <c r="J237">
         <v>0.7608692638052018</v>
       </c>
       <c r="K237">
-        <v>38.8</v>
+        <v>39.45</v>
       </c>
       <c r="L237">
-        <v>38.3</v>
+        <v>38.65</v>
       </c>
       <c r="M237">
-        <v>38.45</v>
+        <v>38.85</v>
       </c>
       <c r="N237">
-        <v>38.06</v>
+        <v>38.31</v>
       </c>
       <c r="O237">
         <v>1</v>
@@ -12952,101 +12952,51 @@
     </row>
     <row r="238" spans="1:16">
       <c r="A238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B238" t="s">
         <v>73</v>
       </c>
       <c r="C238">
-        <v>8.633707542884785</v>
+        <v>11.09936735679353</v>
       </c>
       <c r="D238" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="E238">
-        <v>8.80457680668999</v>
+        <v>6.600011940326141</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G238">
-        <v>0.06866629245711522</v>
+        <v>0.08306063264320648</v>
       </c>
       <c r="H238">
-        <v>0.06731542319331001</v>
+        <v>0.07523998805967387</v>
       </c>
       <c r="I238">
-        <v>0.170869263805205</v>
+        <v>4.499355416467388</v>
       </c>
       <c r="J238">
-        <v>0.7608692638052018</v>
+        <v>0.851612606939798</v>
       </c>
       <c r="K238">
-        <v>39.45</v>
+        <v>42.25</v>
       </c>
       <c r="L238">
-        <v>38.65</v>
+        <v>47.08</v>
       </c>
       <c r="M238">
-        <v>38.45</v>
+        <v>40.3</v>
       </c>
       <c r="N238">
-        <v>38.06</v>
+        <v>40.92</v>
       </c>
       <c r="O238">
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16">
-      <c r="A239" s="1">
-        <v>0</v>
-      </c>
-      <c r="B239" t="s">
-        <v>74</v>
-      </c>
-      <c r="C239">
-        <v>11.09936735679353</v>
-      </c>
-      <c r="D239" t="s">
-        <v>65</v>
-      </c>
-      <c r="E239">
-        <v>6.600011940326141</v>
-      </c>
-      <c r="F239">
-        <v>-1</v>
-      </c>
-      <c r="G239">
-        <v>0.08306063264320648</v>
-      </c>
-      <c r="H239">
-        <v>0.07523998805967387</v>
-      </c>
-      <c r="I239">
-        <v>4.499355416467388</v>
-      </c>
-      <c r="J239">
-        <v>0.851612606939798</v>
-      </c>
-      <c r="K239">
-        <v>42.25</v>
-      </c>
-      <c r="L239">
-        <v>47.08</v>
-      </c>
-      <c r="M239">
-        <v>40.3</v>
-      </c>
-      <c r="N239">
-        <v>40.92</v>
-      </c>
-      <c r="O239">
-        <v>1</v>
-      </c>
-      <c r="P239" t="s">
         <v>241</v>
       </c>
     </row>
